--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -271,10 +271,10 @@
     <t>FC Vizela</t>
   </si>
   <si>
-    <t>GD Chaves</t>
+    <t>Benfica II</t>
   </si>
   <si>
-    <t>Benfica II</t>
+    <t>GD Chaves</t>
   </si>
   <si>
     <t>CD Tondela</t>
@@ -466,10 +466,10 @@
     <t>['27', '84']</t>
   </si>
   <si>
-    <t>['10', '84']</t>
+    <t>['45', '90+8']</t>
   </si>
   <si>
-    <t>['45', '90+8']</t>
+    <t>['10', '84']</t>
   </si>
   <si>
     <t>['24', '27']</t>
@@ -541,10 +541,10 @@
     <t>['19', '49', '71']</t>
   </si>
   <si>
-    <t>['40']</t>
+    <t>['14', '61', '74']</t>
   </si>
   <si>
-    <t>['14', '61', '74']</t>
+    <t>['40']</t>
   </si>
   <si>
     <t>['51', '68']</t>
@@ -553,10 +553,10 @@
     <t>['11', '66']</t>
   </si>
   <si>
-    <t>['30', '66', '82', '90+4']</t>
+    <t>['2', '18']</t>
   </si>
   <si>
-    <t>['2', '18']</t>
+    <t>['30', '66', '82', '90+4']</t>
   </si>
   <si>
     <t>['39', '49']</t>
@@ -1649,7 +1649,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1855,7 +1855,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -4309,7 +4309,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7502617</v>
+        <v>7502620</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4327,100 +4327,100 @@
         <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s">
         <v>89</v>
       </c>
       <c r="Q17">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="R17">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="S17">
-        <v>4.5</v>
+        <v>4.22</v>
       </c>
       <c r="T17">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="U17">
-        <v>2.63</v>
+        <v>3.07</v>
       </c>
       <c r="V17">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="W17">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="X17">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="Y17">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z17">
+        <v>1.92</v>
+      </c>
+      <c r="AA17">
+        <v>3.33</v>
+      </c>
+      <c r="AB17">
+        <v>3.69</v>
+      </c>
+      <c r="AC17">
+        <v>1.02</v>
+      </c>
+      <c r="AD17">
+        <v>10</v>
+      </c>
+      <c r="AE17">
+        <v>1.29</v>
+      </c>
+      <c r="AF17">
+        <v>3.4</v>
+      </c>
+      <c r="AG17">
+        <v>1.91</v>
+      </c>
+      <c r="AH17">
         <v>1.95</v>
       </c>
-      <c r="AA17">
-        <v>2.95</v>
-      </c>
-      <c r="AB17">
-        <v>3.25</v>
-      </c>
-      <c r="AC17">
-        <v>1.06</v>
-      </c>
-      <c r="AD17">
-        <v>8</v>
-      </c>
-      <c r="AE17">
-        <v>1.36</v>
-      </c>
-      <c r="AF17">
-        <v>3</v>
-      </c>
-      <c r="AG17">
+      <c r="AI17">
+        <v>1.73</v>
+      </c>
+      <c r="AJ17">
         <v>2.06</v>
       </c>
-      <c r="AH17">
-        <v>1.71</v>
-      </c>
-      <c r="AI17">
-        <v>1.83</v>
-      </c>
-      <c r="AJ17">
-        <v>1.83</v>
-      </c>
       <c r="AK17">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AL17">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM17">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AN17">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4444,70 +4444,70 @@
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV17">
         <v>5</v>
       </c>
       <c r="AW17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AX17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY17">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AZ17">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA17">
         <v>6</v>
       </c>
       <c r="BB17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC17">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD17">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="BE17">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="BF17">
-        <v>2.67</v>
+        <v>2.96</v>
       </c>
       <c r="BG17">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="BH17">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="BI17">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="BJ17">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="BK17">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="BL17">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="BM17">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="BN17">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="BO17">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="BP17">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -4515,7 +4515,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7502620</v>
+        <v>7502617</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4533,100 +4533,100 @@
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P18" t="s">
         <v>89</v>
       </c>
       <c r="Q18">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="R18">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="S18">
-        <v>4.22</v>
+        <v>4.5</v>
       </c>
       <c r="T18">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="U18">
-        <v>3.07</v>
+        <v>2.63</v>
       </c>
       <c r="V18">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="W18">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="X18">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="Y18">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z18">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AA18">
-        <v>3.33</v>
+        <v>2.95</v>
       </c>
       <c r="AB18">
-        <v>3.69</v>
+        <v>3.25</v>
       </c>
       <c r="AC18">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AD18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE18">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AF18">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AG18">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="AH18">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="AI18">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AJ18">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="AK18">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AL18">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM18">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AN18">
         <v>0</v>
@@ -4635,10 +4635,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.17</v>
+        <v>1.6</v>
       </c>
       <c r="AQ18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4650,70 +4650,70 @@
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV18">
         <v>5</v>
       </c>
       <c r="AW18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY18">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AZ18">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA18">
         <v>6</v>
       </c>
       <c r="BB18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC18">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD18">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="BE18">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="BF18">
-        <v>2.96</v>
+        <v>2.67</v>
       </c>
       <c r="BG18">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="BH18">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="BI18">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="BJ18">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BK18">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="BL18">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="BM18">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="BN18">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="BO18">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="BP18">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -6181,7 +6181,7 @@
         <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
         <v>84</v>
@@ -7829,7 +7829,7 @@
         <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -8223,7 +8223,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7502634</v>
+        <v>7502638</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8238,190 +8238,190 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O36" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="P36" t="s">
         <v>175</v>
       </c>
       <c r="Q36">
-        <v>2.89</v>
+        <v>2.5</v>
       </c>
       <c r="R36">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="S36">
-        <v>3.35</v>
+        <v>4.33</v>
       </c>
       <c r="T36">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="U36">
+        <v>2.75</v>
+      </c>
+      <c r="V36">
+        <v>2.75</v>
+      </c>
+      <c r="W36">
+        <v>1.4</v>
+      </c>
+      <c r="X36">
+        <v>8</v>
+      </c>
+      <c r="Y36">
+        <v>1.08</v>
+      </c>
+      <c r="Z36">
+        <v>1.91</v>
+      </c>
+      <c r="AA36">
         <v>3.04</v>
       </c>
-      <c r="V36">
-        <v>2.63</v>
-      </c>
-      <c r="W36">
-        <v>1.45</v>
-      </c>
-      <c r="X36">
-        <v>6.45</v>
-      </c>
-      <c r="Y36">
-        <v>1.09</v>
-      </c>
-      <c r="Z36">
-        <v>2.15</v>
-      </c>
-      <c r="AA36">
-        <v>3.4</v>
-      </c>
       <c r="AB36">
-        <v>2.88</v>
+        <v>3.27</v>
       </c>
       <c r="AC36">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD36">
+        <v>10</v>
+      </c>
+      <c r="AE36">
+        <v>1.25</v>
+      </c>
+      <c r="AF36">
+        <v>3.6</v>
+      </c>
+      <c r="AG36">
+        <v>1.84</v>
+      </c>
+      <c r="AH36">
+        <v>2</v>
+      </c>
+      <c r="AI36">
+        <v>1.8</v>
+      </c>
+      <c r="AJ36">
+        <v>1.91</v>
+      </c>
+      <c r="AK36">
+        <v>1.2</v>
+      </c>
+      <c r="AL36">
+        <v>1.29</v>
+      </c>
+      <c r="AM36">
+        <v>2.05</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>1.6</v>
+      </c>
+      <c r="AQ36">
+        <v>1</v>
+      </c>
+      <c r="AR36">
+        <v>0.91</v>
+      </c>
+      <c r="AS36">
+        <v>1.6</v>
+      </c>
+      <c r="AT36">
+        <v>2.51</v>
+      </c>
+      <c r="AU36">
+        <v>5</v>
+      </c>
+      <c r="AV36">
+        <v>5</v>
+      </c>
+      <c r="AW36">
+        <v>11</v>
+      </c>
+      <c r="AX36">
+        <v>3</v>
+      </c>
+      <c r="AY36">
+        <v>16</v>
+      </c>
+      <c r="AZ36">
         <v>8</v>
       </c>
-      <c r="AE36">
-        <v>1.22</v>
-      </c>
-      <c r="AF36">
-        <v>3.7</v>
-      </c>
-      <c r="AG36">
-        <v>1.75</v>
-      </c>
-      <c r="AH36">
-        <v>1.95</v>
-      </c>
-      <c r="AI36">
-        <v>1.63</v>
-      </c>
-      <c r="AJ36">
-        <v>2.14</v>
-      </c>
-      <c r="AK36">
-        <v>1.32</v>
-      </c>
-      <c r="AL36">
-        <v>1.3</v>
-      </c>
-      <c r="AM36">
-        <v>1.57</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>3</v>
-      </c>
-      <c r="AP36">
-        <v>1.2</v>
-      </c>
-      <c r="AQ36">
-        <v>1.17</v>
-      </c>
-      <c r="AR36">
-        <v>0.82</v>
-      </c>
-      <c r="AS36">
-        <v>1.99</v>
-      </c>
-      <c r="AT36">
-        <v>2.81</v>
-      </c>
-      <c r="AU36">
+      <c r="BA36">
         <v>6</v>
       </c>
-      <c r="AV36">
-        <v>4</v>
-      </c>
-      <c r="AW36">
-        <v>4</v>
-      </c>
-      <c r="AX36">
-        <v>6</v>
-      </c>
-      <c r="AY36">
-        <v>10</v>
-      </c>
-      <c r="AZ36">
-        <v>10</v>
-      </c>
-      <c r="BA36">
-        <v>4</v>
-      </c>
       <c r="BB36">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BC36">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD36">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="BE36">
         <v>7.3</v>
       </c>
       <c r="BF36">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="BG36">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="BH36">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="BI36">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="BJ36">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="BK36">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="BL36">
-        <v>2.52</v>
+        <v>2.05</v>
       </c>
       <c r="BM36">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="BN36">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="BO36">
-        <v>2.3</v>
+        <v>2.85</v>
       </c>
       <c r="BP36">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8429,7 +8429,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7502638</v>
+        <v>7502634</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8444,190 +8444,190 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O37" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="P37" t="s">
         <v>176</v>
       </c>
       <c r="Q37">
-        <v>2.5</v>
+        <v>2.89</v>
       </c>
       <c r="R37">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="S37">
-        <v>4.33</v>
+        <v>3.35</v>
       </c>
       <c r="T37">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="U37">
-        <v>2.75</v>
+        <v>3.04</v>
       </c>
       <c r="V37">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W37">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="X37">
+        <v>6.45</v>
+      </c>
+      <c r="Y37">
+        <v>1.09</v>
+      </c>
+      <c r="Z37">
+        <v>2.15</v>
+      </c>
+      <c r="AA37">
+        <v>3.4</v>
+      </c>
+      <c r="AB37">
+        <v>2.88</v>
+      </c>
+      <c r="AC37">
+        <v>1.05</v>
+      </c>
+      <c r="AD37">
         <v>8</v>
       </c>
-      <c r="Y37">
-        <v>1.08</v>
-      </c>
-      <c r="Z37">
-        <v>1.91</v>
-      </c>
-      <c r="AA37">
-        <v>3.04</v>
-      </c>
-      <c r="AB37">
-        <v>3.27</v>
-      </c>
-      <c r="AC37">
-        <v>1.02</v>
-      </c>
-      <c r="AD37">
+      <c r="AE37">
+        <v>1.22</v>
+      </c>
+      <c r="AF37">
+        <v>3.7</v>
+      </c>
+      <c r="AG37">
+        <v>1.75</v>
+      </c>
+      <c r="AH37">
+        <v>1.95</v>
+      </c>
+      <c r="AI37">
+        <v>1.63</v>
+      </c>
+      <c r="AJ37">
+        <v>2.14</v>
+      </c>
+      <c r="AK37">
+        <v>1.32</v>
+      </c>
+      <c r="AL37">
+        <v>1.3</v>
+      </c>
+      <c r="AM37">
+        <v>1.57</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>3</v>
+      </c>
+      <c r="AP37">
+        <v>1.2</v>
+      </c>
+      <c r="AQ37">
+        <v>1.17</v>
+      </c>
+      <c r="AR37">
+        <v>0.82</v>
+      </c>
+      <c r="AS37">
+        <v>1.99</v>
+      </c>
+      <c r="AT37">
+        <v>2.81</v>
+      </c>
+      <c r="AU37">
+        <v>6</v>
+      </c>
+      <c r="AV37">
+        <v>4</v>
+      </c>
+      <c r="AW37">
+        <v>4</v>
+      </c>
+      <c r="AX37">
+        <v>6</v>
+      </c>
+      <c r="AY37">
         <v>10</v>
       </c>
-      <c r="AE37">
-        <v>1.25</v>
-      </c>
-      <c r="AF37">
-        <v>3.6</v>
-      </c>
-      <c r="AG37">
-        <v>1.84</v>
-      </c>
-      <c r="AH37">
-        <v>2</v>
-      </c>
-      <c r="AI37">
-        <v>1.8</v>
-      </c>
-      <c r="AJ37">
-        <v>1.91</v>
-      </c>
-      <c r="AK37">
-        <v>1.2</v>
-      </c>
-      <c r="AL37">
-        <v>1.29</v>
-      </c>
-      <c r="AM37">
-        <v>2.05</v>
-      </c>
-      <c r="AN37">
-        <v>1</v>
-      </c>
-      <c r="AO37">
-        <v>1</v>
-      </c>
-      <c r="AP37">
-        <v>1.6</v>
-      </c>
-      <c r="AQ37">
-        <v>1</v>
-      </c>
-      <c r="AR37">
-        <v>0.91</v>
-      </c>
-      <c r="AS37">
-        <v>1.6</v>
-      </c>
-      <c r="AT37">
-        <v>2.51</v>
-      </c>
-      <c r="AU37">
-        <v>5</v>
-      </c>
-      <c r="AV37">
-        <v>5</v>
-      </c>
-      <c r="AW37">
-        <v>11</v>
-      </c>
-      <c r="AX37">
-        <v>3</v>
-      </c>
-      <c r="AY37">
-        <v>16</v>
-      </c>
       <c r="AZ37">
+        <v>10</v>
+      </c>
+      <c r="BA37">
+        <v>4</v>
+      </c>
+      <c r="BB37">
         <v>8</v>
       </c>
-      <c r="BA37">
-        <v>6</v>
-      </c>
-      <c r="BB37">
-        <v>3</v>
-      </c>
       <c r="BC37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD37">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="BE37">
         <v>7.3</v>
       </c>
       <c r="BF37">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
       <c r="BG37">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BH37">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="BI37">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="BJ37">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="BK37">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="BL37">
-        <v>2.05</v>
+        <v>2.52</v>
       </c>
       <c r="BM37">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="BN37">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="BO37">
-        <v>2.85</v>
+        <v>2.3</v>
       </c>
       <c r="BP37">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8859,7 +8859,7 @@
         <v>78</v>
       </c>
       <c r="H39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -9253,7 +9253,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7502646</v>
+        <v>7502640</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9268,160 +9268,160 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H41" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="P41" t="s">
         <v>179</v>
       </c>
       <c r="Q41">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="S41">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="T41">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U41">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="V41">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="W41">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="X41">
-        <v>8.449999999999999</v>
+        <v>7</v>
       </c>
       <c r="Y41">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="Z41">
-        <v>2.32</v>
+        <v>1.51</v>
       </c>
       <c r="AA41">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AB41">
-        <v>2.83</v>
+        <v>5.2</v>
       </c>
       <c r="AC41">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD41">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE41">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AF41">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="AG41">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AH41">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="AI41">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AJ41">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AK41">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AL41">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AM41">
-        <v>1.53</v>
+        <v>2.01</v>
       </c>
       <c r="AN41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO41">
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR41">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AS41">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="AT41">
-        <v>2.85</v>
+        <v>2.68</v>
       </c>
       <c r="AU41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV41">
         <v>6</v>
       </c>
       <c r="AW41">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY41">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AZ41">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BB41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC41">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BD41">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="BE41">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="BF41">
-        <v>2.51</v>
+        <v>4.06</v>
       </c>
       <c r="BG41">
         <v>1.2</v>
@@ -9430,28 +9430,28 @@
         <v>4</v>
       </c>
       <c r="BI41">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="BJ41">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="BK41">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="BL41">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="BM41">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="BN41">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BO41">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BP41">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9459,7 +9459,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7502640</v>
+        <v>7502646</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9474,160 +9474,160 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O42" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="P42" t="s">
         <v>180</v>
       </c>
       <c r="Q42">
+        <v>3.1</v>
+      </c>
+      <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
+        <v>3.6</v>
+      </c>
+      <c r="T42">
+        <v>1.5</v>
+      </c>
+      <c r="U42">
+        <v>2.45</v>
+      </c>
+      <c r="V42">
+        <v>3.25</v>
+      </c>
+      <c r="W42">
+        <v>1.3</v>
+      </c>
+      <c r="X42">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>1.04</v>
+      </c>
+      <c r="Z42">
+        <v>2.32</v>
+      </c>
+      <c r="AA42">
+        <v>3</v>
+      </c>
+      <c r="AB42">
+        <v>2.83</v>
+      </c>
+      <c r="AC42">
+        <v>1.05</v>
+      </c>
+      <c r="AD42">
+        <v>8</v>
+      </c>
+      <c r="AE42">
+        <v>1.4</v>
+      </c>
+      <c r="AF42">
+        <v>2.8</v>
+      </c>
+      <c r="AG42">
         <v>2.1</v>
       </c>
-      <c r="R42">
-        <v>2.3</v>
-      </c>
-      <c r="S42">
-        <v>5.5</v>
-      </c>
-      <c r="T42">
-        <v>1.36</v>
-      </c>
-      <c r="U42">
-        <v>3</v>
-      </c>
-      <c r="V42">
-        <v>2.63</v>
-      </c>
-      <c r="W42">
-        <v>1.44</v>
-      </c>
-      <c r="X42">
-        <v>7</v>
-      </c>
-      <c r="Y42">
-        <v>1.1</v>
-      </c>
-      <c r="Z42">
-        <v>1.51</v>
-      </c>
-      <c r="AA42">
-        <v>3.75</v>
-      </c>
-      <c r="AB42">
-        <v>5.2</v>
-      </c>
-      <c r="AC42">
-        <v>1.01</v>
-      </c>
-      <c r="AD42">
-        <v>11</v>
-      </c>
-      <c r="AE42">
-        <v>1.22</v>
-      </c>
-      <c r="AF42">
-        <v>3.8</v>
-      </c>
-      <c r="AG42">
-        <v>2</v>
-      </c>
       <c r="AH42">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="AI42">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AJ42">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AK42">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AL42">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AM42">
-        <v>2.01</v>
+        <v>1.53</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO42">
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR42">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AS42">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="AT42">
-        <v>2.68</v>
+        <v>2.85</v>
       </c>
       <c r="AU42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV42">
         <v>6</v>
       </c>
       <c r="AW42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AX42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY42">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AZ42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BB42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC42">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BD42">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="BE42">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="BF42">
-        <v>4.06</v>
+        <v>2.51</v>
       </c>
       <c r="BG42">
         <v>1.2</v>
@@ -9636,28 +9636,28 @@
         <v>4</v>
       </c>
       <c r="BI42">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="BJ42">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="BK42">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="BL42">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="BM42">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="BN42">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BO42">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="BP42">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9886,7 +9886,7 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
         <v>80</v>
@@ -10504,7 +10504,7 @@
         <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s">
         <v>75</v>
@@ -10713,7 +10713,7 @@
         <v>82</v>
       </c>
       <c r="H48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -13785,7 +13785,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7502663</v>
+        <v>7502659</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13800,10 +13800,10 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -13818,16 +13818,16 @@
         <v>1</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O63" t="s">
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -13836,7 +13836,7 @@
         <v>2</v>
       </c>
       <c r="S63">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T63">
         <v>1.44</v>
@@ -13845,16 +13845,16 @@
         <v>2.67</v>
       </c>
       <c r="V63">
-        <v>2.94</v>
+        <v>2.99</v>
       </c>
       <c r="W63">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X63">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Y63">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z63">
         <v>2.4</v>
@@ -13866,10 +13866,10 @@
         <v>2.8</v>
       </c>
       <c r="AC63">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD63">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE63">
         <v>1.29</v>
@@ -13878,112 +13878,112 @@
         <v>3.3</v>
       </c>
       <c r="AG63">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="AH63">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AI63">
+        <v>1.73</v>
+      </c>
+      <c r="AJ63">
+        <v>2</v>
+      </c>
+      <c r="AK63">
+        <v>1.36</v>
+      </c>
+      <c r="AL63">
+        <v>1.33</v>
+      </c>
+      <c r="AM63">
+        <v>1.56</v>
+      </c>
+      <c r="AN63">
+        <v>0.33</v>
+      </c>
+      <c r="AO63">
         <v>1.67</v>
       </c>
-      <c r="AJ63">
-        <v>2.1</v>
-      </c>
-      <c r="AK63">
-        <v>1.4</v>
-      </c>
-      <c r="AL63">
-        <v>1.32</v>
-      </c>
-      <c r="AM63">
-        <v>1.51</v>
-      </c>
-      <c r="AN63">
-        <v>2.33</v>
-      </c>
-      <c r="AO63">
-        <v>1.33</v>
-      </c>
       <c r="AP63">
-        <v>2.17</v>
+        <v>0.83</v>
       </c>
       <c r="AQ63">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR63">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="AS63">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AT63">
-        <v>2.96</v>
+        <v>2.4</v>
       </c>
       <c r="AU63">
         <v>2</v>
       </c>
       <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>2</v>
+      </c>
+      <c r="AX63">
         <v>4</v>
       </c>
-      <c r="AW63">
-        <v>7</v>
-      </c>
-      <c r="AX63">
-        <v>3</v>
-      </c>
       <c r="AY63">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AZ63">
         <v>7</v>
       </c>
       <c r="BA63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB63">
         <v>3</v>
       </c>
       <c r="BC63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD63">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="BE63">
-        <v>6.45</v>
+        <v>6.55</v>
       </c>
       <c r="BF63">
-        <v>2.21</v>
+        <v>2.44</v>
       </c>
       <c r="BG63">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="BH63">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="BI63">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="BJ63">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="BK63">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="BL63">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="BM63">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="BN63">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="BO63">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="BP63">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13991,7 +13991,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7502659</v>
+        <v>7502663</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -14006,10 +14006,10 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -14024,16 +14024,16 @@
         <v>1</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O64" t="s">
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14042,7 +14042,7 @@
         <v>2</v>
       </c>
       <c r="S64">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T64">
         <v>1.44</v>
@@ -14051,16 +14051,16 @@
         <v>2.67</v>
       </c>
       <c r="V64">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="W64">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X64">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="Y64">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z64">
         <v>2.4</v>
@@ -14072,10 +14072,10 @@
         <v>2.8</v>
       </c>
       <c r="AC64">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE64">
         <v>1.29</v>
@@ -14084,112 +14084,112 @@
         <v>3.3</v>
       </c>
       <c r="AG64">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="AH64">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AI64">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AJ64">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK64">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AL64">
+        <v>1.32</v>
+      </c>
+      <c r="AM64">
+        <v>1.51</v>
+      </c>
+      <c r="AN64">
+        <v>2.33</v>
+      </c>
+      <c r="AO64">
         <v>1.33</v>
       </c>
-      <c r="AM64">
-        <v>1.56</v>
-      </c>
-      <c r="AN64">
-        <v>0.33</v>
-      </c>
-      <c r="AO64">
+      <c r="AP64">
+        <v>2.17</v>
+      </c>
+      <c r="AQ64">
         <v>1.67</v>
       </c>
-      <c r="AP64">
-        <v>0.83</v>
-      </c>
-      <c r="AQ64">
-        <v>1</v>
-      </c>
       <c r="AR64">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AT64">
-        <v>2.4</v>
+        <v>2.96</v>
       </c>
       <c r="AU64">
         <v>2</v>
       </c>
       <c r="AV64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW64">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY64">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ64">
         <v>7</v>
       </c>
       <c r="BA64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB64">
         <v>3</v>
       </c>
       <c r="BC64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD64">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="BE64">
-        <v>6.55</v>
+        <v>6.45</v>
       </c>
       <c r="BF64">
-        <v>2.44</v>
+        <v>2.21</v>
       </c>
       <c r="BG64">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="BH64">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="BI64">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="BJ64">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="BK64">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="BL64">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="BM64">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="BN64">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="BO64">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="BP64">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -15242,7 +15242,7 @@
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s">
         <v>83</v>
@@ -16069,7 +16069,7 @@
         <v>80</v>
       </c>
       <c r="H74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -16478,7 +16478,7 @@
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H76" t="s">
         <v>87</v>
@@ -18126,7 +18126,7 @@
         <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H84" t="s">
         <v>82</v>
@@ -18335,7 +18335,7 @@
         <v>73</v>
       </c>
       <c r="H85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -19365,7 +19365,7 @@
         <v>84</v>
       </c>
       <c r="H90" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -20789,7 +20789,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7502694</v>
+        <v>7502697</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20801,13 +20801,13 @@
         <v>45606.52083333334</v>
       </c>
       <c r="F97">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H97" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -20831,163 +20831,163 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="Q97">
+        <v>3.3</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>3.3</v>
+      </c>
+      <c r="T97">
+        <v>1.45</v>
+      </c>
+      <c r="U97">
         <v>2.63</v>
       </c>
-      <c r="R97">
-        <v>2.1</v>
-      </c>
-      <c r="S97">
-        <v>4.33</v>
-      </c>
-      <c r="T97">
+      <c r="V97">
+        <v>3.2</v>
+      </c>
+      <c r="W97">
+        <v>1.32</v>
+      </c>
+      <c r="X97">
+        <v>9.1</v>
+      </c>
+      <c r="Y97">
+        <v>1.04</v>
+      </c>
+      <c r="Z97">
+        <v>2.72</v>
+      </c>
+      <c r="AA97">
+        <v>3.05</v>
+      </c>
+      <c r="AB97">
+        <v>2.57</v>
+      </c>
+      <c r="AC97">
+        <v>1</v>
+      </c>
+      <c r="AD97">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE97">
+        <v>1.31</v>
+      </c>
+      <c r="AF97">
+        <v>2.82</v>
+      </c>
+      <c r="AG97">
+        <v>2.07</v>
+      </c>
+      <c r="AH97">
+        <v>1.67</v>
+      </c>
+      <c r="AI97">
+        <v>1.85</v>
+      </c>
+      <c r="AJ97">
+        <v>1.85</v>
+      </c>
+      <c r="AK97">
+        <v>1.46</v>
+      </c>
+      <c r="AL97">
+        <v>1.32</v>
+      </c>
+      <c r="AM97">
+        <v>1.46</v>
+      </c>
+      <c r="AN97">
+        <v>1.8</v>
+      </c>
+      <c r="AO97">
         <v>1.4</v>
       </c>
-      <c r="U97">
-        <v>2.75</v>
-      </c>
-      <c r="V97">
-        <v>3</v>
-      </c>
-      <c r="W97">
-        <v>1.36</v>
-      </c>
-      <c r="X97">
-        <v>8</v>
-      </c>
-      <c r="Y97">
-        <v>1.08</v>
-      </c>
-      <c r="Z97">
+      <c r="AP97">
+        <v>2</v>
+      </c>
+      <c r="AQ97">
+        <v>1.17</v>
+      </c>
+      <c r="AR97">
+        <v>1.44</v>
+      </c>
+      <c r="AS97">
+        <v>1.55</v>
+      </c>
+      <c r="AT97">
+        <v>2.99</v>
+      </c>
+      <c r="AU97">
+        <v>4</v>
+      </c>
+      <c r="AV97">
+        <v>6</v>
+      </c>
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
+        <v>5</v>
+      </c>
+      <c r="AY97">
+        <v>7</v>
+      </c>
+      <c r="AZ97">
+        <v>11</v>
+      </c>
+      <c r="BA97">
+        <v>3</v>
+      </c>
+      <c r="BB97">
+        <v>3</v>
+      </c>
+      <c r="BC97">
+        <v>6</v>
+      </c>
+      <c r="BD97">
         <v>1.82</v>
-      </c>
-      <c r="AA97">
-        <v>3.55</v>
-      </c>
-      <c r="AB97">
-        <v>3.94</v>
-      </c>
-      <c r="AC97">
-        <v>1.05</v>
-      </c>
-      <c r="AD97">
-        <v>8.5</v>
-      </c>
-      <c r="AE97">
-        <v>1.33</v>
-      </c>
-      <c r="AF97">
-        <v>3.2</v>
-      </c>
-      <c r="AG97">
-        <v>1.96</v>
-      </c>
-      <c r="AH97">
-        <v>1.75</v>
-      </c>
-      <c r="AI97">
-        <v>1.83</v>
-      </c>
-      <c r="AJ97">
-        <v>1.83</v>
-      </c>
-      <c r="AK97">
-        <v>1.22</v>
-      </c>
-      <c r="AL97">
-        <v>1.22</v>
-      </c>
-      <c r="AM97">
-        <v>1.85</v>
-      </c>
-      <c r="AN97">
-        <v>2</v>
-      </c>
-      <c r="AO97">
-        <v>1.2</v>
-      </c>
-      <c r="AP97">
-        <v>2.17</v>
-      </c>
-      <c r="AQ97">
-        <v>1</v>
-      </c>
-      <c r="AR97">
-        <v>1.52</v>
-      </c>
-      <c r="AS97">
-        <v>1.16</v>
-      </c>
-      <c r="AT97">
-        <v>2.68</v>
-      </c>
-      <c r="AU97">
-        <v>3</v>
-      </c>
-      <c r="AV97">
-        <v>2</v>
-      </c>
-      <c r="AW97">
-        <v>0</v>
-      </c>
-      <c r="AX97">
-        <v>0</v>
-      </c>
-      <c r="AY97">
-        <v>3</v>
-      </c>
-      <c r="AZ97">
-        <v>2</v>
-      </c>
-      <c r="BA97">
-        <v>2</v>
-      </c>
-      <c r="BB97">
-        <v>2</v>
-      </c>
-      <c r="BC97">
-        <v>4</v>
-      </c>
-      <c r="BD97">
-        <v>1.51</v>
       </c>
       <c r="BE97">
         <v>8.5</v>
       </c>
       <c r="BF97">
-        <v>3.07</v>
+        <v>2.28</v>
       </c>
       <c r="BG97">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="BH97">
-        <v>3.82</v>
+        <v>4.4</v>
       </c>
       <c r="BI97">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="BJ97">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="BK97">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="BL97">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="BM97">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="BN97">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="BO97">
-        <v>2.73</v>
+        <v>2.39</v>
       </c>
       <c r="BP97">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -20995,7 +20995,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7502697</v>
+        <v>7502694</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21007,13 +21007,13 @@
         <v>45606.52083333334</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H98" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -21037,163 +21037,163 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="Q98">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S98">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="T98">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="U98">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V98">
+        <v>3</v>
+      </c>
+      <c r="W98">
+        <v>1.36</v>
+      </c>
+      <c r="X98">
+        <v>8</v>
+      </c>
+      <c r="Y98">
+        <v>1.08</v>
+      </c>
+      <c r="Z98">
+        <v>1.82</v>
+      </c>
+      <c r="AA98">
+        <v>3.55</v>
+      </c>
+      <c r="AB98">
+        <v>3.94</v>
+      </c>
+      <c r="AC98">
+        <v>1.05</v>
+      </c>
+      <c r="AD98">
+        <v>8.5</v>
+      </c>
+      <c r="AE98">
+        <v>1.33</v>
+      </c>
+      <c r="AF98">
         <v>3.2</v>
       </c>
-      <c r="W98">
-        <v>1.32</v>
-      </c>
-      <c r="X98">
-        <v>9.1</v>
-      </c>
-      <c r="Y98">
-        <v>1.04</v>
-      </c>
-      <c r="Z98">
-        <v>2.72</v>
-      </c>
-      <c r="AA98">
-        <v>3.05</v>
-      </c>
-      <c r="AB98">
-        <v>2.57</v>
-      </c>
-      <c r="AC98">
-        <v>1</v>
-      </c>
-      <c r="AD98">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AE98">
-        <v>1.31</v>
-      </c>
-      <c r="AF98">
-        <v>2.82</v>
-      </c>
       <c r="AG98">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="AH98">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AI98">
+        <v>1.83</v>
+      </c>
+      <c r="AJ98">
+        <v>1.83</v>
+      </c>
+      <c r="AK98">
+        <v>1.22</v>
+      </c>
+      <c r="AL98">
+        <v>1.22</v>
+      </c>
+      <c r="AM98">
         <v>1.85</v>
       </c>
-      <c r="AJ98">
-        <v>1.85</v>
-      </c>
-      <c r="AK98">
-        <v>1.46</v>
-      </c>
-      <c r="AL98">
-        <v>1.32</v>
-      </c>
-      <c r="AM98">
-        <v>1.46</v>
-      </c>
       <c r="AN98">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO98">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ98">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR98">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AS98">
-        <v>1.55</v>
+        <v>1.16</v>
       </c>
       <c r="AT98">
-        <v>2.99</v>
+        <v>2.68</v>
       </c>
       <c r="AU98">
+        <v>3</v>
+      </c>
+      <c r="AV98">
+        <v>2</v>
+      </c>
+      <c r="AW98">
+        <v>0</v>
+      </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>3</v>
+      </c>
+      <c r="AZ98">
+        <v>2</v>
+      </c>
+      <c r="BA98">
+        <v>2</v>
+      </c>
+      <c r="BB98">
+        <v>2</v>
+      </c>
+      <c r="BC98">
         <v>4</v>
       </c>
-      <c r="AV98">
-        <v>6</v>
-      </c>
-      <c r="AW98">
-        <v>3</v>
-      </c>
-      <c r="AX98">
-        <v>5</v>
-      </c>
-      <c r="AY98">
-        <v>7</v>
-      </c>
-      <c r="AZ98">
-        <v>11</v>
-      </c>
-      <c r="BA98">
-        <v>3</v>
-      </c>
-      <c r="BB98">
-        <v>3</v>
-      </c>
-      <c r="BC98">
-        <v>6</v>
-      </c>
       <c r="BD98">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="BE98">
         <v>8.5</v>
       </c>
       <c r="BF98">
-        <v>2.28</v>
+        <v>3.07</v>
       </c>
       <c r="BG98">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="BH98">
-        <v>4.4</v>
+        <v>3.82</v>
       </c>
       <c r="BI98">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="BJ98">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="BK98">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="BL98">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="BM98">
-        <v>1.8</v>
+        <v>2.11</v>
       </c>
       <c r="BN98">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="BO98">
-        <v>2.39</v>
+        <v>2.73</v>
       </c>
       <c r="BP98">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -642,6 +642,9 @@
   <si>
     <t>['37']</t>
   </si>
+  <si>
+    <t>['28', '86']</t>
+  </si>
 </sst>
 </file>
 
@@ -1002,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1754,7 +1757,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ4">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3605,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ13">
         <v>1.17</v>
@@ -7725,7 +7728,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -7934,7 +7937,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.57</v>
@@ -10818,7 +10821,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -11021,7 +11024,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ49">
         <v>2.6</v>
@@ -17819,7 +17822,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ82">
         <v>1.5</v>
@@ -18440,7 +18443,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ85">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -21194,6 +21197,212 @@
       </c>
       <c r="BP98">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7502669</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45619.33333333334</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>81</v>
+      </c>
+      <c r="H99" t="s">
+        <v>85</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>89</v>
+      </c>
+      <c r="P99" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q99">
+        <v>2.99</v>
+      </c>
+      <c r="R99">
+        <v>2.12</v>
+      </c>
+      <c r="S99">
+        <v>3.34</v>
+      </c>
+      <c r="T99">
+        <v>1.39</v>
+      </c>
+      <c r="U99">
+        <v>2.86</v>
+      </c>
+      <c r="V99">
+        <v>2.78</v>
+      </c>
+      <c r="W99">
+        <v>1.41</v>
+      </c>
+      <c r="X99">
+        <v>7</v>
+      </c>
+      <c r="Y99">
+        <v>1.08</v>
+      </c>
+      <c r="Z99">
+        <v>2.3</v>
+      </c>
+      <c r="AA99">
+        <v>3.3</v>
+      </c>
+      <c r="AB99">
+        <v>2.6</v>
+      </c>
+      <c r="AC99">
+        <v>1</v>
+      </c>
+      <c r="AD99">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE99">
+        <v>1.24</v>
+      </c>
+      <c r="AF99">
+        <v>3.22</v>
+      </c>
+      <c r="AG99">
+        <v>1.85</v>
+      </c>
+      <c r="AH99">
+        <v>1.75</v>
+      </c>
+      <c r="AI99">
+        <v>1.7</v>
+      </c>
+      <c r="AJ99">
+        <v>2.03</v>
+      </c>
+      <c r="AK99">
+        <v>1.42</v>
+      </c>
+      <c r="AL99">
+        <v>1.28</v>
+      </c>
+      <c r="AM99">
+        <v>1.52</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
+        <v>1.75</v>
+      </c>
+      <c r="AP99">
+        <v>0.8</v>
+      </c>
+      <c r="AQ99">
+        <v>2</v>
+      </c>
+      <c r="AR99">
+        <v>1.34</v>
+      </c>
+      <c r="AS99">
+        <v>1.33</v>
+      </c>
+      <c r="AT99">
+        <v>2.67</v>
+      </c>
+      <c r="AU99">
+        <v>4</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99">
+        <v>8</v>
+      </c>
+      <c r="AX99">
+        <v>14</v>
+      </c>
+      <c r="AY99">
+        <v>12</v>
+      </c>
+      <c r="AZ99">
+        <v>19</v>
+      </c>
+      <c r="BA99">
+        <v>8</v>
+      </c>
+      <c r="BB99">
+        <v>6</v>
+      </c>
+      <c r="BC99">
+        <v>14</v>
+      </c>
+      <c r="BD99">
+        <v>2.02</v>
+      </c>
+      <c r="BE99">
+        <v>5.95</v>
+      </c>
+      <c r="BF99">
+        <v>2.15</v>
+      </c>
+      <c r="BG99">
+        <v>1.14</v>
+      </c>
+      <c r="BH99">
+        <v>4.15</v>
+      </c>
+      <c r="BI99">
+        <v>1.38</v>
+      </c>
+      <c r="BJ99">
+        <v>2.82</v>
+      </c>
+      <c r="BK99">
+        <v>1.65</v>
+      </c>
+      <c r="BL99">
+        <v>2.19</v>
+      </c>
+      <c r="BM99">
+        <v>1.98</v>
+      </c>
+      <c r="BN99">
+        <v>1.82</v>
+      </c>
+      <c r="BO99">
+        <v>2.62</v>
+      </c>
+      <c r="BP99">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -271,10 +271,10 @@
     <t>FC Vizela</t>
   </si>
   <si>
-    <t>Benfica II</t>
+    <t>GD Chaves</t>
   </si>
   <si>
-    <t>GD Chaves</t>
+    <t>Benfica II</t>
   </si>
   <si>
     <t>CD Tondela</t>
@@ -466,10 +466,10 @@
     <t>['27', '84']</t>
   </si>
   <si>
-    <t>['45', '90+8']</t>
+    <t>['10', '84']</t>
   </si>
   <si>
-    <t>['10', '84']</t>
+    <t>['45', '90+8']</t>
   </si>
   <si>
     <t>['24', '27']</t>
@@ -641,9 +641,6 @@
   </si>
   <si>
     <t>['37']</t>
-  </si>
-  <si>
-    <t>['28', '86']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1652,7 +1649,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1757,7 +1754,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1858,7 +1855,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -3608,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>1.17</v>
@@ -4312,7 +4309,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7502620</v>
+        <v>7502617</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4330,100 +4327,100 @@
         <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P17" t="s">
         <v>89</v>
       </c>
       <c r="Q17">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="R17">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="S17">
-        <v>4.22</v>
+        <v>4.5</v>
       </c>
       <c r="T17">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="U17">
-        <v>3.07</v>
+        <v>2.63</v>
       </c>
       <c r="V17">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="W17">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="X17">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="Y17">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z17">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AA17">
-        <v>3.33</v>
+        <v>2.95</v>
       </c>
       <c r="AB17">
-        <v>3.69</v>
+        <v>3.25</v>
       </c>
       <c r="AC17">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AD17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE17">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AF17">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AG17">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="AH17">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="AI17">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AJ17">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="AK17">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AL17">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM17">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AN17">
         <v>0</v>
@@ -4432,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.17</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4447,70 +4444,70 @@
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV17">
         <v>5</v>
       </c>
       <c r="AW17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY17">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AZ17">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA17">
         <v>6</v>
       </c>
       <c r="BB17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD17">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="BE17">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="BF17">
-        <v>2.96</v>
+        <v>2.67</v>
       </c>
       <c r="BG17">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="BH17">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="BI17">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="BJ17">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BK17">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="BL17">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="BM17">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="BN17">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="BO17">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="BP17">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -4518,7 +4515,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7502617</v>
+        <v>7502620</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4536,100 +4533,100 @@
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="P18" t="s">
         <v>89</v>
       </c>
       <c r="Q18">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="R18">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="S18">
-        <v>4.5</v>
+        <v>4.22</v>
       </c>
       <c r="T18">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="U18">
-        <v>2.63</v>
+        <v>3.07</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="W18">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="X18">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="Y18">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z18">
+        <v>1.92</v>
+      </c>
+      <c r="AA18">
+        <v>3.33</v>
+      </c>
+      <c r="AB18">
+        <v>3.69</v>
+      </c>
+      <c r="AC18">
+        <v>1.02</v>
+      </c>
+      <c r="AD18">
+        <v>10</v>
+      </c>
+      <c r="AE18">
+        <v>1.29</v>
+      </c>
+      <c r="AF18">
+        <v>3.4</v>
+      </c>
+      <c r="AG18">
+        <v>1.91</v>
+      </c>
+      <c r="AH18">
         <v>1.95</v>
       </c>
-      <c r="AA18">
-        <v>2.95</v>
-      </c>
-      <c r="AB18">
-        <v>3.25</v>
-      </c>
-      <c r="AC18">
-        <v>1.06</v>
-      </c>
-      <c r="AD18">
-        <v>8</v>
-      </c>
-      <c r="AE18">
-        <v>1.36</v>
-      </c>
-      <c r="AF18">
-        <v>3</v>
-      </c>
-      <c r="AG18">
+      <c r="AI18">
+        <v>1.73</v>
+      </c>
+      <c r="AJ18">
         <v>2.06</v>
       </c>
-      <c r="AH18">
-        <v>1.71</v>
-      </c>
-      <c r="AI18">
-        <v>1.83</v>
-      </c>
-      <c r="AJ18">
-        <v>1.83</v>
-      </c>
       <c r="AK18">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AL18">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM18">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AN18">
         <v>0</v>
@@ -4638,10 +4635,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4653,70 +4650,70 @@
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV18">
         <v>5</v>
       </c>
       <c r="AW18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AX18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY18">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AZ18">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA18">
         <v>6</v>
       </c>
       <c r="BB18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD18">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="BE18">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="BF18">
-        <v>2.67</v>
+        <v>2.96</v>
       </c>
       <c r="BG18">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="BH18">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="BI18">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="BJ18">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="BK18">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="BL18">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="BM18">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="BN18">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="BO18">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="BP18">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -6184,7 +6181,7 @@
         <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -6593,7 +6590,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s">
         <v>84</v>
@@ -7728,7 +7725,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -7832,7 +7829,7 @@
         <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -7937,7 +7934,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>1.57</v>
@@ -8241,7 +8238,7 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s">
         <v>71</v>
@@ -8862,7 +8859,7 @@
         <v>78</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -9889,7 +9886,7 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s">
         <v>80</v>
@@ -10507,7 +10504,7 @@
         <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s">
         <v>75</v>
@@ -10716,7 +10713,7 @@
         <v>82</v>
       </c>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -10821,7 +10818,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -11024,7 +11021,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>2.6</v>
@@ -11316,7 +11313,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7502653</v>
+        <v>7502650</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11331,10 +11328,10 @@
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -11346,28 +11343,28 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="Q51">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R51">
         <v>2.2</v>
       </c>
       <c r="S51">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T51">
         <v>1.4</v>
@@ -11388,19 +11385,19 @@
         <v>1.08</v>
       </c>
       <c r="Z51">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="AA51">
         <v>3.25</v>
       </c>
       <c r="AB51">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AC51">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD51">
-        <v>9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE51">
         <v>1.3</v>
@@ -11409,7 +11406,7 @@
         <v>3.3</v>
       </c>
       <c r="AG51">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AH51">
         <v>1.8</v>
@@ -11421,100 +11418,100 @@
         <v>2.1</v>
       </c>
       <c r="AK51">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AL51">
         <v>1.25</v>
       </c>
       <c r="AM51">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AN51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>0.67</v>
+        <v>1.2</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AR51">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AS51">
-        <v>1.77</v>
+        <v>1.44</v>
       </c>
       <c r="AT51">
-        <v>2.97</v>
+        <v>2.56</v>
       </c>
       <c r="AU51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX51">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AY51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AZ51">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BA51">
         <v>2</v>
       </c>
       <c r="BB51">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BC51">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD51">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="BE51">
-        <v>8.9</v>
+        <v>7.2</v>
       </c>
       <c r="BF51">
-        <v>2.47</v>
+        <v>2.14</v>
       </c>
       <c r="BG51">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="BH51">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="BI51">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BJ51">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="BK51">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="BL51">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="BM51">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BN51">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="BO51">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BP51">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11522,7 +11519,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7502650</v>
+        <v>7502653</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11537,10 +11534,10 @@
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -11552,28 +11549,28 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O52" t="s">
+        <v>107</v>
+      </c>
+      <c r="P52" t="s">
         <v>89</v>
       </c>
-      <c r="P52" t="s">
-        <v>187</v>
-      </c>
       <c r="Q52">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R52">
         <v>2.2</v>
       </c>
       <c r="S52">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T52">
         <v>1.4</v>
@@ -11594,19 +11591,19 @@
         <v>1.08</v>
       </c>
       <c r="Z52">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AA52">
         <v>3.25</v>
       </c>
       <c r="AB52">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AC52">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD52">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="AE52">
         <v>1.3</v>
@@ -11615,7 +11612,7 @@
         <v>3.3</v>
       </c>
       <c r="AG52">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AH52">
         <v>1.8</v>
@@ -11627,100 +11624,100 @@
         <v>2.1</v>
       </c>
       <c r="AK52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AL52">
         <v>1.25</v>
       </c>
       <c r="AM52">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP52">
+        <v>0.67</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
         <v>1.2</v>
       </c>
-      <c r="AQ52">
-        <v>1.6</v>
-      </c>
-      <c r="AR52">
-        <v>1.12</v>
-      </c>
       <c r="AS52">
+        <v>1.77</v>
+      </c>
+      <c r="AT52">
+        <v>2.97</v>
+      </c>
+      <c r="AU52">
+        <v>3</v>
+      </c>
+      <c r="AV52">
+        <v>5</v>
+      </c>
+      <c r="AW52">
+        <v>3</v>
+      </c>
+      <c r="AX52">
+        <v>11</v>
+      </c>
+      <c r="AY52">
+        <v>6</v>
+      </c>
+      <c r="AZ52">
+        <v>16</v>
+      </c>
+      <c r="BA52">
+        <v>2</v>
+      </c>
+      <c r="BB52">
+        <v>6</v>
+      </c>
+      <c r="BC52">
+        <v>8</v>
+      </c>
+      <c r="BD52">
+        <v>1.7</v>
+      </c>
+      <c r="BE52">
+        <v>8.9</v>
+      </c>
+      <c r="BF52">
+        <v>2.47</v>
+      </c>
+      <c r="BG52">
+        <v>1.13</v>
+      </c>
+      <c r="BH52">
+        <v>5</v>
+      </c>
+      <c r="BI52">
+        <v>1.29</v>
+      </c>
+      <c r="BJ52">
+        <v>3.4</v>
+      </c>
+      <c r="BK52">
         <v>1.44</v>
       </c>
-      <c r="AT52">
-        <v>2.56</v>
-      </c>
-      <c r="AU52">
-        <v>0</v>
-      </c>
-      <c r="AV52">
-        <v>3</v>
-      </c>
-      <c r="AW52">
-        <v>2</v>
-      </c>
-      <c r="AX52">
-        <v>4</v>
-      </c>
-      <c r="AY52">
-        <v>2</v>
-      </c>
-      <c r="AZ52">
-        <v>7</v>
-      </c>
-      <c r="BA52">
-        <v>2</v>
-      </c>
-      <c r="BB52">
-        <v>10</v>
-      </c>
-      <c r="BC52">
-        <v>12</v>
-      </c>
-      <c r="BD52">
-        <v>2</v>
-      </c>
-      <c r="BE52">
-        <v>7.2</v>
-      </c>
-      <c r="BF52">
-        <v>2.14</v>
-      </c>
-      <c r="BG52">
-        <v>1.14</v>
-      </c>
-      <c r="BH52">
-        <v>4.7</v>
-      </c>
-      <c r="BI52">
-        <v>1.28</v>
-      </c>
-      <c r="BJ52">
-        <v>3.2</v>
-      </c>
-      <c r="BK52">
-        <v>1.49</v>
-      </c>
       <c r="BL52">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="BM52">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BN52">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="BO52">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BP52">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -14009,10 +14006,10 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" t="s">
         <v>85</v>
-      </c>
-      <c r="H64" t="s">
-        <v>86</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -15245,7 +15242,7 @@
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s">
         <v>83</v>
@@ -16072,7 +16069,7 @@
         <v>80</v>
       </c>
       <c r="H74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -16481,7 +16478,7 @@
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s">
         <v>87</v>
@@ -17822,7 +17819,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
         <v>1.5</v>
@@ -18129,7 +18126,7 @@
         <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H84" t="s">
         <v>82</v>
@@ -18338,7 +18335,7 @@
         <v>73</v>
       </c>
       <c r="H85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -18443,7 +18440,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -19368,7 +19365,7 @@
         <v>84</v>
       </c>
       <c r="H90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -20792,7 +20789,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7502697</v>
+        <v>7502694</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20804,13 +20801,13 @@
         <v>45606.52083333334</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H97" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -20834,163 +20831,163 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="Q97">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S97">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="T97">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="U97">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V97">
+        <v>3</v>
+      </c>
+      <c r="W97">
+        <v>1.36</v>
+      </c>
+      <c r="X97">
+        <v>8</v>
+      </c>
+      <c r="Y97">
+        <v>1.08</v>
+      </c>
+      <c r="Z97">
+        <v>1.82</v>
+      </c>
+      <c r="AA97">
+        <v>3.55</v>
+      </c>
+      <c r="AB97">
+        <v>3.94</v>
+      </c>
+      <c r="AC97">
+        <v>1.05</v>
+      </c>
+      <c r="AD97">
+        <v>8.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.33</v>
+      </c>
+      <c r="AF97">
         <v>3.2</v>
       </c>
-      <c r="W97">
-        <v>1.32</v>
-      </c>
-      <c r="X97">
-        <v>9.1</v>
-      </c>
-      <c r="Y97">
-        <v>1.04</v>
-      </c>
-      <c r="Z97">
-        <v>2.72</v>
-      </c>
-      <c r="AA97">
-        <v>3.05</v>
-      </c>
-      <c r="AB97">
-        <v>2.57</v>
-      </c>
-      <c r="AC97">
-        <v>1</v>
-      </c>
-      <c r="AD97">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AE97">
-        <v>1.31</v>
-      </c>
-      <c r="AF97">
-        <v>2.82</v>
-      </c>
       <c r="AG97">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="AH97">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AI97">
+        <v>1.83</v>
+      </c>
+      <c r="AJ97">
+        <v>1.83</v>
+      </c>
+      <c r="AK97">
+        <v>1.22</v>
+      </c>
+      <c r="AL97">
+        <v>1.22</v>
+      </c>
+      <c r="AM97">
         <v>1.85</v>
       </c>
-      <c r="AJ97">
-        <v>1.85</v>
-      </c>
-      <c r="AK97">
-        <v>1.46</v>
-      </c>
-      <c r="AL97">
-        <v>1.32</v>
-      </c>
-      <c r="AM97">
-        <v>1.46</v>
-      </c>
       <c r="AN97">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO97">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ97">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR97">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AS97">
-        <v>1.55</v>
+        <v>1.16</v>
       </c>
       <c r="AT97">
-        <v>2.99</v>
+        <v>2.68</v>
       </c>
       <c r="AU97">
+        <v>3</v>
+      </c>
+      <c r="AV97">
+        <v>2</v>
+      </c>
+      <c r="AW97">
+        <v>0</v>
+      </c>
+      <c r="AX97">
+        <v>0</v>
+      </c>
+      <c r="AY97">
+        <v>3</v>
+      </c>
+      <c r="AZ97">
+        <v>2</v>
+      </c>
+      <c r="BA97">
+        <v>2</v>
+      </c>
+      <c r="BB97">
+        <v>2</v>
+      </c>
+      <c r="BC97">
         <v>4</v>
       </c>
-      <c r="AV97">
-        <v>6</v>
-      </c>
-      <c r="AW97">
-        <v>3</v>
-      </c>
-      <c r="AX97">
-        <v>5</v>
-      </c>
-      <c r="AY97">
-        <v>7</v>
-      </c>
-      <c r="AZ97">
-        <v>11</v>
-      </c>
-      <c r="BA97">
-        <v>3</v>
-      </c>
-      <c r="BB97">
-        <v>3</v>
-      </c>
-      <c r="BC97">
-        <v>6</v>
-      </c>
       <c r="BD97">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="BE97">
         <v>8.5</v>
       </c>
       <c r="BF97">
-        <v>2.28</v>
+        <v>3.07</v>
       </c>
       <c r="BG97">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="BH97">
-        <v>4.4</v>
+        <v>3.82</v>
       </c>
       <c r="BI97">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="BJ97">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="BK97">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="BL97">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="BM97">
-        <v>1.8</v>
+        <v>2.11</v>
       </c>
       <c r="BN97">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="BO97">
-        <v>2.39</v>
+        <v>2.73</v>
       </c>
       <c r="BP97">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -20998,7 +20995,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7502694</v>
+        <v>7502697</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21010,13 +21007,13 @@
         <v>45606.52083333334</v>
       </c>
       <c r="F98">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H98" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -21040,369 +21037,163 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="Q98">
+        <v>3.3</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>3.3</v>
+      </c>
+      <c r="T98">
+        <v>1.45</v>
+      </c>
+      <c r="U98">
         <v>2.63</v>
       </c>
-      <c r="R98">
-        <v>2.1</v>
-      </c>
-      <c r="S98">
-        <v>4.33</v>
-      </c>
-      <c r="T98">
+      <c r="V98">
+        <v>3.2</v>
+      </c>
+      <c r="W98">
+        <v>1.32</v>
+      </c>
+      <c r="X98">
+        <v>9.1</v>
+      </c>
+      <c r="Y98">
+        <v>1.04</v>
+      </c>
+      <c r="Z98">
+        <v>2.72</v>
+      </c>
+      <c r="AA98">
+        <v>3.05</v>
+      </c>
+      <c r="AB98">
+        <v>2.57</v>
+      </c>
+      <c r="AC98">
+        <v>1</v>
+      </c>
+      <c r="AD98">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE98">
+        <v>1.31</v>
+      </c>
+      <c r="AF98">
+        <v>2.82</v>
+      </c>
+      <c r="AG98">
+        <v>2.07</v>
+      </c>
+      <c r="AH98">
+        <v>1.67</v>
+      </c>
+      <c r="AI98">
+        <v>1.85</v>
+      </c>
+      <c r="AJ98">
+        <v>1.85</v>
+      </c>
+      <c r="AK98">
+        <v>1.46</v>
+      </c>
+      <c r="AL98">
+        <v>1.32</v>
+      </c>
+      <c r="AM98">
+        <v>1.46</v>
+      </c>
+      <c r="AN98">
+        <v>1.8</v>
+      </c>
+      <c r="AO98">
         <v>1.4</v>
       </c>
-      <c r="U98">
-        <v>2.75</v>
-      </c>
-      <c r="V98">
-        <v>3</v>
-      </c>
-      <c r="W98">
-        <v>1.36</v>
-      </c>
-      <c r="X98">
-        <v>8</v>
-      </c>
-      <c r="Y98">
-        <v>1.08</v>
-      </c>
-      <c r="Z98">
+      <c r="AP98">
+        <v>2</v>
+      </c>
+      <c r="AQ98">
+        <v>1.17</v>
+      </c>
+      <c r="AR98">
+        <v>1.44</v>
+      </c>
+      <c r="AS98">
+        <v>1.55</v>
+      </c>
+      <c r="AT98">
+        <v>2.99</v>
+      </c>
+      <c r="AU98">
+        <v>4</v>
+      </c>
+      <c r="AV98">
+        <v>6</v>
+      </c>
+      <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
+        <v>5</v>
+      </c>
+      <c r="AY98">
+        <v>7</v>
+      </c>
+      <c r="AZ98">
+        <v>11</v>
+      </c>
+      <c r="BA98">
+        <v>3</v>
+      </c>
+      <c r="BB98">
+        <v>3</v>
+      </c>
+      <c r="BC98">
+        <v>6</v>
+      </c>
+      <c r="BD98">
         <v>1.82</v>
-      </c>
-      <c r="AA98">
-        <v>3.55</v>
-      </c>
-      <c r="AB98">
-        <v>3.94</v>
-      </c>
-      <c r="AC98">
-        <v>1.05</v>
-      </c>
-      <c r="AD98">
-        <v>8.5</v>
-      </c>
-      <c r="AE98">
-        <v>1.33</v>
-      </c>
-      <c r="AF98">
-        <v>3.2</v>
-      </c>
-      <c r="AG98">
-        <v>1.96</v>
-      </c>
-      <c r="AH98">
-        <v>1.75</v>
-      </c>
-      <c r="AI98">
-        <v>1.83</v>
-      </c>
-      <c r="AJ98">
-        <v>1.83</v>
-      </c>
-      <c r="AK98">
-        <v>1.22</v>
-      </c>
-      <c r="AL98">
-        <v>1.22</v>
-      </c>
-      <c r="AM98">
-        <v>1.85</v>
-      </c>
-      <c r="AN98">
-        <v>2</v>
-      </c>
-      <c r="AO98">
-        <v>1.2</v>
-      </c>
-      <c r="AP98">
-        <v>2.17</v>
-      </c>
-      <c r="AQ98">
-        <v>1</v>
-      </c>
-      <c r="AR98">
-        <v>1.52</v>
-      </c>
-      <c r="AS98">
-        <v>1.16</v>
-      </c>
-      <c r="AT98">
-        <v>2.68</v>
-      </c>
-      <c r="AU98">
-        <v>3</v>
-      </c>
-      <c r="AV98">
-        <v>2</v>
-      </c>
-      <c r="AW98">
-        <v>0</v>
-      </c>
-      <c r="AX98">
-        <v>0</v>
-      </c>
-      <c r="AY98">
-        <v>3</v>
-      </c>
-      <c r="AZ98">
-        <v>2</v>
-      </c>
-      <c r="BA98">
-        <v>2</v>
-      </c>
-      <c r="BB98">
-        <v>2</v>
-      </c>
-      <c r="BC98">
-        <v>4</v>
-      </c>
-      <c r="BD98">
-        <v>1.51</v>
       </c>
       <c r="BE98">
         <v>8.5</v>
       </c>
       <c r="BF98">
-        <v>3.07</v>
+        <v>2.28</v>
       </c>
       <c r="BG98">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="BH98">
-        <v>3.82</v>
+        <v>4.4</v>
       </c>
       <c r="BI98">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="BJ98">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="BK98">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="BL98">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="BM98">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="BN98">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="BO98">
-        <v>2.73</v>
+        <v>2.39</v>
       </c>
       <c r="BP98">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:68">
-      <c r="A99" s="1">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>7502669</v>
-      </c>
-      <c r="C99" t="s">
-        <v>68</v>
-      </c>
-      <c r="D99" t="s">
-        <v>69</v>
-      </c>
-      <c r="E99" s="2">
-        <v>45619.33333333334</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99" t="s">
-        <v>81</v>
-      </c>
-      <c r="H99" t="s">
-        <v>85</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>2</v>
-      </c>
-      <c r="N99">
-        <v>2</v>
-      </c>
-      <c r="O99" t="s">
-        <v>89</v>
-      </c>
-      <c r="P99" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q99">
-        <v>2.99</v>
-      </c>
-      <c r="R99">
-        <v>2.12</v>
-      </c>
-      <c r="S99">
-        <v>3.34</v>
-      </c>
-      <c r="T99">
-        <v>1.39</v>
-      </c>
-      <c r="U99">
-        <v>2.86</v>
-      </c>
-      <c r="V99">
-        <v>2.78</v>
-      </c>
-      <c r="W99">
-        <v>1.41</v>
-      </c>
-      <c r="X99">
-        <v>7</v>
-      </c>
-      <c r="Y99">
-        <v>1.08</v>
-      </c>
-      <c r="Z99">
-        <v>2.3</v>
-      </c>
-      <c r="AA99">
-        <v>3.3</v>
-      </c>
-      <c r="AB99">
-        <v>2.6</v>
-      </c>
-      <c r="AC99">
-        <v>1</v>
-      </c>
-      <c r="AD99">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AE99">
-        <v>1.24</v>
-      </c>
-      <c r="AF99">
-        <v>3.22</v>
-      </c>
-      <c r="AG99">
-        <v>1.85</v>
-      </c>
-      <c r="AH99">
-        <v>1.75</v>
-      </c>
-      <c r="AI99">
-        <v>1.7</v>
-      </c>
-      <c r="AJ99">
-        <v>2.03</v>
-      </c>
-      <c r="AK99">
-        <v>1.42</v>
-      </c>
-      <c r="AL99">
-        <v>1.28</v>
-      </c>
-      <c r="AM99">
-        <v>1.52</v>
-      </c>
-      <c r="AN99">
-        <v>1</v>
-      </c>
-      <c r="AO99">
-        <v>1.75</v>
-      </c>
-      <c r="AP99">
-        <v>0.8</v>
-      </c>
-      <c r="AQ99">
-        <v>2</v>
-      </c>
-      <c r="AR99">
-        <v>1.34</v>
-      </c>
-      <c r="AS99">
-        <v>1.33</v>
-      </c>
-      <c r="AT99">
-        <v>2.67</v>
-      </c>
-      <c r="AU99">
-        <v>4</v>
-      </c>
-      <c r="AV99">
-        <v>5</v>
-      </c>
-      <c r="AW99">
-        <v>8</v>
-      </c>
-      <c r="AX99">
-        <v>14</v>
-      </c>
-      <c r="AY99">
-        <v>12</v>
-      </c>
-      <c r="AZ99">
-        <v>19</v>
-      </c>
-      <c r="BA99">
-        <v>8</v>
-      </c>
-      <c r="BB99">
-        <v>6</v>
-      </c>
-      <c r="BC99">
-        <v>14</v>
-      </c>
-      <c r="BD99">
-        <v>2.02</v>
-      </c>
-      <c r="BE99">
-        <v>5.95</v>
-      </c>
-      <c r="BF99">
-        <v>2.15</v>
-      </c>
-      <c r="BG99">
-        <v>1.14</v>
-      </c>
-      <c r="BH99">
-        <v>4.15</v>
-      </c>
-      <c r="BI99">
-        <v>1.38</v>
-      </c>
-      <c r="BJ99">
-        <v>2.82</v>
-      </c>
-      <c r="BK99">
-        <v>1.65</v>
-      </c>
-      <c r="BL99">
-        <v>2.19</v>
-      </c>
-      <c r="BM99">
-        <v>1.98</v>
-      </c>
-      <c r="BN99">
-        <v>1.82</v>
-      </c>
-      <c r="BO99">
-        <v>2.62</v>
-      </c>
-      <c r="BP99">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -642,6 +642,9 @@
   <si>
     <t>['37']</t>
   </si>
+  <si>
+    <t>['28', '86']</t>
+  </si>
 </sst>
 </file>
 
@@ -1002,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1754,7 +1757,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ4">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2166,7 +2169,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ6">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3605,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ13">
         <v>1.17</v>
@@ -3814,7 +3817,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ14">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4017,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ15">
         <v>1.83</v>
@@ -4223,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ16">
         <v>2.6</v>
@@ -5462,7 +5465,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -7519,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ32">
         <v>0.8</v>
@@ -7725,10 +7728,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR33">
         <v>1.04</v>
@@ -7931,10 +7934,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.57</v>
@@ -9994,7 +9997,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ44">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR44">
         <v>1.61</v>
@@ -10403,7 +10406,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ46">
         <v>1.4</v>
@@ -10818,7 +10821,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -11021,7 +11024,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ49">
         <v>2.6</v>
@@ -12054,7 +12057,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR54">
         <v>1.11</v>
@@ -12257,7 +12260,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -13493,7 +13496,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -14938,7 +14941,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ68">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -16377,7 +16380,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16998,7 +17001,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ78">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR78">
         <v>1.7</v>
@@ -17819,7 +17822,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ82">
         <v>1.5</v>
@@ -18440,7 +18443,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ85">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -19264,7 +19267,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ89">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19467,7 +19470,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ90">
         <v>1.67</v>
@@ -20291,7 +20294,7 @@
         <v>2.2</v>
       </c>
       <c r="AP94">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ94">
         <v>2</v>
@@ -20706,7 +20709,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ96">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR96">
         <v>1.37</v>
@@ -21194,6 +21197,624 @@
       </c>
       <c r="BP98">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7502737</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45618.875</v>
+      </c>
+      <c r="F99">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>83</v>
+      </c>
+      <c r="H99" t="s">
+        <v>70</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>105</v>
+      </c>
+      <c r="P99" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
+      <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>1.17</v>
+      </c>
+      <c r="AO99">
+        <v>1.67</v>
+      </c>
+      <c r="AP99">
+        <v>1.43</v>
+      </c>
+      <c r="AQ99">
+        <v>1.43</v>
+      </c>
+      <c r="AR99">
+        <v>1.7</v>
+      </c>
+      <c r="AS99">
+        <v>1.47</v>
+      </c>
+      <c r="AT99">
+        <v>3.17</v>
+      </c>
+      <c r="AU99">
+        <v>6</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99">
+        <v>6</v>
+      </c>
+      <c r="AX99">
+        <v>9</v>
+      </c>
+      <c r="AY99">
+        <v>13</v>
+      </c>
+      <c r="AZ99">
+        <v>21</v>
+      </c>
+      <c r="BA99">
+        <v>2</v>
+      </c>
+      <c r="BB99">
+        <v>6</v>
+      </c>
+      <c r="BC99">
+        <v>8</v>
+      </c>
+      <c r="BD99">
+        <v>0</v>
+      </c>
+      <c r="BE99">
+        <v>0</v>
+      </c>
+      <c r="BF99">
+        <v>0</v>
+      </c>
+      <c r="BG99">
+        <v>0</v>
+      </c>
+      <c r="BH99">
+        <v>0</v>
+      </c>
+      <c r="BI99">
+        <v>0</v>
+      </c>
+      <c r="BJ99">
+        <v>0</v>
+      </c>
+      <c r="BK99">
+        <v>0</v>
+      </c>
+      <c r="BL99">
+        <v>0</v>
+      </c>
+      <c r="BM99">
+        <v>0</v>
+      </c>
+      <c r="BN99">
+        <v>0</v>
+      </c>
+      <c r="BO99">
+        <v>0</v>
+      </c>
+      <c r="BP99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7502669</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45619.33333333334</v>
+      </c>
+      <c r="F100">
+        <v>8</v>
+      </c>
+      <c r="G100" t="s">
+        <v>81</v>
+      </c>
+      <c r="H100" t="s">
+        <v>86</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100" t="s">
+        <v>89</v>
+      </c>
+      <c r="P100" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q100">
+        <v>2.99</v>
+      </c>
+      <c r="R100">
+        <v>2.12</v>
+      </c>
+      <c r="S100">
+        <v>3.34</v>
+      </c>
+      <c r="T100">
+        <v>1.39</v>
+      </c>
+      <c r="U100">
+        <v>2.86</v>
+      </c>
+      <c r="V100">
+        <v>2.78</v>
+      </c>
+      <c r="W100">
+        <v>1.41</v>
+      </c>
+      <c r="X100">
+        <v>7</v>
+      </c>
+      <c r="Y100">
+        <v>1.08</v>
+      </c>
+      <c r="Z100">
+        <v>2.3</v>
+      </c>
+      <c r="AA100">
+        <v>3.3</v>
+      </c>
+      <c r="AB100">
+        <v>2.6</v>
+      </c>
+      <c r="AC100">
+        <v>1</v>
+      </c>
+      <c r="AD100">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE100">
+        <v>1.24</v>
+      </c>
+      <c r="AF100">
+        <v>3.22</v>
+      </c>
+      <c r="AG100">
+        <v>1.85</v>
+      </c>
+      <c r="AH100">
+        <v>1.75</v>
+      </c>
+      <c r="AI100">
+        <v>1.7</v>
+      </c>
+      <c r="AJ100">
+        <v>2.03</v>
+      </c>
+      <c r="AK100">
+        <v>1.42</v>
+      </c>
+      <c r="AL100">
+        <v>1.28</v>
+      </c>
+      <c r="AM100">
+        <v>1.52</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
+        <v>1.75</v>
+      </c>
+      <c r="AP100">
+        <v>0.8</v>
+      </c>
+      <c r="AQ100">
+        <v>2</v>
+      </c>
+      <c r="AR100">
+        <v>1.34</v>
+      </c>
+      <c r="AS100">
+        <v>1.33</v>
+      </c>
+      <c r="AT100">
+        <v>2.67</v>
+      </c>
+      <c r="AU100">
+        <v>4</v>
+      </c>
+      <c r="AV100">
+        <v>5</v>
+      </c>
+      <c r="AW100">
+        <v>8</v>
+      </c>
+      <c r="AX100">
+        <v>14</v>
+      </c>
+      <c r="AY100">
+        <v>12</v>
+      </c>
+      <c r="AZ100">
+        <v>19</v>
+      </c>
+      <c r="BA100">
+        <v>8</v>
+      </c>
+      <c r="BB100">
+        <v>6</v>
+      </c>
+      <c r="BC100">
+        <v>14</v>
+      </c>
+      <c r="BD100">
+        <v>2.02</v>
+      </c>
+      <c r="BE100">
+        <v>5.95</v>
+      </c>
+      <c r="BF100">
+        <v>2.15</v>
+      </c>
+      <c r="BG100">
+        <v>1.14</v>
+      </c>
+      <c r="BH100">
+        <v>4.15</v>
+      </c>
+      <c r="BI100">
+        <v>1.38</v>
+      </c>
+      <c r="BJ100">
+        <v>2.82</v>
+      </c>
+      <c r="BK100">
+        <v>1.65</v>
+      </c>
+      <c r="BL100">
+        <v>2.19</v>
+      </c>
+      <c r="BM100">
+        <v>1.98</v>
+      </c>
+      <c r="BN100">
+        <v>1.82</v>
+      </c>
+      <c r="BO100">
+        <v>2.62</v>
+      </c>
+      <c r="BP100">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7502670</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45620.33333333334</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>84</v>
+      </c>
+      <c r="H101" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101" t="s">
+        <v>89</v>
+      </c>
+      <c r="P101" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q101">
+        <v>2.2</v>
+      </c>
+      <c r="R101">
+        <v>2.24</v>
+      </c>
+      <c r="S101">
+        <v>4.9</v>
+      </c>
+      <c r="T101">
+        <v>1.35</v>
+      </c>
+      <c r="U101">
+        <v>3.04</v>
+      </c>
+      <c r="V101">
+        <v>2.65</v>
+      </c>
+      <c r="W101">
+        <v>1.44</v>
+      </c>
+      <c r="X101">
+        <v>6.45</v>
+      </c>
+      <c r="Y101">
+        <v>1.09</v>
+      </c>
+      <c r="Z101">
+        <v>1.5</v>
+      </c>
+      <c r="AA101">
+        <v>3.8</v>
+      </c>
+      <c r="AB101">
+        <v>5.3</v>
+      </c>
+      <c r="AC101">
+        <v>1.02</v>
+      </c>
+      <c r="AD101">
+        <v>10</v>
+      </c>
+      <c r="AE101">
+        <v>1.21</v>
+      </c>
+      <c r="AF101">
+        <v>3.44</v>
+      </c>
+      <c r="AG101">
+        <v>1.9</v>
+      </c>
+      <c r="AH101">
+        <v>1.92</v>
+      </c>
+      <c r="AI101">
+        <v>1.78</v>
+      </c>
+      <c r="AJ101">
+        <v>1.93</v>
+      </c>
+      <c r="AK101">
+        <v>1.16</v>
+      </c>
+      <c r="AL101">
+        <v>1.24</v>
+      </c>
+      <c r="AM101">
+        <v>2.15</v>
+      </c>
+      <c r="AN101">
+        <v>0.75</v>
+      </c>
+      <c r="AO101">
+        <v>0.25</v>
+      </c>
+      <c r="AP101">
+        <v>0.8</v>
+      </c>
+      <c r="AQ101">
+        <v>0.4</v>
+      </c>
+      <c r="AR101">
+        <v>1.6</v>
+      </c>
+      <c r="AS101">
+        <v>1.22</v>
+      </c>
+      <c r="AT101">
+        <v>2.82</v>
+      </c>
+      <c r="AU101">
+        <v>6</v>
+      </c>
+      <c r="AV101">
+        <v>2</v>
+      </c>
+      <c r="AW101">
+        <v>8</v>
+      </c>
+      <c r="AX101">
+        <v>7</v>
+      </c>
+      <c r="AY101">
+        <v>14</v>
+      </c>
+      <c r="AZ101">
+        <v>9</v>
+      </c>
+      <c r="BA101">
+        <v>9</v>
+      </c>
+      <c r="BB101">
+        <v>4</v>
+      </c>
+      <c r="BC101">
+        <v>13</v>
+      </c>
+      <c r="BD101">
+        <v>1.27</v>
+      </c>
+      <c r="BE101">
+        <v>8.9</v>
+      </c>
+      <c r="BF101">
+        <v>4.45</v>
+      </c>
+      <c r="BG101">
+        <v>1.15</v>
+      </c>
+      <c r="BH101">
+        <v>4.4</v>
+      </c>
+      <c r="BI101">
+        <v>1.31</v>
+      </c>
+      <c r="BJ101">
+        <v>3</v>
+      </c>
+      <c r="BK101">
+        <v>1.56</v>
+      </c>
+      <c r="BL101">
+        <v>2.37</v>
+      </c>
+      <c r="BM101">
+        <v>2</v>
+      </c>
+      <c r="BN101">
+        <v>1.8</v>
+      </c>
+      <c r="BO101">
+        <v>2.44</v>
+      </c>
+      <c r="BP101">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -21204,7 +21204,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7502737</v>
+        <v>7502669</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21213,196 +21213,196 @@
         <v>69</v>
       </c>
       <c r="E99" s="2">
-        <v>45618.875</v>
+        <v>45619.33333333334</v>
       </c>
       <c r="F99">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G99" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O99" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="R99">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="S99">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="T99">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="U99">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="V99">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="W99">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X99">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y99">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AA99">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AC99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD99">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE99">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF99">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="AG99">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH99">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AI99">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AJ99">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AK99">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AL99">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM99">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AN99">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO99">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AP99">
-        <v>1.43</v>
+        <v>0.8</v>
       </c>
       <c r="AQ99">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AR99">
-        <v>1.7</v>
+        <v>1.34</v>
       </c>
       <c r="AS99">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AT99">
-        <v>3.17</v>
+        <v>2.67</v>
       </c>
       <c r="AU99">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV99">
         <v>5</v>
       </c>
       <c r="AW99">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX99">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AY99">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ99">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA99">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BB99">
         <v>6</v>
       </c>
       <c r="BC99">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD99">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="BE99">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="BF99">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="BG99">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="BH99">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="BI99">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BJ99">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="BK99">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BL99">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="BM99">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="BN99">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="BO99">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="BP99">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21410,7 +21410,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7502669</v>
+        <v>7502737</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21419,196 +21419,196 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45619.33333333334</v>
+        <v>45619.52083333334</v>
       </c>
       <c r="F100">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H100" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O100" t="s">
+        <v>105</v>
+      </c>
+      <c r="P100" t="s">
         <v>89</v>
       </c>
-      <c r="P100" t="s">
-        <v>209</v>
-      </c>
       <c r="Q100">
-        <v>2.99</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="S100">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="T100">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="U100">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="V100">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="W100">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="X100">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y100">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="Z100">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AB100">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD100">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE100">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AF100">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="AG100">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AH100">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>1.17</v>
+      </c>
+      <c r="AO100">
+        <v>1.67</v>
+      </c>
+      <c r="AP100">
+        <v>1.43</v>
+      </c>
+      <c r="AQ100">
+        <v>1.43</v>
+      </c>
+      <c r="AR100">
         <v>1.7</v>
       </c>
-      <c r="AJ100">
-        <v>2.03</v>
-      </c>
-      <c r="AK100">
-        <v>1.42</v>
-      </c>
-      <c r="AL100">
-        <v>1.28</v>
-      </c>
-      <c r="AM100">
-        <v>1.52</v>
-      </c>
-      <c r="AN100">
-        <v>1</v>
-      </c>
-      <c r="AO100">
-        <v>1.75</v>
-      </c>
-      <c r="AP100">
-        <v>0.8</v>
-      </c>
-      <c r="AQ100">
-        <v>2</v>
-      </c>
-      <c r="AR100">
-        <v>1.34</v>
-      </c>
       <c r="AS100">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AT100">
-        <v>2.67</v>
+        <v>3.17</v>
       </c>
       <c r="AU100">
         <v>4</v>
       </c>
       <c r="AV100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW100">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX100">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AY100">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ100">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BA100">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BB100">
         <v>6</v>
       </c>
       <c r="BC100">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BD100">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="BE100">
-        <v>5.95</v>
+        <v>0</v>
       </c>
       <c r="BF100">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BG100">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="BH100">
-        <v>4.15</v>
+        <v>0</v>
       </c>
       <c r="BI100">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="BJ100">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="BK100">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BL100">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="BM100">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="BN100">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="BO100">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="BP100">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,18 @@
     <t>['45', '90+8']</t>
   </si>
   <si>
+    <t>['21', '85']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['3', '23', '25', '40']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -517,9 +529,6 @@
     <t>['18', '29']</t>
   </si>
   <si>
-    <t>['90+4']</t>
-  </si>
-  <si>
     <t>['47', '89']</t>
   </si>
   <si>
@@ -542,9 +551,6 @@
   </si>
   <si>
     <t>['14', '61', '74']</t>
-  </si>
-  <si>
-    <t>['40']</t>
   </si>
   <si>
     <t>['51', '68']</t>
@@ -644,6 +650,15 @@
   </si>
   <si>
     <t>['28', '86']</t>
+  </si>
+  <si>
+    <t>['42', '49']</t>
+  </si>
+  <si>
+    <t>['11', '86']</t>
+  </si>
+  <si>
+    <t>['11', '84']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1279,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1470,7 +1485,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1676,7 +1691,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1960,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2088,7 +2103,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2294,7 +2309,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2375,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2706,7 +2721,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2784,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2990,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3118,7 +3133,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3196,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1.6</v>
@@ -3530,7 +3545,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3608,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ13">
         <v>1.17</v>
@@ -3736,7 +3751,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3942,7 +3957,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4148,7 +4163,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4435,7 +4450,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4641,7 +4656,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ18">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4766,7 +4781,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4972,7 +4987,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5050,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5256,10 +5271,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR21">
         <v>1.84</v>
@@ -5590,7 +5605,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5874,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>0.5</v>
@@ -6002,7 +6017,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6208,7 +6223,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6289,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR26">
         <v>1.66</v>
@@ -6414,7 +6429,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6701,7 +6716,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR28">
         <v>1.62</v>
@@ -6826,7 +6841,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6904,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
         <v>1.83</v>
@@ -7032,7 +7047,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7113,7 +7128,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR30">
         <v>1.33</v>
@@ -7444,7 +7459,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7525,7 +7540,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ32">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR32">
         <v>2.27</v>
@@ -7650,7 +7665,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7728,7 +7743,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ33">
         <v>1.43</v>
@@ -7856,7 +7871,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8062,7 +8077,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8268,7 +8283,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8474,7 +8489,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>2.89</v>
@@ -8680,7 +8695,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8886,7 +8901,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8964,10 +8979,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR39">
         <v>1.92</v>
@@ -9170,7 +9185,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40">
         <v>1.17</v>
@@ -9298,7 +9313,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9504,7 +9519,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9916,7 +9931,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10122,7 +10137,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10203,7 +10218,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10534,7 +10549,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10615,7 +10630,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ47">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -10740,7 +10755,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10946,7 +10961,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11024,7 +11039,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ49">
         <v>2.6</v>
@@ -11152,7 +11167,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11358,7 +11373,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11645,7 +11660,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -11848,10 +11863,10 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR53">
         <v>1.6</v>
@@ -11976,7 +11991,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12054,7 +12069,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
         <v>1.43</v>
@@ -12388,7 +12403,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12594,7 +12609,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12672,7 +12687,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ57">
         <v>1.83</v>
@@ -13006,7 +13021,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13499,7 +13514,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR61">
         <v>1.62</v>
@@ -14117,7 +14132,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ64">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR64">
         <v>1.67</v>
@@ -14242,7 +14257,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14320,7 +14335,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65">
         <v>1.6</v>
@@ -14529,7 +14544,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR66">
         <v>1.24</v>
@@ -14654,7 +14669,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14732,7 +14747,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
         <v>2.6</v>
@@ -14860,7 +14875,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -14938,7 +14953,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
         <v>1.43</v>
@@ -15147,7 +15162,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ69">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR69">
         <v>1.69</v>
@@ -15353,7 +15368,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR70">
         <v>1.47</v>
@@ -15765,7 +15780,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR72">
         <v>1.62</v>
@@ -15890,7 +15905,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16096,7 +16111,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16177,7 +16192,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ74">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR74">
         <v>1.25</v>
@@ -16302,7 +16317,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16508,7 +16523,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16920,7 +16935,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -16998,7 +17013,7 @@
         <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ78">
         <v>1.43</v>
@@ -17332,7 +17347,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17616,10 +17631,10 @@
         <v>1.25</v>
       </c>
       <c r="AP81">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -17822,10 +17837,10 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR82">
         <v>1.36</v>
@@ -17950,7 +17965,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18362,7 +18377,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q85">
         <v>2.67</v>
@@ -18440,7 +18455,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ85">
         <v>2</v>
@@ -18568,7 +18583,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -18646,7 +18661,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -18852,10 +18867,10 @@
         <v>1.25</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR87">
         <v>1.38</v>
@@ -18980,7 +18995,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19061,7 +19076,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ88">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR88">
         <v>1.05</v>
@@ -19392,7 +19407,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19473,7 +19488,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ90">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR90">
         <v>1.65</v>
@@ -19598,7 +19613,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -19804,7 +19819,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20010,7 +20025,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20216,7 +20231,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20422,7 +20437,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q95">
         <v>2.61</v>
@@ -20834,7 +20849,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21040,7 +21055,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21246,7 +21261,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -21324,7 +21339,7 @@
         <v>1.75</v>
       </c>
       <c r="AP99">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ99">
         <v>2</v>
@@ -21815,6 +21830,1036 @@
       </c>
       <c r="BP101">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7502710</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45625.625</v>
+      </c>
+      <c r="F102">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" t="s">
+        <v>72</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>152</v>
+      </c>
+      <c r="P102" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q102">
+        <v>3.1</v>
+      </c>
+      <c r="R102">
+        <v>1.9</v>
+      </c>
+      <c r="S102">
+        <v>3.75</v>
+      </c>
+      <c r="T102">
+        <v>1.52</v>
+      </c>
+      <c r="U102">
+        <v>2.39</v>
+      </c>
+      <c r="V102">
+        <v>3.4</v>
+      </c>
+      <c r="W102">
+        <v>1.28</v>
+      </c>
+      <c r="X102">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y102">
+        <v>1.04</v>
+      </c>
+      <c r="Z102">
+        <v>2.3</v>
+      </c>
+      <c r="AA102">
+        <v>3</v>
+      </c>
+      <c r="AB102">
+        <v>3.1</v>
+      </c>
+      <c r="AC102">
+        <v>1.06</v>
+      </c>
+      <c r="AD102">
+        <v>7.5</v>
+      </c>
+      <c r="AE102">
+        <v>1.44</v>
+      </c>
+      <c r="AF102">
+        <v>2.7</v>
+      </c>
+      <c r="AG102">
+        <v>2.25</v>
+      </c>
+      <c r="AH102">
+        <v>1.57</v>
+      </c>
+      <c r="AI102">
+        <v>1.95</v>
+      </c>
+      <c r="AJ102">
+        <v>1.8</v>
+      </c>
+      <c r="AK102">
+        <v>1.35</v>
+      </c>
+      <c r="AL102">
+        <v>1.3</v>
+      </c>
+      <c r="AM102">
+        <v>1.55</v>
+      </c>
+      <c r="AN102">
+        <v>1.4</v>
+      </c>
+      <c r="AO102">
+        <v>1</v>
+      </c>
+      <c r="AP102">
+        <v>1.67</v>
+      </c>
+      <c r="AQ102">
+        <v>0.83</v>
+      </c>
+      <c r="AR102">
+        <v>1.5</v>
+      </c>
+      <c r="AS102">
+        <v>1.34</v>
+      </c>
+      <c r="AT102">
+        <v>2.84</v>
+      </c>
+      <c r="AU102">
+        <v>3</v>
+      </c>
+      <c r="AV102">
+        <v>5</v>
+      </c>
+      <c r="AW102">
+        <v>2</v>
+      </c>
+      <c r="AX102">
+        <v>8</v>
+      </c>
+      <c r="AY102">
+        <v>5</v>
+      </c>
+      <c r="AZ102">
+        <v>13</v>
+      </c>
+      <c r="BA102">
+        <v>3</v>
+      </c>
+      <c r="BB102">
+        <v>7</v>
+      </c>
+      <c r="BC102">
+        <v>10</v>
+      </c>
+      <c r="BD102">
+        <v>1.85</v>
+      </c>
+      <c r="BE102">
+        <v>8</v>
+      </c>
+      <c r="BF102">
+        <v>2.28</v>
+      </c>
+      <c r="BG102">
+        <v>0</v>
+      </c>
+      <c r="BH102">
+        <v>0</v>
+      </c>
+      <c r="BI102">
+        <v>0</v>
+      </c>
+      <c r="BJ102">
+        <v>0</v>
+      </c>
+      <c r="BK102">
+        <v>0</v>
+      </c>
+      <c r="BL102">
+        <v>0</v>
+      </c>
+      <c r="BM102">
+        <v>0</v>
+      </c>
+      <c r="BN102">
+        <v>0</v>
+      </c>
+      <c r="BO102">
+        <v>0</v>
+      </c>
+      <c r="BP102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7502711</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45626.33333333334</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>78</v>
+      </c>
+      <c r="H103" t="s">
+        <v>75</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>153</v>
+      </c>
+      <c r="P103" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q103">
+        <v>2.6</v>
+      </c>
+      <c r="R103">
+        <v>2.1</v>
+      </c>
+      <c r="S103">
+        <v>4</v>
+      </c>
+      <c r="T103">
+        <v>1.41</v>
+      </c>
+      <c r="U103">
+        <v>2.7</v>
+      </c>
+      <c r="V103">
+        <v>2.95</v>
+      </c>
+      <c r="W103">
+        <v>1.35</v>
+      </c>
+      <c r="X103">
+        <v>7.4</v>
+      </c>
+      <c r="Y103">
+        <v>1.06</v>
+      </c>
+      <c r="Z103">
+        <v>1.97</v>
+      </c>
+      <c r="AA103">
+        <v>3.35</v>
+      </c>
+      <c r="AB103">
+        <v>3.4</v>
+      </c>
+      <c r="AC103">
+        <v>1.01</v>
+      </c>
+      <c r="AD103">
+        <v>8</v>
+      </c>
+      <c r="AE103">
+        <v>1.33</v>
+      </c>
+      <c r="AF103">
+        <v>3.1</v>
+      </c>
+      <c r="AG103">
+        <v>1.98</v>
+      </c>
+      <c r="AH103">
+        <v>1.72</v>
+      </c>
+      <c r="AI103">
+        <v>1.83</v>
+      </c>
+      <c r="AJ103">
+        <v>1.9</v>
+      </c>
+      <c r="AK103">
+        <v>1.28</v>
+      </c>
+      <c r="AL103">
+        <v>1.25</v>
+      </c>
+      <c r="AM103">
+        <v>1.8</v>
+      </c>
+      <c r="AN103">
+        <v>0.67</v>
+      </c>
+      <c r="AO103">
+        <v>0.8</v>
+      </c>
+      <c r="AP103">
+        <v>0.57</v>
+      </c>
+      <c r="AQ103">
+        <v>1.17</v>
+      </c>
+      <c r="AR103">
+        <v>1.71</v>
+      </c>
+      <c r="AS103">
+        <v>1.46</v>
+      </c>
+      <c r="AT103">
+        <v>3.17</v>
+      </c>
+      <c r="AU103">
+        <v>-1</v>
+      </c>
+      <c r="AV103">
+        <v>-1</v>
+      </c>
+      <c r="AW103">
+        <v>-1</v>
+      </c>
+      <c r="AX103">
+        <v>-1</v>
+      </c>
+      <c r="AY103">
+        <v>-1</v>
+      </c>
+      <c r="AZ103">
+        <v>-1</v>
+      </c>
+      <c r="BA103">
+        <v>-1</v>
+      </c>
+      <c r="BB103">
+        <v>-1</v>
+      </c>
+      <c r="BC103">
+        <v>-1</v>
+      </c>
+      <c r="BD103">
+        <v>1.51</v>
+      </c>
+      <c r="BE103">
+        <v>8.5</v>
+      </c>
+      <c r="BF103">
+        <v>3.07</v>
+      </c>
+      <c r="BG103">
+        <v>0</v>
+      </c>
+      <c r="BH103">
+        <v>0</v>
+      </c>
+      <c r="BI103">
+        <v>0</v>
+      </c>
+      <c r="BJ103">
+        <v>0</v>
+      </c>
+      <c r="BK103">
+        <v>0</v>
+      </c>
+      <c r="BL103">
+        <v>0</v>
+      </c>
+      <c r="BM103">
+        <v>0</v>
+      </c>
+      <c r="BN103">
+        <v>0</v>
+      </c>
+      <c r="BO103">
+        <v>0</v>
+      </c>
+      <c r="BP103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7502708</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45626.45833333334</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>77</v>
+      </c>
+      <c r="H104" t="s">
+        <v>83</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" t="s">
+        <v>154</v>
+      </c>
+      <c r="P104" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q104">
+        <v>2.65</v>
+      </c>
+      <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
+        <v>4.5</v>
+      </c>
+      <c r="T104">
+        <v>1.51</v>
+      </c>
+      <c r="U104">
+        <v>2.4</v>
+      </c>
+      <c r="V104">
+        <v>3.25</v>
+      </c>
+      <c r="W104">
+        <v>1.3</v>
+      </c>
+      <c r="X104">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y104">
+        <v>1.04</v>
+      </c>
+      <c r="Z104">
+        <v>1.91</v>
+      </c>
+      <c r="AA104">
+        <v>2.87</v>
+      </c>
+      <c r="AB104">
+        <v>4</v>
+      </c>
+      <c r="AC104">
+        <v>1.02</v>
+      </c>
+      <c r="AD104">
+        <v>7.5</v>
+      </c>
+      <c r="AE104">
+        <v>1.4</v>
+      </c>
+      <c r="AF104">
+        <v>2.8</v>
+      </c>
+      <c r="AG104">
+        <v>2.2</v>
+      </c>
+      <c r="AH104">
+        <v>1.55</v>
+      </c>
+      <c r="AI104">
+        <v>1.95</v>
+      </c>
+      <c r="AJ104">
+        <v>1.78</v>
+      </c>
+      <c r="AK104">
+        <v>1.22</v>
+      </c>
+      <c r="AL104">
+        <v>1.28</v>
+      </c>
+      <c r="AM104">
+        <v>1.78</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
+        <v>1</v>
+      </c>
+      <c r="AP104">
+        <v>1.33</v>
+      </c>
+      <c r="AQ104">
+        <v>0.83</v>
+      </c>
+      <c r="AR104">
+        <v>1.44</v>
+      </c>
+      <c r="AS104">
+        <v>1.52</v>
+      </c>
+      <c r="AT104">
+        <v>2.96</v>
+      </c>
+      <c r="AU104">
+        <v>5</v>
+      </c>
+      <c r="AV104">
+        <v>4</v>
+      </c>
+      <c r="AW104">
+        <v>9</v>
+      </c>
+      <c r="AX104">
+        <v>4</v>
+      </c>
+      <c r="AY104">
+        <v>14</v>
+      </c>
+      <c r="AZ104">
+        <v>8</v>
+      </c>
+      <c r="BA104">
+        <v>8</v>
+      </c>
+      <c r="BB104">
+        <v>3</v>
+      </c>
+      <c r="BC104">
+        <v>11</v>
+      </c>
+      <c r="BD104">
+        <v>1.55</v>
+      </c>
+      <c r="BE104">
+        <v>8.5</v>
+      </c>
+      <c r="BF104">
+        <v>2.91</v>
+      </c>
+      <c r="BG104">
+        <v>1.15</v>
+      </c>
+      <c r="BH104">
+        <v>4.05</v>
+      </c>
+      <c r="BI104">
+        <v>1.35</v>
+      </c>
+      <c r="BJ104">
+        <v>3.22</v>
+      </c>
+      <c r="BK104">
+        <v>1.6</v>
+      </c>
+      <c r="BL104">
+        <v>2.34</v>
+      </c>
+      <c r="BM104">
+        <v>2</v>
+      </c>
+      <c r="BN104">
+        <v>1.8</v>
+      </c>
+      <c r="BO104">
+        <v>2.48</v>
+      </c>
+      <c r="BP104">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7502704</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45626.52083333334</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>81</v>
+      </c>
+      <c r="H105" t="s">
+        <v>85</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>125</v>
+      </c>
+      <c r="P105" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q105">
+        <v>3.3</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>3.25</v>
+      </c>
+      <c r="T105">
+        <v>1.47</v>
+      </c>
+      <c r="U105">
+        <v>2.5</v>
+      </c>
+      <c r="V105">
+        <v>3.05</v>
+      </c>
+      <c r="W105">
+        <v>1.33</v>
+      </c>
+      <c r="X105">
+        <v>7.9</v>
+      </c>
+      <c r="Y105">
+        <v>1.05</v>
+      </c>
+      <c r="Z105">
+        <v>2.6</v>
+      </c>
+      <c r="AA105">
+        <v>3.2</v>
+      </c>
+      <c r="AB105">
+        <v>2.4</v>
+      </c>
+      <c r="AC105">
+        <v>1.02</v>
+      </c>
+      <c r="AD105">
+        <v>7.3</v>
+      </c>
+      <c r="AE105">
+        <v>1.36</v>
+      </c>
+      <c r="AF105">
+        <v>2.95</v>
+      </c>
+      <c r="AG105">
+        <v>2.05</v>
+      </c>
+      <c r="AH105">
+        <v>1.61</v>
+      </c>
+      <c r="AI105">
+        <v>1.83</v>
+      </c>
+      <c r="AJ105">
+        <v>1.9</v>
+      </c>
+      <c r="AK105">
+        <v>1.47</v>
+      </c>
+      <c r="AL105">
+        <v>1.28</v>
+      </c>
+      <c r="AM105">
+        <v>1.45</v>
+      </c>
+      <c r="AN105">
+        <v>0.8</v>
+      </c>
+      <c r="AO105">
+        <v>1.67</v>
+      </c>
+      <c r="AP105">
+        <v>0.67</v>
+      </c>
+      <c r="AQ105">
+        <v>1.86</v>
+      </c>
+      <c r="AR105">
+        <v>1.39</v>
+      </c>
+      <c r="AS105">
+        <v>1.28</v>
+      </c>
+      <c r="AT105">
+        <v>2.67</v>
+      </c>
+      <c r="AU105">
+        <v>5</v>
+      </c>
+      <c r="AV105">
+        <v>7</v>
+      </c>
+      <c r="AW105">
+        <v>5</v>
+      </c>
+      <c r="AX105">
+        <v>10</v>
+      </c>
+      <c r="AY105">
+        <v>10</v>
+      </c>
+      <c r="AZ105">
+        <v>17</v>
+      </c>
+      <c r="BA105">
+        <v>2</v>
+      </c>
+      <c r="BB105">
+        <v>7</v>
+      </c>
+      <c r="BC105">
+        <v>9</v>
+      </c>
+      <c r="BD105">
+        <v>2.43</v>
+      </c>
+      <c r="BE105">
+        <v>8.5</v>
+      </c>
+      <c r="BF105">
+        <v>1.75</v>
+      </c>
+      <c r="BG105">
+        <v>1.13</v>
+      </c>
+      <c r="BH105">
+        <v>4.25</v>
+      </c>
+      <c r="BI105">
+        <v>1.32</v>
+      </c>
+      <c r="BJ105">
+        <v>3.35</v>
+      </c>
+      <c r="BK105">
+        <v>1.56</v>
+      </c>
+      <c r="BL105">
+        <v>2.42</v>
+      </c>
+      <c r="BM105">
+        <v>1.92</v>
+      </c>
+      <c r="BN105">
+        <v>1.88</v>
+      </c>
+      <c r="BO105">
+        <v>2.4</v>
+      </c>
+      <c r="BP105">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7502709</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45626.625</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s">
+        <v>84</v>
+      </c>
+      <c r="I106">
+        <v>4</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>5</v>
+      </c>
+      <c r="L106">
+        <v>4</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>6</v>
+      </c>
+      <c r="O106" t="s">
+        <v>155</v>
+      </c>
+      <c r="P106" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q106">
+        <v>3.38</v>
+      </c>
+      <c r="R106">
+        <v>2.02</v>
+      </c>
+      <c r="S106">
+        <v>3.2</v>
+      </c>
+      <c r="T106">
+        <v>1.45</v>
+      </c>
+      <c r="U106">
+        <v>2.63</v>
+      </c>
+      <c r="V106">
+        <v>3.1</v>
+      </c>
+      <c r="W106">
+        <v>1.34</v>
+      </c>
+      <c r="X106">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y106">
+        <v>1.06</v>
+      </c>
+      <c r="Z106">
+        <v>2.6</v>
+      </c>
+      <c r="AA106">
+        <v>2.95</v>
+      </c>
+      <c r="AB106">
+        <v>2.55</v>
+      </c>
+      <c r="AC106">
+        <v>1.02</v>
+      </c>
+      <c r="AD106">
+        <v>7.4</v>
+      </c>
+      <c r="AE106">
+        <v>1.32</v>
+      </c>
+      <c r="AF106">
+        <v>2.78</v>
+      </c>
+      <c r="AG106">
+        <v>2.1</v>
+      </c>
+      <c r="AH106">
+        <v>1.65</v>
+      </c>
+      <c r="AI106">
+        <v>1.84</v>
+      </c>
+      <c r="AJ106">
+        <v>1.86</v>
+      </c>
+      <c r="AK106">
+        <v>1.47</v>
+      </c>
+      <c r="AL106">
+        <v>1.32</v>
+      </c>
+      <c r="AM106">
+        <v>1.44</v>
+      </c>
+      <c r="AN106">
+        <v>1.2</v>
+      </c>
+      <c r="AO106">
+        <v>1.5</v>
+      </c>
+      <c r="AP106">
+        <v>1.5</v>
+      </c>
+      <c r="AQ106">
+        <v>1.29</v>
+      </c>
+      <c r="AR106">
+        <v>1.65</v>
+      </c>
+      <c r="AS106">
+        <v>1.3</v>
+      </c>
+      <c r="AT106">
+        <v>2.95</v>
+      </c>
+      <c r="AU106">
+        <v>6</v>
+      </c>
+      <c r="AV106">
+        <v>5</v>
+      </c>
+      <c r="AW106">
+        <v>3</v>
+      </c>
+      <c r="AX106">
+        <v>8</v>
+      </c>
+      <c r="AY106">
+        <v>9</v>
+      </c>
+      <c r="AZ106">
+        <v>13</v>
+      </c>
+      <c r="BA106">
+        <v>4</v>
+      </c>
+      <c r="BB106">
+        <v>2</v>
+      </c>
+      <c r="BC106">
+        <v>6</v>
+      </c>
+      <c r="BD106">
+        <v>1.91</v>
+      </c>
+      <c r="BE106">
+        <v>8</v>
+      </c>
+      <c r="BF106">
+        <v>2.1</v>
+      </c>
+      <c r="BG106">
+        <v>1.23</v>
+      </c>
+      <c r="BH106">
+        <v>4.2</v>
+      </c>
+      <c r="BI106">
+        <v>1.42</v>
+      </c>
+      <c r="BJ106">
+        <v>2.84</v>
+      </c>
+      <c r="BK106">
+        <v>1.72</v>
+      </c>
+      <c r="BL106">
+        <v>2.12</v>
+      </c>
+      <c r="BM106">
+        <v>2.13</v>
+      </c>
+      <c r="BN106">
+        <v>1.66</v>
+      </c>
+      <c r="BO106">
+        <v>2.78</v>
+      </c>
+      <c r="BP106">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -22178,31 +22178,31 @@
         <v>3.17</v>
       </c>
       <c r="AU103">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV103">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW103">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX103">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY103">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ103">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA103">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB103">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC103">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD103">
         <v>1.51</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,15 @@
     <t>['3', '23', '25', '40']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['2', '80']</t>
+  </si>
+  <si>
+    <t>['36', '90+3']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -652,13 +661,22 @@
     <t>['28', '86']</t>
   </si>
   <si>
+    <t>['11', '86']</t>
+  </si>
+  <si>
     <t>['42', '49']</t>
   </si>
   <si>
-    <t>['11', '86']</t>
+    <t>['11', '84']</t>
   </si>
   <si>
-    <t>['11', '84']</t>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1297,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1485,7 +1503,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1566,7 +1584,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ3">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1691,7 +1709,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1772,7 +1790,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2103,7 +2121,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2181,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ6">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2309,7 +2327,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2593,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2721,7 +2739,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3133,7 +3151,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3545,7 +3563,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3751,7 +3769,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3957,7 +3975,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4163,7 +4181,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4781,7 +4799,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4859,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
         <v>0.5</v>
@@ -4987,7 +5005,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5480,7 +5498,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5605,7 +5623,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5686,7 +5704,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ23">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR23">
         <v>1.93</v>
@@ -6017,7 +6035,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6095,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6429,7 +6447,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6841,7 +6859,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7047,7 +7065,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7331,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ31">
         <v>1.6</v>
@@ -7459,7 +7477,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7665,7 +7683,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7871,7 +7889,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7952,7 +7970,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR34">
         <v>1.57</v>
@@ -8077,7 +8095,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8283,7 +8301,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8567,7 +8585,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>1.17</v>
@@ -8695,7 +8713,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8901,7 +8919,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9313,7 +9331,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9519,7 +9537,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9803,7 +9821,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ43">
         <v>0.5</v>
@@ -9931,7 +9949,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10012,7 +10030,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ44">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR44">
         <v>1.61</v>
@@ -10137,7 +10155,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10424,7 +10442,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ46">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
         <v>1.7</v>
@@ -10549,7 +10567,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10755,7 +10773,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10836,7 +10854,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -10961,7 +10979,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11167,7 +11185,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11245,7 +11263,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ50">
         <v>1.83</v>
@@ -11373,7 +11391,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11451,7 +11469,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>1.6</v>
@@ -11991,7 +12009,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12403,7 +12421,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12609,7 +12627,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13021,7 +13039,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13102,7 +13120,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ59">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>1.13</v>
@@ -13717,7 +13735,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ62">
         <v>1.17</v>
@@ -14257,7 +14275,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14541,7 +14559,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ66">
         <v>0.83</v>
@@ -14669,7 +14687,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14875,7 +14893,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15571,7 +15589,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15905,7 +15923,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -15983,7 +16001,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ73">
         <v>1.83</v>
@@ -16111,7 +16129,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16317,7 +16335,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16523,7 +16541,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16935,7 +16953,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17347,7 +17365,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17965,7 +17983,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18252,7 +18270,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ84">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR84">
         <v>1.48</v>
@@ -18377,7 +18395,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q85">
         <v>2.67</v>
@@ -18458,7 +18476,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -18583,7 +18601,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -18995,7 +19013,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19073,7 +19091,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
         <v>1.17</v>
@@ -19279,10 +19297,10 @@
         <v>0.33</v>
       </c>
       <c r="AP89">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ89">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19407,7 +19425,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19613,7 +19631,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -19691,7 +19709,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ91">
         <v>1.6</v>
@@ -19819,7 +19837,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20025,7 +20043,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20231,7 +20249,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20437,7 +20455,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>2.61</v>
@@ -20849,7 +20867,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21055,7 +21073,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21261,7 +21279,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -21342,7 +21360,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ99">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR99">
         <v>1.34</v>
@@ -21754,7 +21772,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ101">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR101">
         <v>1.6</v>
@@ -22043,7 +22061,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7502711</v>
+        <v>7502704</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -22052,16 +22070,16 @@
         <v>69</v>
       </c>
       <c r="E103" s="2">
-        <v>45626.33333333334</v>
+        <v>45625.875</v>
       </c>
       <c r="F103">
         <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H103" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -22082,64 +22100,64 @@
         <v>3</v>
       </c>
       <c r="O103" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="P103" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q103">
+        <v>3.3</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>3.25</v>
+      </c>
+      <c r="T103">
+        <v>1.47</v>
+      </c>
+      <c r="U103">
+        <v>2.5</v>
+      </c>
+      <c r="V103">
+        <v>3.05</v>
+      </c>
+      <c r="W103">
+        <v>1.33</v>
+      </c>
+      <c r="X103">
+        <v>7.9</v>
+      </c>
+      <c r="Y103">
+        <v>1.05</v>
+      </c>
+      <c r="Z103">
         <v>2.6</v>
       </c>
-      <c r="R103">
-        <v>2.1</v>
-      </c>
-      <c r="S103">
-        <v>4</v>
-      </c>
-      <c r="T103">
-        <v>1.41</v>
-      </c>
-      <c r="U103">
-        <v>2.7</v>
-      </c>
-      <c r="V103">
+      <c r="AA103">
+        <v>3.2</v>
+      </c>
+      <c r="AB103">
+        <v>2.4</v>
+      </c>
+      <c r="AC103">
+        <v>1.02</v>
+      </c>
+      <c r="AD103">
+        <v>7.3</v>
+      </c>
+      <c r="AE103">
+        <v>1.36</v>
+      </c>
+      <c r="AF103">
         <v>2.95</v>
       </c>
-      <c r="W103">
-        <v>1.35</v>
-      </c>
-      <c r="X103">
-        <v>7.4</v>
-      </c>
-      <c r="Y103">
-        <v>1.06</v>
-      </c>
-      <c r="Z103">
-        <v>1.97</v>
-      </c>
-      <c r="AA103">
-        <v>3.35</v>
-      </c>
-      <c r="AB103">
-        <v>3.4</v>
-      </c>
-      <c r="AC103">
-        <v>1.01</v>
-      </c>
-      <c r="AD103">
-        <v>8</v>
-      </c>
-      <c r="AE103">
-        <v>1.33</v>
-      </c>
-      <c r="AF103">
-        <v>3.1</v>
-      </c>
       <c r="AG103">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AH103">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="AI103">
         <v>1.83</v>
@@ -22148,100 +22166,100 @@
         <v>1.9</v>
       </c>
       <c r="AK103">
+        <v>1.47</v>
+      </c>
+      <c r="AL103">
         <v>1.28</v>
       </c>
-      <c r="AL103">
-        <v>1.25</v>
-      </c>
       <c r="AM103">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="AN103">
+        <v>0.8</v>
+      </c>
+      <c r="AO103">
+        <v>1.67</v>
+      </c>
+      <c r="AP103">
         <v>0.67</v>
       </c>
-      <c r="AO103">
-        <v>0.8</v>
-      </c>
-      <c r="AP103">
-        <v>0.57</v>
-      </c>
       <c r="AQ103">
-        <v>1.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR103">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="AS103">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AT103">
-        <v>3.17</v>
+        <v>2.67</v>
       </c>
       <c r="AU103">
         <v>5</v>
       </c>
       <c r="AV103">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW103">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX103">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AY103">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ103">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BA103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB103">
         <v>7</v>
       </c>
       <c r="BC103">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD103">
-        <v>1.51</v>
+        <v>2.43</v>
       </c>
       <c r="BE103">
         <v>8.5</v>
       </c>
       <c r="BF103">
-        <v>3.07</v>
+        <v>1.75</v>
       </c>
       <c r="BG103">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="BH103">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="BI103">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="BJ103">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="BK103">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="BL103">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="BM103">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BN103">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BO103">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BP103">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="104" spans="1:68">
@@ -22249,7 +22267,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7502708</v>
+        <v>7502711</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -22258,130 +22276,130 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45626.45833333334</v>
+        <v>45626.33333333334</v>
       </c>
       <c r="F104">
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H104" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L104">
         <v>1</v>
       </c>
       <c r="M104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="Q104">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S104">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T104">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="U104">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="V104">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="W104">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="X104">
-        <v>8.449999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="Y104">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z104">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="AA104">
-        <v>2.87</v>
+        <v>3.35</v>
       </c>
       <c r="AB104">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AC104">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD104">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE104">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AF104">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AG104">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="AH104">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="AI104">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AJ104">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AK104">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AL104">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM104">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AN104">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO104">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>0.57</v>
       </c>
       <c r="AQ104">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AR104">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="AS104">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AT104">
-        <v>2.96</v>
+        <v>3.17</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22390,64 +22408,64 @@
         <v>4</v>
       </c>
       <c r="AW104">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX104">
         <v>4</v>
       </c>
       <c r="AY104">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ104">
         <v>8</v>
       </c>
       <c r="BA104">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB104">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC104">
         <v>11</v>
       </c>
       <c r="BD104">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="BE104">
         <v>8.5</v>
       </c>
       <c r="BF104">
-        <v>2.91</v>
+        <v>3.07</v>
       </c>
       <c r="BG104">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="BH104">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="BI104">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="BJ104">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="BK104">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="BL104">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="BM104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BN104">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BO104">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="BP104">
-        <v>1.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:68">
@@ -22455,7 +22473,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7502704</v>
+        <v>7502708</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22464,196 +22482,196 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45626.52083333334</v>
+        <v>45626.45833333334</v>
       </c>
       <c r="F105">
         <v>12</v>
       </c>
       <c r="G105" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H105" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L105">
         <v>1</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O105" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="Q105">
-        <v>3.3</v>
+        <v>2.65</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
+        <v>4.5</v>
+      </c>
+      <c r="T105">
+        <v>1.51</v>
+      </c>
+      <c r="U105">
+        <v>2.4</v>
+      </c>
+      <c r="V105">
         <v>3.25</v>
       </c>
-      <c r="T105">
-        <v>1.47</v>
-      </c>
-      <c r="U105">
-        <v>2.5</v>
-      </c>
-      <c r="V105">
-        <v>3.05</v>
-      </c>
       <c r="W105">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X105">
-        <v>7.9</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="Y105">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z105">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="AA105">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="AB105">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="AC105">
         <v>1.02</v>
       </c>
       <c r="AD105">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE105">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AF105">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="AG105">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AH105">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AI105">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AJ105">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="AK105">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="AL105">
         <v>1.28</v>
       </c>
       <c r="AM105">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="AN105">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO105">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105">
-        <v>1.86</v>
+        <v>0.83</v>
       </c>
       <c r="AR105">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AS105">
-        <v>1.28</v>
+        <v>1.52</v>
       </c>
       <c r="AT105">
-        <v>2.67</v>
+        <v>2.96</v>
       </c>
       <c r="AU105">
         <v>5</v>
       </c>
       <c r="AV105">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW105">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX105">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY105">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ105">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="BA105">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BB105">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC105">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD105">
-        <v>2.43</v>
+        <v>1.55</v>
       </c>
       <c r="BE105">
         <v>8.5</v>
       </c>
       <c r="BF105">
-        <v>1.75</v>
+        <v>2.91</v>
       </c>
       <c r="BG105">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="BH105">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="BI105">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="BJ105">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="BK105">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="BL105">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="BM105">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BN105">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BO105">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="BP105">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -22703,7 +22721,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -22860,6 +22878,830 @@
       </c>
       <c r="BP106">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7502707</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45627.33333333334</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H107" t="s">
+        <v>71</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>156</v>
+      </c>
+      <c r="P107" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q107">
+        <v>2.62</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>4.5</v>
+      </c>
+      <c r="T107">
+        <v>1.48</v>
+      </c>
+      <c r="U107">
+        <v>2.54</v>
+      </c>
+      <c r="V107">
+        <v>3.28</v>
+      </c>
+      <c r="W107">
+        <v>1.31</v>
+      </c>
+      <c r="X107">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y107">
+        <v>1.05</v>
+      </c>
+      <c r="Z107">
+        <v>1.99</v>
+      </c>
+      <c r="AA107">
+        <v>3.34</v>
+      </c>
+      <c r="AB107">
+        <v>3.75</v>
+      </c>
+      <c r="AC107">
+        <v>1.03</v>
+      </c>
+      <c r="AD107">
+        <v>6.95</v>
+      </c>
+      <c r="AE107">
+        <v>1.35</v>
+      </c>
+      <c r="AF107">
+        <v>2.65</v>
+      </c>
+      <c r="AG107">
+        <v>2.15</v>
+      </c>
+      <c r="AH107">
+        <v>1.57</v>
+      </c>
+      <c r="AI107">
+        <v>1.96</v>
+      </c>
+      <c r="AJ107">
+        <v>1.75</v>
+      </c>
+      <c r="AK107">
+        <v>1.25</v>
+      </c>
+      <c r="AL107">
+        <v>1.31</v>
+      </c>
+      <c r="AM107">
+        <v>1.76</v>
+      </c>
+      <c r="AN107">
+        <v>1.83</v>
+      </c>
+      <c r="AO107">
+        <v>1</v>
+      </c>
+      <c r="AP107">
+        <v>1.71</v>
+      </c>
+      <c r="AQ107">
+        <v>1</v>
+      </c>
+      <c r="AR107">
+        <v>1.21</v>
+      </c>
+      <c r="AS107">
+        <v>1.08</v>
+      </c>
+      <c r="AT107">
+        <v>2.29</v>
+      </c>
+      <c r="AU107">
+        <v>5</v>
+      </c>
+      <c r="AV107">
+        <v>3</v>
+      </c>
+      <c r="AW107">
+        <v>4</v>
+      </c>
+      <c r="AX107">
+        <v>4</v>
+      </c>
+      <c r="AY107">
+        <v>9</v>
+      </c>
+      <c r="AZ107">
+        <v>7</v>
+      </c>
+      <c r="BA107">
+        <v>3</v>
+      </c>
+      <c r="BB107">
+        <v>3</v>
+      </c>
+      <c r="BC107">
+        <v>6</v>
+      </c>
+      <c r="BD107">
+        <v>1.82</v>
+      </c>
+      <c r="BE107">
+        <v>8</v>
+      </c>
+      <c r="BF107">
+        <v>2.33</v>
+      </c>
+      <c r="BG107">
+        <v>1.14</v>
+      </c>
+      <c r="BH107">
+        <v>4.15</v>
+      </c>
+      <c r="BI107">
+        <v>1.39</v>
+      </c>
+      <c r="BJ107">
+        <v>2.78</v>
+      </c>
+      <c r="BK107">
+        <v>1.65</v>
+      </c>
+      <c r="BL107">
+        <v>2.1</v>
+      </c>
+      <c r="BM107">
+        <v>2.05</v>
+      </c>
+      <c r="BN107">
+        <v>1.68</v>
+      </c>
+      <c r="BO107">
+        <v>2.65</v>
+      </c>
+      <c r="BP107">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7502703</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45627.45833333334</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>87</v>
+      </c>
+      <c r="H108" t="s">
+        <v>82</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>157</v>
+      </c>
+      <c r="P108" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q108">
+        <v>2.66</v>
+      </c>
+      <c r="R108">
+        <v>2.03</v>
+      </c>
+      <c r="S108">
+        <v>4.25</v>
+      </c>
+      <c r="T108">
+        <v>1.44</v>
+      </c>
+      <c r="U108">
+        <v>2.67</v>
+      </c>
+      <c r="V108">
+        <v>3.14</v>
+      </c>
+      <c r="W108">
+        <v>1.33</v>
+      </c>
+      <c r="X108">
+        <v>8.5</v>
+      </c>
+      <c r="Y108">
+        <v>1.05</v>
+      </c>
+      <c r="Z108">
+        <v>2.06</v>
+      </c>
+      <c r="AA108">
+        <v>3.15</v>
+      </c>
+      <c r="AB108">
+        <v>3.5</v>
+      </c>
+      <c r="AC108">
+        <v>1.01</v>
+      </c>
+      <c r="AD108">
+        <v>8</v>
+      </c>
+      <c r="AE108">
+        <v>1.31</v>
+      </c>
+      <c r="AF108">
+        <v>2.82</v>
+      </c>
+      <c r="AG108">
+        <v>2.08</v>
+      </c>
+      <c r="AH108">
+        <v>1.62</v>
+      </c>
+      <c r="AI108">
+        <v>1.87</v>
+      </c>
+      <c r="AJ108">
+        <v>1.83</v>
+      </c>
+      <c r="AK108">
+        <v>1.28</v>
+      </c>
+      <c r="AL108">
+        <v>1.3</v>
+      </c>
+      <c r="AM108">
+        <v>1.73</v>
+      </c>
+      <c r="AN108">
+        <v>2.2</v>
+      </c>
+      <c r="AO108">
+        <v>1.4</v>
+      </c>
+      <c r="AP108">
+        <v>2.33</v>
+      </c>
+      <c r="AQ108">
+        <v>1.17</v>
+      </c>
+      <c r="AR108">
+        <v>1.57</v>
+      </c>
+      <c r="AS108">
+        <v>1.23</v>
+      </c>
+      <c r="AT108">
+        <v>2.8</v>
+      </c>
+      <c r="AU108">
+        <v>6</v>
+      </c>
+      <c r="AV108">
+        <v>4</v>
+      </c>
+      <c r="AW108">
+        <v>10</v>
+      </c>
+      <c r="AX108">
+        <v>5</v>
+      </c>
+      <c r="AY108">
+        <v>16</v>
+      </c>
+      <c r="AZ108">
+        <v>9</v>
+      </c>
+      <c r="BA108">
+        <v>8</v>
+      </c>
+      <c r="BB108">
+        <v>8</v>
+      </c>
+      <c r="BC108">
+        <v>16</v>
+      </c>
+      <c r="BD108">
+        <v>1.83</v>
+      </c>
+      <c r="BE108">
+        <v>8</v>
+      </c>
+      <c r="BF108">
+        <v>2.2</v>
+      </c>
+      <c r="BG108">
+        <v>1.14</v>
+      </c>
+      <c r="BH108">
+        <v>4.2</v>
+      </c>
+      <c r="BI108">
+        <v>1.37</v>
+      </c>
+      <c r="BJ108">
+        <v>2.85</v>
+      </c>
+      <c r="BK108">
+        <v>1.63</v>
+      </c>
+      <c r="BL108">
+        <v>2.14</v>
+      </c>
+      <c r="BM108">
+        <v>2.01</v>
+      </c>
+      <c r="BN108">
+        <v>1.71</v>
+      </c>
+      <c r="BO108">
+        <v>2.58</v>
+      </c>
+      <c r="BP108">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7502706</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45627.52083333334</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s">
+        <v>80</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>158</v>
+      </c>
+      <c r="P109" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q109">
+        <v>2.29</v>
+      </c>
+      <c r="R109">
+        <v>2.23</v>
+      </c>
+      <c r="S109">
+        <v>4.55</v>
+      </c>
+      <c r="T109">
+        <v>1.34</v>
+      </c>
+      <c r="U109">
+        <v>3.1</v>
+      </c>
+      <c r="V109">
+        <v>2.6</v>
+      </c>
+      <c r="W109">
+        <v>1.46</v>
+      </c>
+      <c r="X109">
+        <v>6.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.09</v>
+      </c>
+      <c r="Z109">
+        <v>1.74</v>
+      </c>
+      <c r="AA109">
+        <v>3.31</v>
+      </c>
+      <c r="AB109">
+        <v>3.69</v>
+      </c>
+      <c r="AC109">
+        <v>1.01</v>
+      </c>
+      <c r="AD109">
+        <v>11</v>
+      </c>
+      <c r="AE109">
+        <v>1.18</v>
+      </c>
+      <c r="AF109">
+        <v>3.66</v>
+      </c>
+      <c r="AG109">
+        <v>1.73</v>
+      </c>
+      <c r="AH109">
+        <v>2</v>
+      </c>
+      <c r="AI109">
+        <v>1.69</v>
+      </c>
+      <c r="AJ109">
+        <v>2.04</v>
+      </c>
+      <c r="AK109">
+        <v>1.21</v>
+      </c>
+      <c r="AL109">
+        <v>1.25</v>
+      </c>
+      <c r="AM109">
+        <v>1.99</v>
+      </c>
+      <c r="AN109">
+        <v>1.2</v>
+      </c>
+      <c r="AO109">
+        <v>0.4</v>
+      </c>
+      <c r="AP109">
+        <v>1.5</v>
+      </c>
+      <c r="AQ109">
+        <v>0.33</v>
+      </c>
+      <c r="AR109">
+        <v>1.09</v>
+      </c>
+      <c r="AS109">
+        <v>1.17</v>
+      </c>
+      <c r="AT109">
+        <v>2.26</v>
+      </c>
+      <c r="AU109">
+        <v>3</v>
+      </c>
+      <c r="AV109">
+        <v>2</v>
+      </c>
+      <c r="AW109">
+        <v>0</v>
+      </c>
+      <c r="AX109">
+        <v>0</v>
+      </c>
+      <c r="AY109">
+        <v>3</v>
+      </c>
+      <c r="AZ109">
+        <v>2</v>
+      </c>
+      <c r="BA109">
+        <v>5</v>
+      </c>
+      <c r="BB109">
+        <v>2</v>
+      </c>
+      <c r="BC109">
+        <v>7</v>
+      </c>
+      <c r="BD109">
+        <v>1.51</v>
+      </c>
+      <c r="BE109">
+        <v>9</v>
+      </c>
+      <c r="BF109">
+        <v>3.06</v>
+      </c>
+      <c r="BG109">
+        <v>1.12</v>
+      </c>
+      <c r="BH109">
+        <v>4.45</v>
+      </c>
+      <c r="BI109">
+        <v>1.33</v>
+      </c>
+      <c r="BJ109">
+        <v>3.05</v>
+      </c>
+      <c r="BK109">
+        <v>1.56</v>
+      </c>
+      <c r="BL109">
+        <v>2.27</v>
+      </c>
+      <c r="BM109">
+        <v>2</v>
+      </c>
+      <c r="BN109">
+        <v>1.8</v>
+      </c>
+      <c r="BO109">
+        <v>2.43</v>
+      </c>
+      <c r="BP109">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7502705</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45627.52083333334</v>
+      </c>
+      <c r="F110">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>70</v>
+      </c>
+      <c r="H110" t="s">
+        <v>86</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>117</v>
+      </c>
+      <c r="P110" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q110">
+        <v>2.56</v>
+      </c>
+      <c r="R110">
+        <v>2.09</v>
+      </c>
+      <c r="S110">
+        <v>4.25</v>
+      </c>
+      <c r="T110">
+        <v>1.44</v>
+      </c>
+      <c r="U110">
+        <v>2.67</v>
+      </c>
+      <c r="V110">
+        <v>2.94</v>
+      </c>
+      <c r="W110">
+        <v>1.37</v>
+      </c>
+      <c r="X110">
+        <v>7.2</v>
+      </c>
+      <c r="Y110">
+        <v>1.08</v>
+      </c>
+      <c r="Z110">
+        <v>1.94</v>
+      </c>
+      <c r="AA110">
+        <v>3.01</v>
+      </c>
+      <c r="AB110">
+        <v>3.32</v>
+      </c>
+      <c r="AC110">
+        <v>1.03</v>
+      </c>
+      <c r="AD110">
+        <v>6.8</v>
+      </c>
+      <c r="AE110">
+        <v>1.31</v>
+      </c>
+      <c r="AF110">
+        <v>2.82</v>
+      </c>
+      <c r="AG110">
+        <v>2.06</v>
+      </c>
+      <c r="AH110">
+        <v>1.76</v>
+      </c>
+      <c r="AI110">
+        <v>1.84</v>
+      </c>
+      <c r="AJ110">
+        <v>1.86</v>
+      </c>
+      <c r="AK110">
+        <v>1.27</v>
+      </c>
+      <c r="AL110">
+        <v>1.29</v>
+      </c>
+      <c r="AM110">
+        <v>1.75</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
+        <v>2</v>
+      </c>
+      <c r="AP110">
+        <v>1</v>
+      </c>
+      <c r="AQ110">
+        <v>1.83</v>
+      </c>
+      <c r="AR110">
+        <v>1.51</v>
+      </c>
+      <c r="AS110">
+        <v>1.48</v>
+      </c>
+      <c r="AT110">
+        <v>2.99</v>
+      </c>
+      <c r="AU110">
+        <v>4</v>
+      </c>
+      <c r="AV110">
+        <v>3</v>
+      </c>
+      <c r="AW110">
+        <v>13</v>
+      </c>
+      <c r="AX110">
+        <v>3</v>
+      </c>
+      <c r="AY110">
+        <v>17</v>
+      </c>
+      <c r="AZ110">
+        <v>6</v>
+      </c>
+      <c r="BA110">
+        <v>8</v>
+      </c>
+      <c r="BB110">
+        <v>2</v>
+      </c>
+      <c r="BC110">
+        <v>10</v>
+      </c>
+      <c r="BD110">
+        <v>1.64</v>
+      </c>
+      <c r="BE110">
+        <v>8.5</v>
+      </c>
+      <c r="BF110">
+        <v>2.66</v>
+      </c>
+      <c r="BG110">
+        <v>1.13</v>
+      </c>
+      <c r="BH110">
+        <v>4.25</v>
+      </c>
+      <c r="BI110">
+        <v>1.36</v>
+      </c>
+      <c r="BJ110">
+        <v>2.88</v>
+      </c>
+      <c r="BK110">
+        <v>1.62</v>
+      </c>
+      <c r="BL110">
+        <v>2.16</v>
+      </c>
+      <c r="BM110">
+        <v>2</v>
+      </c>
+      <c r="BN110">
+        <v>1.72</v>
+      </c>
+      <c r="BO110">
+        <v>2.57</v>
+      </c>
+      <c r="BP110">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -661,10 +661,10 @@
     <t>['28', '86']</t>
   </si>
   <si>
-    <t>['11', '86']</t>
+    <t>['42', '49']</t>
   </si>
   <si>
-    <t>['42', '49']</t>
+    <t>['11', '86']</t>
   </si>
   <si>
     <t>['11', '84']</t>
@@ -21990,22 +21990,22 @@
         <v>2.84</v>
       </c>
       <c r="AU102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV102">
         <v>5</v>
       </c>
       <c r="AW102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX102">
         <v>8</v>
       </c>
       <c r="AY102">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ102">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA102">
         <v>3</v>
@@ -22061,7 +22061,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7502704</v>
+        <v>7502711</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -22070,16 +22070,16 @@
         <v>69</v>
       </c>
       <c r="E103" s="2">
-        <v>45625.875</v>
+        <v>45626.33333333334</v>
       </c>
       <c r="F103">
         <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H103" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -22100,64 +22100,64 @@
         <v>3</v>
       </c>
       <c r="O103" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="P103" t="s">
         <v>215</v>
       </c>
       <c r="Q103">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S103">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T103">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="U103">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="V103">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="W103">
+        <v>1.35</v>
+      </c>
+      <c r="X103">
+        <v>7.4</v>
+      </c>
+      <c r="Y103">
+        <v>1.06</v>
+      </c>
+      <c r="Z103">
+        <v>1.97</v>
+      </c>
+      <c r="AA103">
+        <v>3.35</v>
+      </c>
+      <c r="AB103">
+        <v>3.4</v>
+      </c>
+      <c r="AC103">
+        <v>1.01</v>
+      </c>
+      <c r="AD103">
+        <v>8</v>
+      </c>
+      <c r="AE103">
         <v>1.33</v>
       </c>
-      <c r="X103">
-        <v>7.9</v>
-      </c>
-      <c r="Y103">
-        <v>1.05</v>
-      </c>
-      <c r="Z103">
-        <v>2.6</v>
-      </c>
-      <c r="AA103">
-        <v>3.2</v>
-      </c>
-      <c r="AB103">
-        <v>2.4</v>
-      </c>
-      <c r="AC103">
-        <v>1.02</v>
-      </c>
-      <c r="AD103">
-        <v>7.3</v>
-      </c>
-      <c r="AE103">
-        <v>1.36</v>
-      </c>
       <c r="AF103">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="AG103">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AH103">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="AI103">
         <v>1.83</v>
@@ -22166,100 +22166,100 @@
         <v>1.9</v>
       </c>
       <c r="AK103">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="AL103">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM103">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="AN103">
+        <v>0.67</v>
+      </c>
+      <c r="AO103">
         <v>0.8</v>
       </c>
-      <c r="AO103">
-        <v>1.67</v>
-      </c>
       <c r="AP103">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ103">
-        <v>1.86</v>
+        <v>1.17</v>
       </c>
       <c r="AR103">
-        <v>1.39</v>
+        <v>1.71</v>
       </c>
       <c r="AS103">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AT103">
-        <v>2.67</v>
+        <v>3.17</v>
       </c>
       <c r="AU103">
         <v>5</v>
       </c>
       <c r="AV103">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW103">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX103">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY103">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ103">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="BA103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB103">
         <v>7</v>
       </c>
       <c r="BC103">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD103">
-        <v>2.43</v>
+        <v>1.51</v>
       </c>
       <c r="BE103">
         <v>8.5</v>
       </c>
       <c r="BF103">
-        <v>1.75</v>
+        <v>3.07</v>
       </c>
       <c r="BG103">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="BH103">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="BI103">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="BJ103">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="BK103">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="BL103">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="BM103">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="BN103">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BO103">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="BP103">
-        <v>1.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:68">
@@ -22267,7 +22267,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7502711</v>
+        <v>7502708</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -22276,130 +22276,130 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45626.33333333334</v>
+        <v>45626.45833333334</v>
       </c>
       <c r="F104">
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H104" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L104">
         <v>1</v>
       </c>
       <c r="M104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O104" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="Q104">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="R104">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
+        <v>4.5</v>
+      </c>
+      <c r="T104">
+        <v>1.51</v>
+      </c>
+      <c r="U104">
+        <v>2.4</v>
+      </c>
+      <c r="V104">
+        <v>3.25</v>
+      </c>
+      <c r="W104">
+        <v>1.3</v>
+      </c>
+      <c r="X104">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y104">
+        <v>1.04</v>
+      </c>
+      <c r="Z104">
+        <v>1.91</v>
+      </c>
+      <c r="AA104">
+        <v>2.87</v>
+      </c>
+      <c r="AB104">
         <v>4</v>
       </c>
-      <c r="T104">
-        <v>1.41</v>
-      </c>
-      <c r="U104">
-        <v>2.7</v>
-      </c>
-      <c r="V104">
-        <v>2.95</v>
-      </c>
-      <c r="W104">
-        <v>1.35</v>
-      </c>
-      <c r="X104">
-        <v>7.4</v>
-      </c>
-      <c r="Y104">
-        <v>1.06</v>
-      </c>
-      <c r="Z104">
-        <v>1.97</v>
-      </c>
-      <c r="AA104">
-        <v>3.35</v>
-      </c>
-      <c r="AB104">
-        <v>3.4</v>
-      </c>
       <c r="AC104">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD104">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE104">
+        <v>1.4</v>
+      </c>
+      <c r="AF104">
+        <v>2.8</v>
+      </c>
+      <c r="AG104">
+        <v>2.2</v>
+      </c>
+      <c r="AH104">
+        <v>1.55</v>
+      </c>
+      <c r="AI104">
+        <v>1.95</v>
+      </c>
+      <c r="AJ104">
+        <v>1.78</v>
+      </c>
+      <c r="AK104">
+        <v>1.22</v>
+      </c>
+      <c r="AL104">
+        <v>1.28</v>
+      </c>
+      <c r="AM104">
+        <v>1.78</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
+        <v>1</v>
+      </c>
+      <c r="AP104">
         <v>1.33</v>
       </c>
-      <c r="AF104">
-        <v>3.1</v>
-      </c>
-      <c r="AG104">
-        <v>1.98</v>
-      </c>
-      <c r="AH104">
-        <v>1.72</v>
-      </c>
-      <c r="AI104">
-        <v>1.83</v>
-      </c>
-      <c r="AJ104">
-        <v>1.9</v>
-      </c>
-      <c r="AK104">
-        <v>1.28</v>
-      </c>
-      <c r="AL104">
-        <v>1.25</v>
-      </c>
-      <c r="AM104">
-        <v>1.8</v>
-      </c>
-      <c r="AN104">
-        <v>0.67</v>
-      </c>
-      <c r="AO104">
-        <v>0.8</v>
-      </c>
-      <c r="AP104">
-        <v>0.57</v>
-      </c>
       <c r="AQ104">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AR104">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="AS104">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AT104">
-        <v>3.17</v>
+        <v>2.96</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22408,64 +22408,64 @@
         <v>4</v>
       </c>
       <c r="AW104">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX104">
         <v>4</v>
       </c>
       <c r="AY104">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ104">
         <v>8</v>
       </c>
       <c r="BA104">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB104">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC104">
         <v>11</v>
       </c>
       <c r="BD104">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="BE104">
         <v>8.5</v>
       </c>
       <c r="BF104">
-        <v>3.07</v>
+        <v>2.91</v>
       </c>
       <c r="BG104">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BH104">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="BI104">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="BJ104">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="BK104">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BL104">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BM104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN104">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BO104">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="BP104">
-        <v>0</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="105" spans="1:68">
@@ -22473,7 +22473,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7502708</v>
+        <v>7502704</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22482,196 +22482,196 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45626.45833333334</v>
+        <v>45626.52083333334</v>
       </c>
       <c r="F105">
         <v>12</v>
       </c>
       <c r="G105" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L105">
         <v>1</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O105" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="Q105">
-        <v>2.65</v>
+        <v>3.3</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S105">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="T105">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="U105">
+        <v>2.5</v>
+      </c>
+      <c r="V105">
+        <v>3.05</v>
+      </c>
+      <c r="W105">
+        <v>1.33</v>
+      </c>
+      <c r="X105">
+        <v>7.9</v>
+      </c>
+      <c r="Y105">
+        <v>1.05</v>
+      </c>
+      <c r="Z105">
+        <v>2.6</v>
+      </c>
+      <c r="AA105">
+        <v>3.2</v>
+      </c>
+      <c r="AB105">
         <v>2.4</v>
-      </c>
-      <c r="V105">
-        <v>3.25</v>
-      </c>
-      <c r="W105">
-        <v>1.3</v>
-      </c>
-      <c r="X105">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="Y105">
-        <v>1.04</v>
-      </c>
-      <c r="Z105">
-        <v>1.91</v>
-      </c>
-      <c r="AA105">
-        <v>2.87</v>
-      </c>
-      <c r="AB105">
-        <v>4</v>
       </c>
       <c r="AC105">
         <v>1.02</v>
       </c>
       <c r="AD105">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE105">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AF105">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="AG105">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AH105">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AI105">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AJ105">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AK105">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="AL105">
         <v>1.28</v>
       </c>
       <c r="AM105">
-        <v>1.78</v>
+        <v>1.45</v>
       </c>
       <c r="AN105">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AO105">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AQ105">
-        <v>0.83</v>
+        <v>1.86</v>
       </c>
       <c r="AR105">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AS105">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="AT105">
-        <v>2.96</v>
+        <v>2.67</v>
       </c>
       <c r="AU105">
         <v>5</v>
       </c>
       <c r="AV105">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW105">
+        <v>5</v>
+      </c>
+      <c r="AX105">
+        <v>10</v>
+      </c>
+      <c r="AY105">
+        <v>10</v>
+      </c>
+      <c r="AZ105">
+        <v>17</v>
+      </c>
+      <c r="BA105">
+        <v>2</v>
+      </c>
+      <c r="BB105">
+        <v>7</v>
+      </c>
+      <c r="BC105">
         <v>9</v>
       </c>
-      <c r="AX105">
-        <v>4</v>
-      </c>
-      <c r="AY105">
-        <v>14</v>
-      </c>
-      <c r="AZ105">
-        <v>8</v>
-      </c>
-      <c r="BA105">
-        <v>8</v>
-      </c>
-      <c r="BB105">
-        <v>3</v>
-      </c>
-      <c r="BC105">
-        <v>11</v>
-      </c>
       <c r="BD105">
-        <v>1.55</v>
+        <v>2.43</v>
       </c>
       <c r="BE105">
         <v>8.5</v>
       </c>
       <c r="BF105">
-        <v>2.91</v>
+        <v>1.75</v>
       </c>
       <c r="BG105">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="BH105">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="BI105">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="BJ105">
-        <v>3.22</v>
+        <v>3.35</v>
       </c>
       <c r="BK105">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="BL105">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="BM105">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BN105">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="BO105">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="BP105">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="106" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -22620,10 +22620,10 @@
         <v>10</v>
       </c>
       <c r="AY105">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ105">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA105">
         <v>2</v>
@@ -22826,10 +22826,10 @@
         <v>8</v>
       </c>
       <c r="AY106">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ106">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA106">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,12 @@
     <t>['36', '90+3']</t>
   </si>
   <si>
+    <t>['40', '49', '79']</t>
+  </si>
+  <si>
+    <t>['51', '57']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -677,6 +683,12 @@
   </si>
   <si>
     <t>['19']</t>
+  </si>
+  <si>
+    <t>['2', '18', '22', '73', '89']</t>
+  </si>
+  <si>
+    <t>['10', '70']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1309,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1503,7 +1515,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1709,7 +1721,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1787,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1.83</v>
@@ -2121,7 +2133,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2327,7 +2339,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2405,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ7">
         <v>0.83</v>
@@ -2739,7 +2751,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3151,7 +3163,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3232,7 +3244,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3563,7 +3575,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3644,7 +3656,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3769,7 +3781,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3975,7 +3987,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4053,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ15">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4181,7 +4193,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4262,7 +4274,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ16">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4671,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ18">
         <v>1.17</v>
@@ -4799,7 +4811,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5005,7 +5017,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5495,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ22">
         <v>0.33</v>
@@ -5623,7 +5635,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5701,7 +5713,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>1.17</v>
@@ -6035,7 +6047,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6447,7 +6459,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6731,7 +6743,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ28">
         <v>1.29</v>
@@ -6859,7 +6871,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6940,7 +6952,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR29">
         <v>1.08</v>
@@ -7065,7 +7077,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7352,7 +7364,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ31">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>1.31</v>
@@ -7477,7 +7489,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7683,7 +7695,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7889,7 +7901,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7967,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ34">
         <v>1.83</v>
@@ -8095,7 +8107,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8176,7 +8188,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ35">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR35">
         <v>1.95</v>
@@ -8301,7 +8313,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8588,7 +8600,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR37">
         <v>0.82</v>
@@ -8713,7 +8725,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8791,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -8919,7 +8931,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9206,7 +9218,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -9331,7 +9343,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9537,7 +9549,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9949,7 +9961,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10027,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ44">
         <v>0.33</v>
@@ -10155,7 +10167,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10233,7 +10245,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.29</v>
@@ -10439,7 +10451,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ46">
         <v>1.17</v>
@@ -10567,7 +10579,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10773,7 +10785,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10979,7 +10991,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11060,7 +11072,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ49">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR49">
         <v>1.23</v>
@@ -11185,7 +11197,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11266,7 +11278,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ50">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR50">
         <v>1.2</v>
@@ -11391,7 +11403,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11472,7 +11484,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>1.12</v>
@@ -12009,7 +12021,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12421,7 +12433,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12499,7 +12511,7 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12627,7 +12639,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12708,7 +12720,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ57">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -13039,7 +13051,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13323,7 +13335,7 @@
         <v>0.67</v>
       </c>
       <c r="AP60">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13529,7 +13541,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ61">
         <v>1.29</v>
@@ -13738,7 +13750,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ62">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR62">
         <v>1.41</v>
@@ -14147,7 +14159,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ64">
         <v>1.86</v>
@@ -14275,7 +14287,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14356,7 +14368,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ65">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.18</v>
@@ -14687,7 +14699,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14768,7 +14780,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR67">
         <v>1.38</v>
@@ -14893,7 +14905,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15923,7 +15935,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16004,7 +16016,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ73">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR73">
         <v>1.18</v>
@@ -16129,7 +16141,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16335,7 +16347,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16413,7 +16425,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16541,7 +16553,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16619,7 +16631,7 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ76">
         <v>2</v>
@@ -16825,7 +16837,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -16953,7 +16965,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17237,7 +17249,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>0.5</v>
@@ -17365,7 +17377,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17446,7 +17458,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ80">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR80">
         <v>1.09</v>
@@ -17983,7 +17995,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18064,7 +18076,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR83">
         <v>1.45</v>
@@ -18395,7 +18407,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q85">
         <v>2.67</v>
@@ -18601,7 +18613,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19013,7 +19025,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19425,7 +19437,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19631,7 +19643,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -19712,7 +19724,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ91">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.19</v>
@@ -19837,7 +19849,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20043,7 +20055,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20124,7 +20136,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ93">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR93">
         <v>1.22</v>
@@ -20249,7 +20261,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20327,7 +20339,7 @@
         <v>2.2</v>
       </c>
       <c r="AP94">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ94">
         <v>2</v>
@@ -20455,7 +20467,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q95">
         <v>2.61</v>
@@ -20739,7 +20751,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
         <v>1.43</v>
@@ -20867,7 +20879,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -20945,7 +20957,7 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21073,7 +21085,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21151,10 +21163,10 @@
         <v>1.4</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ98">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR98">
         <v>1.44</v>
@@ -21279,7 +21291,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -21563,7 +21575,7 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ100">
         <v>1.43</v>
@@ -22103,7 +22115,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22515,7 +22527,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -22721,7 +22733,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -22927,7 +22939,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23133,7 +23145,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q108">
         <v>2.66</v>
@@ -23339,7 +23351,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -23545,7 +23557,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q110">
         <v>2.56</v>
@@ -23702,6 +23714,830 @@
       </c>
       <c r="BP110">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7502719</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45633.33333333334</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>83</v>
+      </c>
+      <c r="H111" t="s">
+        <v>74</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>159</v>
+      </c>
+      <c r="P111" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q111">
+        <v>3.1</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>3.5</v>
+      </c>
+      <c r="T111">
+        <v>1.47</v>
+      </c>
+      <c r="U111">
+        <v>2.5</v>
+      </c>
+      <c r="V111">
+        <v>3.05</v>
+      </c>
+      <c r="W111">
+        <v>1.33</v>
+      </c>
+      <c r="X111">
+        <v>7.9</v>
+      </c>
+      <c r="Y111">
+        <v>1.05</v>
+      </c>
+      <c r="Z111">
+        <v>2.38</v>
+      </c>
+      <c r="AA111">
+        <v>3</v>
+      </c>
+      <c r="AB111">
+        <v>2.8</v>
+      </c>
+      <c r="AC111">
+        <v>1.01</v>
+      </c>
+      <c r="AD111">
+        <v>8.1</v>
+      </c>
+      <c r="AE111">
+        <v>1.36</v>
+      </c>
+      <c r="AF111">
+        <v>2.95</v>
+      </c>
+      <c r="AG111">
+        <v>2.03</v>
+      </c>
+      <c r="AH111">
+        <v>1.7</v>
+      </c>
+      <c r="AI111">
+        <v>1.83</v>
+      </c>
+      <c r="AJ111">
+        <v>1.9</v>
+      </c>
+      <c r="AK111">
+        <v>1.4</v>
+      </c>
+      <c r="AL111">
+        <v>1.28</v>
+      </c>
+      <c r="AM111">
+        <v>1.53</v>
+      </c>
+      <c r="AN111">
+        <v>1.43</v>
+      </c>
+      <c r="AO111">
+        <v>2.6</v>
+      </c>
+      <c r="AP111">
+        <v>1.63</v>
+      </c>
+      <c r="AQ111">
+        <v>2.17</v>
+      </c>
+      <c r="AR111">
+        <v>1.61</v>
+      </c>
+      <c r="AS111">
+        <v>1.4</v>
+      </c>
+      <c r="AT111">
+        <v>3.01</v>
+      </c>
+      <c r="AU111">
+        <v>9</v>
+      </c>
+      <c r="AV111">
+        <v>4</v>
+      </c>
+      <c r="AW111">
+        <v>5</v>
+      </c>
+      <c r="AX111">
+        <v>7</v>
+      </c>
+      <c r="AY111">
+        <v>14</v>
+      </c>
+      <c r="AZ111">
+        <v>11</v>
+      </c>
+      <c r="BA111">
+        <v>4</v>
+      </c>
+      <c r="BB111">
+        <v>4</v>
+      </c>
+      <c r="BC111">
+        <v>8</v>
+      </c>
+      <c r="BD111">
+        <v>1.78</v>
+      </c>
+      <c r="BE111">
+        <v>6.65</v>
+      </c>
+      <c r="BF111">
+        <v>2.54</v>
+      </c>
+      <c r="BG111">
+        <v>1.13</v>
+      </c>
+      <c r="BH111">
+        <v>4.3</v>
+      </c>
+      <c r="BI111">
+        <v>1.28</v>
+      </c>
+      <c r="BJ111">
+        <v>2.94</v>
+      </c>
+      <c r="BK111">
+        <v>1.54</v>
+      </c>
+      <c r="BL111">
+        <v>2.19</v>
+      </c>
+      <c r="BM111">
+        <v>2</v>
+      </c>
+      <c r="BN111">
+        <v>1.8</v>
+      </c>
+      <c r="BO111">
+        <v>2.46</v>
+      </c>
+      <c r="BP111">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7502712</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45633.45833333334</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>75</v>
+      </c>
+      <c r="H112" t="s">
+        <v>73</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>136</v>
+      </c>
+      <c r="P112" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q112">
+        <v>3.3</v>
+      </c>
+      <c r="R112">
+        <v>1.95</v>
+      </c>
+      <c r="S112">
+        <v>3.3</v>
+      </c>
+      <c r="T112">
+        <v>1.51</v>
+      </c>
+      <c r="U112">
+        <v>2.4</v>
+      </c>
+      <c r="V112">
+        <v>3.25</v>
+      </c>
+      <c r="W112">
+        <v>1.3</v>
+      </c>
+      <c r="X112">
+        <v>8.9</v>
+      </c>
+      <c r="Y112">
+        <v>1.04</v>
+      </c>
+      <c r="Z112">
+        <v>2.75</v>
+      </c>
+      <c r="AA112">
+        <v>2.8</v>
+      </c>
+      <c r="AB112">
+        <v>2.75</v>
+      </c>
+      <c r="AC112">
+        <v>1.05</v>
+      </c>
+      <c r="AD112">
+        <v>6</v>
+      </c>
+      <c r="AE112">
+        <v>1.42</v>
+      </c>
+      <c r="AF112">
+        <v>2.75</v>
+      </c>
+      <c r="AG112">
+        <v>2.25</v>
+      </c>
+      <c r="AH112">
+        <v>1.57</v>
+      </c>
+      <c r="AI112">
+        <v>1.9</v>
+      </c>
+      <c r="AJ112">
+        <v>1.83</v>
+      </c>
+      <c r="AK112">
+        <v>1.45</v>
+      </c>
+      <c r="AL112">
+        <v>1.3</v>
+      </c>
+      <c r="AM112">
+        <v>1.45</v>
+      </c>
+      <c r="AN112">
+        <v>2</v>
+      </c>
+      <c r="AO112">
+        <v>1.83</v>
+      </c>
+      <c r="AP112">
+        <v>2.14</v>
+      </c>
+      <c r="AQ112">
+        <v>1.57</v>
+      </c>
+      <c r="AR112">
+        <v>1.41</v>
+      </c>
+      <c r="AS112">
+        <v>1.22</v>
+      </c>
+      <c r="AT112">
+        <v>2.63</v>
+      </c>
+      <c r="AU112">
+        <v>2</v>
+      </c>
+      <c r="AV112">
+        <v>4</v>
+      </c>
+      <c r="AW112">
+        <v>2</v>
+      </c>
+      <c r="AX112">
+        <v>2</v>
+      </c>
+      <c r="AY112">
+        <v>4</v>
+      </c>
+      <c r="AZ112">
+        <v>6</v>
+      </c>
+      <c r="BA112">
+        <v>2</v>
+      </c>
+      <c r="BB112">
+        <v>3</v>
+      </c>
+      <c r="BC112">
+        <v>5</v>
+      </c>
+      <c r="BD112">
+        <v>1.85</v>
+      </c>
+      <c r="BE112">
+        <v>6.65</v>
+      </c>
+      <c r="BF112">
+        <v>2.41</v>
+      </c>
+      <c r="BG112">
+        <v>1.12</v>
+      </c>
+      <c r="BH112">
+        <v>4.4</v>
+      </c>
+      <c r="BI112">
+        <v>1.28</v>
+      </c>
+      <c r="BJ112">
+        <v>2.97</v>
+      </c>
+      <c r="BK112">
+        <v>1.53</v>
+      </c>
+      <c r="BL112">
+        <v>2.21</v>
+      </c>
+      <c r="BM112">
+        <v>1.9</v>
+      </c>
+      <c r="BN112">
+        <v>1.9</v>
+      </c>
+      <c r="BO112">
+        <v>2.43</v>
+      </c>
+      <c r="BP112">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7502716</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45633.45833333334</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>86</v>
+      </c>
+      <c r="H113" t="s">
+        <v>77</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>3</v>
+      </c>
+      <c r="K113">
+        <v>3</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>5</v>
+      </c>
+      <c r="N113">
+        <v>5</v>
+      </c>
+      <c r="O113" t="s">
+        <v>89</v>
+      </c>
+      <c r="P113" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q113">
+        <v>2.83</v>
+      </c>
+      <c r="R113">
+        <v>2.09</v>
+      </c>
+      <c r="S113">
+        <v>3.66</v>
+      </c>
+      <c r="T113">
+        <v>1.42</v>
+      </c>
+      <c r="U113">
+        <v>2.74</v>
+      </c>
+      <c r="V113">
+        <v>2.9</v>
+      </c>
+      <c r="W113">
+        <v>1.38</v>
+      </c>
+      <c r="X113">
+        <v>6.95</v>
+      </c>
+      <c r="Y113">
+        <v>1.08</v>
+      </c>
+      <c r="Z113">
+        <v>2.25</v>
+      </c>
+      <c r="AA113">
+        <v>3.2</v>
+      </c>
+      <c r="AB113">
+        <v>3.1</v>
+      </c>
+      <c r="AC113">
+        <v>1.03</v>
+      </c>
+      <c r="AD113">
+        <v>6.95</v>
+      </c>
+      <c r="AE113">
+        <v>1.29</v>
+      </c>
+      <c r="AF113">
+        <v>2.92</v>
+      </c>
+      <c r="AG113">
+        <v>2.05</v>
+      </c>
+      <c r="AH113">
+        <v>1.8</v>
+      </c>
+      <c r="AI113">
+        <v>1.78</v>
+      </c>
+      <c r="AJ113">
+        <v>1.93</v>
+      </c>
+      <c r="AK113">
+        <v>1.36</v>
+      </c>
+      <c r="AL113">
+        <v>1.3</v>
+      </c>
+      <c r="AM113">
+        <v>1.59</v>
+      </c>
+      <c r="AN113">
+        <v>2.17</v>
+      </c>
+      <c r="AO113">
+        <v>1.17</v>
+      </c>
+      <c r="AP113">
+        <v>1.86</v>
+      </c>
+      <c r="AQ113">
+        <v>1.43</v>
+      </c>
+      <c r="AR113">
+        <v>1.52</v>
+      </c>
+      <c r="AS113">
+        <v>1.52</v>
+      </c>
+      <c r="AT113">
+        <v>3.04</v>
+      </c>
+      <c r="AU113">
+        <v>3</v>
+      </c>
+      <c r="AV113">
+        <v>6</v>
+      </c>
+      <c r="AW113">
+        <v>9</v>
+      </c>
+      <c r="AX113">
+        <v>2</v>
+      </c>
+      <c r="AY113">
+        <v>12</v>
+      </c>
+      <c r="AZ113">
+        <v>8</v>
+      </c>
+      <c r="BA113">
+        <v>6</v>
+      </c>
+      <c r="BB113">
+        <v>4</v>
+      </c>
+      <c r="BC113">
+        <v>10</v>
+      </c>
+      <c r="BD113">
+        <v>1.62</v>
+      </c>
+      <c r="BE113">
+        <v>7.2</v>
+      </c>
+      <c r="BF113">
+        <v>2.65</v>
+      </c>
+      <c r="BG113">
+        <v>1.16</v>
+      </c>
+      <c r="BH113">
+        <v>3.94</v>
+      </c>
+      <c r="BI113">
+        <v>1.33</v>
+      </c>
+      <c r="BJ113">
+        <v>2.73</v>
+      </c>
+      <c r="BK113">
+        <v>1.62</v>
+      </c>
+      <c r="BL113">
+        <v>2.06</v>
+      </c>
+      <c r="BM113">
+        <v>2.07</v>
+      </c>
+      <c r="BN113">
+        <v>1.67</v>
+      </c>
+      <c r="BO113">
+        <v>2.66</v>
+      </c>
+      <c r="BP113">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7502715</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45633.52083333334</v>
+      </c>
+      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>72</v>
+      </c>
+      <c r="H114" t="s">
+        <v>78</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114" t="s">
+        <v>160</v>
+      </c>
+      <c r="P114" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q114">
+        <v>3</v>
+      </c>
+      <c r="R114">
+        <v>1.95</v>
+      </c>
+      <c r="S114">
+        <v>3.75</v>
+      </c>
+      <c r="T114">
+        <v>1.49</v>
+      </c>
+      <c r="U114">
+        <v>2.45</v>
+      </c>
+      <c r="V114">
+        <v>3.25</v>
+      </c>
+      <c r="W114">
+        <v>1.3</v>
+      </c>
+      <c r="X114">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y114">
+        <v>1.04</v>
+      </c>
+      <c r="Z114">
+        <v>2.4</v>
+      </c>
+      <c r="AA114">
+        <v>3</v>
+      </c>
+      <c r="AB114">
+        <v>2.8</v>
+      </c>
+      <c r="AC114">
+        <v>1.05</v>
+      </c>
+      <c r="AD114">
+        <v>6.15</v>
+      </c>
+      <c r="AE114">
+        <v>1.4</v>
+      </c>
+      <c r="AF114">
+        <v>2.8</v>
+      </c>
+      <c r="AG114">
+        <v>2.23</v>
+      </c>
+      <c r="AH114">
+        <v>1.58</v>
+      </c>
+      <c r="AI114">
+        <v>1.9</v>
+      </c>
+      <c r="AJ114">
+        <v>1.83</v>
+      </c>
+      <c r="AK114">
+        <v>1.36</v>
+      </c>
+      <c r="AL114">
+        <v>1.28</v>
+      </c>
+      <c r="AM114">
+        <v>1.57</v>
+      </c>
+      <c r="AN114">
+        <v>2.17</v>
+      </c>
+      <c r="AO114">
+        <v>1.6</v>
+      </c>
+      <c r="AP114">
+        <v>2</v>
+      </c>
+      <c r="AQ114">
+        <v>1.5</v>
+      </c>
+      <c r="AR114">
+        <v>1.37</v>
+      </c>
+      <c r="AS114">
+        <v>1.34</v>
+      </c>
+      <c r="AT114">
+        <v>2.71</v>
+      </c>
+      <c r="AU114">
+        <v>3</v>
+      </c>
+      <c r="AV114">
+        <v>4</v>
+      </c>
+      <c r="AW114">
+        <v>4</v>
+      </c>
+      <c r="AX114">
+        <v>6</v>
+      </c>
+      <c r="AY114">
+        <v>7</v>
+      </c>
+      <c r="AZ114">
+        <v>10</v>
+      </c>
+      <c r="BA114">
+        <v>2</v>
+      </c>
+      <c r="BB114">
+        <v>4</v>
+      </c>
+      <c r="BC114">
+        <v>6</v>
+      </c>
+      <c r="BD114">
+        <v>1.78</v>
+      </c>
+      <c r="BE114">
+        <v>7</v>
+      </c>
+      <c r="BF114">
+        <v>2.35</v>
+      </c>
+      <c r="BG114">
+        <v>1.17</v>
+      </c>
+      <c r="BH114">
+        <v>3.78</v>
+      </c>
+      <c r="BI114">
+        <v>1.37</v>
+      </c>
+      <c r="BJ114">
+        <v>2.66</v>
+      </c>
+      <c r="BK114">
+        <v>1.69</v>
+      </c>
+      <c r="BL114">
+        <v>2.04</v>
+      </c>
+      <c r="BM114">
+        <v>2.08</v>
+      </c>
+      <c r="BN114">
+        <v>1.6</v>
+      </c>
+      <c r="BO114">
+        <v>2.73</v>
+      </c>
+      <c r="BP114">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,15 @@
     <t>['51', '57']</t>
   </si>
   <si>
+    <t>['45+9']</t>
+  </si>
+  <si>
+    <t>['2', '72']</t>
+  </si>
+  <si>
+    <t>['5', '39']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -689,6 +698,15 @@
   </si>
   <si>
     <t>['10', '70']</t>
+  </si>
+  <si>
+    <t>['5', '16', '45+1', '73']</t>
+  </si>
+  <si>
+    <t>['41', '67', '90+2']</t>
+  </si>
+  <si>
+    <t>['78']</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1309,7 +1327,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1390,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1515,7 +1533,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1593,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ3">
         <v>1.17</v>
@@ -1721,7 +1739,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2133,7 +2151,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2339,7 +2357,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2626,7 +2644,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2751,7 +2769,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3038,7 +3056,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3163,7 +3181,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3447,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3575,7 +3593,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3781,7 +3799,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3859,10 +3877,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ14">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3987,7 +4005,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4193,7 +4211,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4271,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ16">
         <v>2.17</v>
@@ -4477,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17">
         <v>0.83</v>
@@ -4811,7 +4829,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4892,7 +4910,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5017,7 +5035,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5098,7 +5116,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR20">
         <v>1.01</v>
@@ -5635,7 +5653,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5922,7 +5940,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR24">
         <v>1.31</v>
@@ -6047,7 +6065,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6128,7 +6146,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR25">
         <v>1.23</v>
@@ -6459,7 +6477,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6537,10 +6555,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6871,7 +6889,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7077,7 +7095,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7155,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ30">
         <v>0.83</v>
@@ -7489,7 +7507,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7567,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ32">
         <v>1.17</v>
@@ -7695,7 +7713,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7776,7 +7794,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ33">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR33">
         <v>1.04</v>
@@ -7901,7 +7919,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8107,7 +8125,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8185,7 +8203,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ35">
         <v>2.17</v>
@@ -8313,7 +8331,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8391,7 +8409,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8725,7 +8743,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8806,7 +8824,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR38">
         <v>1.5</v>
@@ -8931,7 +8949,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9343,7 +9361,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9424,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9549,7 +9567,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9627,10 +9645,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR42">
         <v>1.42</v>
@@ -9836,7 +9854,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR43">
         <v>1.55</v>
@@ -9961,7 +9979,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10167,7 +10185,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10579,7 +10597,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10657,7 +10675,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ47">
         <v>1.17</v>
@@ -10785,7 +10803,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10863,7 +10881,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ48">
         <v>1.83</v>
@@ -10991,7 +11009,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11197,7 +11215,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11403,7 +11421,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11687,7 +11705,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ52">
         <v>0.83</v>
@@ -12021,7 +12039,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12102,7 +12120,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR54">
         <v>1.11</v>
@@ -12305,7 +12323,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12433,7 +12451,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12514,7 +12532,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -12639,7 +12657,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12926,7 +12944,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR58">
         <v>1.6</v>
@@ -13051,7 +13069,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13129,7 +13147,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ59">
         <v>1.17</v>
@@ -13338,7 +13356,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13953,10 +13971,10 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR63">
         <v>1.24</v>
@@ -14287,7 +14305,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14699,7 +14717,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14905,7 +14923,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -14986,7 +15004,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ68">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15189,7 +15207,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ69">
         <v>1.17</v>
@@ -15395,7 +15413,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ70">
         <v>0.83</v>
@@ -15807,7 +15825,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ72">
         <v>1.29</v>
@@ -15935,7 +15953,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16141,7 +16159,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16219,7 +16237,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ74">
         <v>1.86</v>
@@ -16347,7 +16365,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16428,7 +16446,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR75">
         <v>1.62</v>
@@ -16553,7 +16571,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16634,7 +16652,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR76">
         <v>1.55</v>
@@ -16840,7 +16858,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR77">
         <v>1.55</v>
@@ -16965,7 +16983,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17046,7 +17064,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ78">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR78">
         <v>1.7</v>
@@ -17252,7 +17270,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR79">
         <v>1.3</v>
@@ -17377,7 +17395,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17455,7 +17473,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ80">
         <v>1.43</v>
@@ -17995,7 +18013,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18279,7 +18297,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ84">
         <v>1.17</v>
@@ -18407,7 +18425,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q85">
         <v>2.67</v>
@@ -18613,7 +18631,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19025,7 +19043,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19437,7 +19455,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19515,7 +19533,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ90">
         <v>1.86</v>
@@ -19643,7 +19661,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -19849,7 +19867,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -19927,10 +19945,10 @@
         <v>0.6</v>
       </c>
       <c r="AP92">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR92">
         <v>1.19</v>
@@ -20055,7 +20073,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20133,7 +20151,7 @@
         <v>1.6</v>
       </c>
       <c r="AP93">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ93">
         <v>1.57</v>
@@ -20261,7 +20279,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20342,7 +20360,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ94">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR94">
         <v>1.74</v>
@@ -20467,7 +20485,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>2.61</v>
@@ -20545,10 +20563,10 @@
         <v>0.4</v>
       </c>
       <c r="AP95">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ95">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR95">
         <v>1.56</v>
@@ -20754,7 +20772,7 @@
         <v>2</v>
       </c>
       <c r="AQ96">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR96">
         <v>1.37</v>
@@ -20879,7 +20897,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -20960,7 +20978,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21085,7 +21103,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21291,7 +21309,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -21578,7 +21596,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ100">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR100">
         <v>1.7</v>
@@ -21781,7 +21799,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ101">
         <v>0.33</v>
@@ -22115,7 +22133,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22527,7 +22545,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -22733,7 +22751,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -22939,7 +22957,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23145,7 +23163,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q108">
         <v>2.66</v>
@@ -23351,7 +23369,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -23557,7 +23575,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q110">
         <v>2.56</v>
@@ -24175,7 +24193,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24381,7 +24399,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24538,6 +24556,1036 @@
       </c>
       <c r="BP114">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7502720</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45634.33333333334</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>82</v>
+      </c>
+      <c r="H115" t="s">
+        <v>81</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>89</v>
+      </c>
+      <c r="P115" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q115">
+        <v>2.88</v>
+      </c>
+      <c r="R115">
+        <v>2.02</v>
+      </c>
+      <c r="S115">
+        <v>3.82</v>
+      </c>
+      <c r="T115">
+        <v>1.44</v>
+      </c>
+      <c r="U115">
+        <v>2.67</v>
+      </c>
+      <c r="V115">
+        <v>3.14</v>
+      </c>
+      <c r="W115">
+        <v>1.33</v>
+      </c>
+      <c r="X115">
+        <v>8.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.05</v>
+      </c>
+      <c r="Z115">
+        <v>2.15</v>
+      </c>
+      <c r="AA115">
+        <v>3.2</v>
+      </c>
+      <c r="AB115">
+        <v>2.98</v>
+      </c>
+      <c r="AC115">
+        <v>1.01</v>
+      </c>
+      <c r="AD115">
+        <v>8</v>
+      </c>
+      <c r="AE115">
+        <v>1.31</v>
+      </c>
+      <c r="AF115">
+        <v>2.82</v>
+      </c>
+      <c r="AG115">
+        <v>2.1</v>
+      </c>
+      <c r="AH115">
+        <v>1.67</v>
+      </c>
+      <c r="AI115">
+        <v>1.85</v>
+      </c>
+      <c r="AJ115">
+        <v>1.85</v>
+      </c>
+      <c r="AK115">
+        <v>1.33</v>
+      </c>
+      <c r="AL115">
+        <v>1.31</v>
+      </c>
+      <c r="AM115">
+        <v>1.61</v>
+      </c>
+      <c r="AN115">
+        <v>0.83</v>
+      </c>
+      <c r="AO115">
+        <v>1</v>
+      </c>
+      <c r="AP115">
+        <v>0.71</v>
+      </c>
+      <c r="AQ115">
+        <v>1.29</v>
+      </c>
+      <c r="AR115">
+        <v>1.59</v>
+      </c>
+      <c r="AS115">
+        <v>1.18</v>
+      </c>
+      <c r="AT115">
+        <v>2.77</v>
+      </c>
+      <c r="AU115">
+        <v>6</v>
+      </c>
+      <c r="AV115">
+        <v>4</v>
+      </c>
+      <c r="AW115">
+        <v>10</v>
+      </c>
+      <c r="AX115">
+        <v>6</v>
+      </c>
+      <c r="AY115">
+        <v>16</v>
+      </c>
+      <c r="AZ115">
+        <v>10</v>
+      </c>
+      <c r="BA115">
+        <v>8</v>
+      </c>
+      <c r="BB115">
+        <v>5</v>
+      </c>
+      <c r="BC115">
+        <v>13</v>
+      </c>
+      <c r="BD115">
+        <v>1.55</v>
+      </c>
+      <c r="BE115">
+        <v>6.4</v>
+      </c>
+      <c r="BF115">
+        <v>3.05</v>
+      </c>
+      <c r="BG115">
+        <v>1.12</v>
+      </c>
+      <c r="BH115">
+        <v>4.45</v>
+      </c>
+      <c r="BI115">
+        <v>1.27</v>
+      </c>
+      <c r="BJ115">
+        <v>3.04</v>
+      </c>
+      <c r="BK115">
+        <v>1.51</v>
+      </c>
+      <c r="BL115">
+        <v>2.26</v>
+      </c>
+      <c r="BM115">
+        <v>1.89</v>
+      </c>
+      <c r="BN115">
+        <v>1.81</v>
+      </c>
+      <c r="BO115">
+        <v>2.38</v>
+      </c>
+      <c r="BP115">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7502713</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45634.45833333334</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>80</v>
+      </c>
+      <c r="H116" t="s">
+        <v>79</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>3</v>
+      </c>
+      <c r="K116">
+        <v>4</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>4</v>
+      </c>
+      <c r="N116">
+        <v>5</v>
+      </c>
+      <c r="O116" t="s">
+        <v>161</v>
+      </c>
+      <c r="P116" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q116">
+        <v>3.86</v>
+      </c>
+      <c r="R116">
+        <v>2.06</v>
+      </c>
+      <c r="S116">
+        <v>2.77</v>
+      </c>
+      <c r="T116">
+        <v>1.43</v>
+      </c>
+      <c r="U116">
+        <v>2.7</v>
+      </c>
+      <c r="V116">
+        <v>2.99</v>
+      </c>
+      <c r="W116">
+        <v>1.36</v>
+      </c>
+      <c r="X116">
+        <v>7.7</v>
+      </c>
+      <c r="Y116">
+        <v>1.06</v>
+      </c>
+      <c r="Z116">
+        <v>3.16</v>
+      </c>
+      <c r="AA116">
+        <v>3.24</v>
+      </c>
+      <c r="AB116">
+        <v>2.15</v>
+      </c>
+      <c r="AC116">
+        <v>1.01</v>
+      </c>
+      <c r="AD116">
+        <v>7.8</v>
+      </c>
+      <c r="AE116">
+        <v>1.29</v>
+      </c>
+      <c r="AF116">
+        <v>2.92</v>
+      </c>
+      <c r="AG116">
+        <v>2</v>
+      </c>
+      <c r="AH116">
+        <v>1.73</v>
+      </c>
+      <c r="AI116">
+        <v>1.81</v>
+      </c>
+      <c r="AJ116">
+        <v>1.89</v>
+      </c>
+      <c r="AK116">
+        <v>1.64</v>
+      </c>
+      <c r="AL116">
+        <v>1.31</v>
+      </c>
+      <c r="AM116">
+        <v>1.32</v>
+      </c>
+      <c r="AN116">
+        <v>0.67</v>
+      </c>
+      <c r="AO116">
+        <v>1</v>
+      </c>
+      <c r="AP116">
+        <v>0.57</v>
+      </c>
+      <c r="AQ116">
+        <v>1.29</v>
+      </c>
+      <c r="AR116">
+        <v>1.1</v>
+      </c>
+      <c r="AS116">
+        <v>1.16</v>
+      </c>
+      <c r="AT116">
+        <v>2.26</v>
+      </c>
+      <c r="AU116">
+        <v>2</v>
+      </c>
+      <c r="AV116">
+        <v>4</v>
+      </c>
+      <c r="AW116">
+        <v>8</v>
+      </c>
+      <c r="AX116">
+        <v>7</v>
+      </c>
+      <c r="AY116">
+        <v>10</v>
+      </c>
+      <c r="AZ116">
+        <v>11</v>
+      </c>
+      <c r="BA116">
+        <v>5</v>
+      </c>
+      <c r="BB116">
+        <v>3</v>
+      </c>
+      <c r="BC116">
+        <v>8</v>
+      </c>
+      <c r="BD116">
+        <v>2.28</v>
+      </c>
+      <c r="BE116">
+        <v>6</v>
+      </c>
+      <c r="BF116">
+        <v>1.92</v>
+      </c>
+      <c r="BG116">
+        <v>1.14</v>
+      </c>
+      <c r="BH116">
+        <v>4.15</v>
+      </c>
+      <c r="BI116">
+        <v>1.31</v>
+      </c>
+      <c r="BJ116">
+        <v>2.82</v>
+      </c>
+      <c r="BK116">
+        <v>1.58</v>
+      </c>
+      <c r="BL116">
+        <v>2.12</v>
+      </c>
+      <c r="BM116">
+        <v>2</v>
+      </c>
+      <c r="BN116">
+        <v>1.72</v>
+      </c>
+      <c r="BO116">
+        <v>2.56</v>
+      </c>
+      <c r="BP116">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7502718</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45634.52083333334</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>71</v>
+      </c>
+      <c r="H117" t="s">
+        <v>70</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117" t="s">
+        <v>162</v>
+      </c>
+      <c r="P117" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q117">
+        <v>4.05</v>
+      </c>
+      <c r="R117">
+        <v>1.98</v>
+      </c>
+      <c r="S117">
+        <v>2.84</v>
+      </c>
+      <c r="T117">
+        <v>1.48</v>
+      </c>
+      <c r="U117">
+        <v>2.54</v>
+      </c>
+      <c r="V117">
+        <v>3.28</v>
+      </c>
+      <c r="W117">
+        <v>1.31</v>
+      </c>
+      <c r="X117">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y117">
+        <v>1.04</v>
+      </c>
+      <c r="Z117">
+        <v>3.32</v>
+      </c>
+      <c r="AA117">
+        <v>3</v>
+      </c>
+      <c r="AB117">
+        <v>2.3</v>
+      </c>
+      <c r="AC117">
+        <v>1.02</v>
+      </c>
+      <c r="AD117">
+        <v>7.3</v>
+      </c>
+      <c r="AE117">
+        <v>1.35</v>
+      </c>
+      <c r="AF117">
+        <v>2.65</v>
+      </c>
+      <c r="AG117">
+        <v>2.25</v>
+      </c>
+      <c r="AH117">
+        <v>1.57</v>
+      </c>
+      <c r="AI117">
+        <v>1.94</v>
+      </c>
+      <c r="AJ117">
+        <v>1.77</v>
+      </c>
+      <c r="AK117">
+        <v>1.64</v>
+      </c>
+      <c r="AL117">
+        <v>1.32</v>
+      </c>
+      <c r="AM117">
+        <v>1.31</v>
+      </c>
+      <c r="AN117">
+        <v>0.83</v>
+      </c>
+      <c r="AO117">
+        <v>1.43</v>
+      </c>
+      <c r="AP117">
+        <v>0.71</v>
+      </c>
+      <c r="AQ117">
+        <v>1.63</v>
+      </c>
+      <c r="AR117">
+        <v>1.26</v>
+      </c>
+      <c r="AS117">
+        <v>1.5</v>
+      </c>
+      <c r="AT117">
+        <v>2.76</v>
+      </c>
+      <c r="AU117">
+        <v>3</v>
+      </c>
+      <c r="AV117">
+        <v>5</v>
+      </c>
+      <c r="AW117">
+        <v>4</v>
+      </c>
+      <c r="AX117">
+        <v>4</v>
+      </c>
+      <c r="AY117">
+        <v>7</v>
+      </c>
+      <c r="AZ117">
+        <v>9</v>
+      </c>
+      <c r="BA117">
+        <v>5</v>
+      </c>
+      <c r="BB117">
+        <v>3</v>
+      </c>
+      <c r="BC117">
+        <v>8</v>
+      </c>
+      <c r="BD117">
+        <v>2.55</v>
+      </c>
+      <c r="BE117">
+        <v>5.95</v>
+      </c>
+      <c r="BF117">
+        <v>1.75</v>
+      </c>
+      <c r="BG117">
+        <v>1.21</v>
+      </c>
+      <c r="BH117">
+        <v>3.44</v>
+      </c>
+      <c r="BI117">
+        <v>1.43</v>
+      </c>
+      <c r="BJ117">
+        <v>2.46</v>
+      </c>
+      <c r="BK117">
+        <v>1.8</v>
+      </c>
+      <c r="BL117">
+        <v>1.9</v>
+      </c>
+      <c r="BM117">
+        <v>2.26</v>
+      </c>
+      <c r="BN117">
+        <v>1.51</v>
+      </c>
+      <c r="BO117">
+        <v>2.97</v>
+      </c>
+      <c r="BP117">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7502717</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45634.625</v>
+      </c>
+      <c r="F118">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>85</v>
+      </c>
+      <c r="H118" t="s">
+        <v>76</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>163</v>
+      </c>
+      <c r="P118" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q118">
+        <v>2.38</v>
+      </c>
+      <c r="R118">
+        <v>2.14</v>
+      </c>
+      <c r="S118">
+        <v>4.6</v>
+      </c>
+      <c r="T118">
+        <v>1.39</v>
+      </c>
+      <c r="U118">
+        <v>2.86</v>
+      </c>
+      <c r="V118">
+        <v>2.82</v>
+      </c>
+      <c r="W118">
+        <v>1.4</v>
+      </c>
+      <c r="X118">
+        <v>7.4</v>
+      </c>
+      <c r="Y118">
+        <v>1.07</v>
+      </c>
+      <c r="Z118">
+        <v>1.75</v>
+      </c>
+      <c r="AA118">
+        <v>3.4</v>
+      </c>
+      <c r="AB118">
+        <v>4.2</v>
+      </c>
+      <c r="AC118">
+        <v>1.05</v>
+      </c>
+      <c r="AD118">
+        <v>7.8</v>
+      </c>
+      <c r="AE118">
+        <v>1.24</v>
+      </c>
+      <c r="AF118">
+        <v>3.22</v>
+      </c>
+      <c r="AG118">
+        <v>1.91</v>
+      </c>
+      <c r="AH118">
+        <v>1.8</v>
+      </c>
+      <c r="AI118">
+        <v>1.79</v>
+      </c>
+      <c r="AJ118">
+        <v>1.92</v>
+      </c>
+      <c r="AK118">
+        <v>1.22</v>
+      </c>
+      <c r="AL118">
+        <v>1.27</v>
+      </c>
+      <c r="AM118">
+        <v>1.92</v>
+      </c>
+      <c r="AN118">
+        <v>1.6</v>
+      </c>
+      <c r="AO118">
+        <v>0.5</v>
+      </c>
+      <c r="AP118">
+        <v>1.83</v>
+      </c>
+      <c r="AQ118">
+        <v>0.43</v>
+      </c>
+      <c r="AR118">
+        <v>1.48</v>
+      </c>
+      <c r="AS118">
+        <v>1.56</v>
+      </c>
+      <c r="AT118">
+        <v>3.04</v>
+      </c>
+      <c r="AU118">
+        <v>3</v>
+      </c>
+      <c r="AV118">
+        <v>4</v>
+      </c>
+      <c r="AW118">
+        <v>4</v>
+      </c>
+      <c r="AX118">
+        <v>6</v>
+      </c>
+      <c r="AY118">
+        <v>7</v>
+      </c>
+      <c r="AZ118">
+        <v>10</v>
+      </c>
+      <c r="BA118">
+        <v>3</v>
+      </c>
+      <c r="BB118">
+        <v>9</v>
+      </c>
+      <c r="BC118">
+        <v>12</v>
+      </c>
+      <c r="BD118">
+        <v>1.39</v>
+      </c>
+      <c r="BE118">
+        <v>6.8</v>
+      </c>
+      <c r="BF118">
+        <v>3.8</v>
+      </c>
+      <c r="BG118">
+        <v>1.14</v>
+      </c>
+      <c r="BH118">
+        <v>4.15</v>
+      </c>
+      <c r="BI118">
+        <v>1.31</v>
+      </c>
+      <c r="BJ118">
+        <v>2.82</v>
+      </c>
+      <c r="BK118">
+        <v>1.57</v>
+      </c>
+      <c r="BL118">
+        <v>2.14</v>
+      </c>
+      <c r="BM118">
+        <v>2</v>
+      </c>
+      <c r="BN118">
+        <v>1.72</v>
+      </c>
+      <c r="BO118">
+        <v>2.52</v>
+      </c>
+      <c r="BP118">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7502714</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45634.72916666666</v>
+      </c>
+      <c r="F119">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
+        <v>84</v>
+      </c>
+      <c r="H119" t="s">
+        <v>87</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>134</v>
+      </c>
+      <c r="P119" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q119">
+        <v>2.82</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>4</v>
+      </c>
+      <c r="T119">
+        <v>1.48</v>
+      </c>
+      <c r="U119">
+        <v>2.54</v>
+      </c>
+      <c r="V119">
+        <v>3.04</v>
+      </c>
+      <c r="W119">
+        <v>1.35</v>
+      </c>
+      <c r="X119">
+        <v>7.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.07</v>
+      </c>
+      <c r="Z119">
+        <v>2.1</v>
+      </c>
+      <c r="AA119">
+        <v>3.1</v>
+      </c>
+      <c r="AB119">
+        <v>3.25</v>
+      </c>
+      <c r="AC119">
+        <v>1.04</v>
+      </c>
+      <c r="AD119">
+        <v>6.3</v>
+      </c>
+      <c r="AE119">
+        <v>1.33</v>
+      </c>
+      <c r="AF119">
+        <v>2.73</v>
+      </c>
+      <c r="AG119">
+        <v>2.1</v>
+      </c>
+      <c r="AH119">
+        <v>1.65</v>
+      </c>
+      <c r="AI119">
+        <v>1.85</v>
+      </c>
+      <c r="AJ119">
+        <v>1.85</v>
+      </c>
+      <c r="AK119">
+        <v>1.32</v>
+      </c>
+      <c r="AL119">
+        <v>1.33</v>
+      </c>
+      <c r="AM119">
+        <v>1.62</v>
+      </c>
+      <c r="AN119">
+        <v>0.8</v>
+      </c>
+      <c r="AO119">
+        <v>2</v>
+      </c>
+      <c r="AP119">
+        <v>0.83</v>
+      </c>
+      <c r="AQ119">
+        <v>1.86</v>
+      </c>
+      <c r="AR119">
+        <v>1.64</v>
+      </c>
+      <c r="AS119">
+        <v>1.42</v>
+      </c>
+      <c r="AT119">
+        <v>3.06</v>
+      </c>
+      <c r="AU119">
+        <v>4</v>
+      </c>
+      <c r="AV119">
+        <v>4</v>
+      </c>
+      <c r="AW119">
+        <v>2</v>
+      </c>
+      <c r="AX119">
+        <v>2</v>
+      </c>
+      <c r="AY119">
+        <v>6</v>
+      </c>
+      <c r="AZ119">
+        <v>6</v>
+      </c>
+      <c r="BA119">
+        <v>11</v>
+      </c>
+      <c r="BB119">
+        <v>3</v>
+      </c>
+      <c r="BC119">
+        <v>14</v>
+      </c>
+      <c r="BD119">
+        <v>1.75</v>
+      </c>
+      <c r="BE119">
+        <v>6</v>
+      </c>
+      <c r="BF119">
+        <v>2.5</v>
+      </c>
+      <c r="BG119">
+        <v>1.15</v>
+      </c>
+      <c r="BH119">
+        <v>4.05</v>
+      </c>
+      <c r="BI119">
+        <v>1.32</v>
+      </c>
+      <c r="BJ119">
+        <v>2.78</v>
+      </c>
+      <c r="BK119">
+        <v>1.6</v>
+      </c>
+      <c r="BL119">
+        <v>2.08</v>
+      </c>
+      <c r="BM119">
+        <v>2.04</v>
+      </c>
+      <c r="BN119">
+        <v>1.69</v>
+      </c>
+      <c r="BO119">
+        <v>2.62</v>
+      </c>
+      <c r="BP119">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,15 @@
     <t>['5', '39']</t>
   </si>
   <si>
+    <t>['9', '47', '70']</t>
+  </si>
+  <si>
+    <t>['13', '34', '90+6']</t>
+  </si>
+  <si>
+    <t>['10', '12']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -707,6 +716,9 @@
   </si>
   <si>
     <t>['78']</t>
+  </si>
+  <si>
+    <t>['71']</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1339,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1533,7 +1545,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1611,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1739,7 +1751,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1820,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2026,7 +2038,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ5">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2151,7 +2163,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2229,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6">
         <v>0.33</v>
@@ -2357,7 +2369,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2769,7 +2781,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2847,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ9">
         <v>1.29</v>
@@ -3181,7 +3193,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3259,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3593,7 +3605,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3799,7 +3811,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4005,7 +4017,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4211,7 +4223,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4498,7 +4510,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ17">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4829,7 +4841,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5035,7 +5047,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5113,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ20">
         <v>1.29</v>
@@ -5653,7 +5665,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5734,7 +5746,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR23">
         <v>1.93</v>
@@ -6065,7 +6077,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6143,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ25">
         <v>1.86</v>
@@ -6352,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR26">
         <v>1.66</v>
@@ -6477,7 +6489,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6555,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>1.29</v>
@@ -6889,7 +6901,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6967,7 +6979,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ29">
         <v>1.57</v>
@@ -7095,7 +7107,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7176,7 +7188,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ30">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR30">
         <v>1.33</v>
@@ -7507,7 +7519,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7713,7 +7725,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7919,7 +7931,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8000,7 +8012,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ34">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR34">
         <v>1.57</v>
@@ -8125,7 +8137,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8331,7 +8343,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8743,7 +8755,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8949,7 +8961,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9030,7 +9042,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ39">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR39">
         <v>1.92</v>
@@ -9361,7 +9373,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9567,7 +9579,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9645,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>1.86</v>
@@ -9851,7 +9863,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ43">
         <v>0.43</v>
@@ -9979,7 +9991,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10185,7 +10197,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10472,7 +10484,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ46">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR46">
         <v>1.7</v>
@@ -10597,7 +10609,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10803,7 +10815,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10884,7 +10896,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ48">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -11009,7 +11021,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11215,7 +11227,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11421,7 +11433,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11911,10 +11923,10 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ53">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR53">
         <v>1.6</v>
@@ -12039,7 +12051,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12117,7 +12129,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ54">
         <v>1.63</v>
@@ -12451,7 +12463,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12657,7 +12669,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13069,7 +13081,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13150,7 +13162,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR59">
         <v>1.13</v>
@@ -13765,7 +13777,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ62">
         <v>1.43</v>
@@ -13971,7 +13983,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
         <v>1.29</v>
@@ -14180,7 +14192,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ64">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR64">
         <v>1.67</v>
@@ -14305,7 +14317,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14383,7 +14395,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ65">
         <v>1.5</v>
@@ -14592,7 +14604,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ66">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR66">
         <v>1.24</v>
@@ -14717,7 +14729,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14795,7 +14807,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ67">
         <v>2.17</v>
@@ -14923,7 +14935,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15953,7 +15965,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16031,7 +16043,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ73">
         <v>1.57</v>
@@ -16159,7 +16171,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16240,7 +16252,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ74">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR74">
         <v>1.25</v>
@@ -16365,7 +16377,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16571,7 +16583,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16983,7 +16995,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17395,7 +17407,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17473,7 +17485,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
         <v>1.43</v>
@@ -17679,7 +17691,7 @@
         <v>1.25</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ81">
         <v>0.83</v>
@@ -18013,7 +18025,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18300,7 +18312,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ84">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR84">
         <v>1.48</v>
@@ -18425,7 +18437,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q85">
         <v>2.67</v>
@@ -18506,7 +18518,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ85">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -18631,7 +18643,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -18915,10 +18927,10 @@
         <v>1.25</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ87">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR87">
         <v>1.38</v>
@@ -19043,7 +19055,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19455,7 +19467,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19536,7 +19548,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ90">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR90">
         <v>1.65</v>
@@ -19661,7 +19673,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -19739,7 +19751,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ91">
         <v>1.5</v>
@@ -19867,7 +19879,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20073,7 +20085,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20151,7 +20163,7 @@
         <v>1.6</v>
       </c>
       <c r="AP93">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
         <v>1.57</v>
@@ -20279,7 +20291,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20485,7 +20497,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>2.61</v>
@@ -20897,7 +20909,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21103,7 +21115,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21309,7 +21321,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -21390,7 +21402,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ99">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR99">
         <v>1.34</v>
@@ -22008,7 +22020,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ102">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR102">
         <v>1.5</v>
@@ -22133,7 +22145,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22417,7 +22429,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ104">
         <v>0.83</v>
@@ -22545,7 +22557,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -22626,7 +22638,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ105">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR105">
         <v>1.39</v>
@@ -22751,7 +22763,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -22829,7 +22841,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ106">
         <v>1.29</v>
@@ -22957,7 +22969,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23035,7 +23047,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23163,7 +23175,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>2.66</v>
@@ -23244,7 +23256,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ108">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR108">
         <v>1.57</v>
@@ -23369,7 +23381,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -23575,7 +23587,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>2.56</v>
@@ -23656,7 +23668,7 @@
         <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR110">
         <v>1.51</v>
@@ -24193,7 +24205,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24399,7 +24411,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24811,7 +24823,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25017,7 +25029,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25095,7 +25107,7 @@
         <v>1.43</v>
       </c>
       <c r="AP117">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ117">
         <v>1.63</v>
@@ -25223,7 +25235,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25586,6 +25598,830 @@
       </c>
       <c r="BP119">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7502725</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45640.33333333334</v>
+      </c>
+      <c r="F120">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>77</v>
+      </c>
+      <c r="H120" t="s">
+        <v>82</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>89</v>
+      </c>
+      <c r="P120" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q120">
+        <v>2.75</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>4</v>
+      </c>
+      <c r="T120">
+        <v>1.46</v>
+      </c>
+      <c r="U120">
+        <v>2.55</v>
+      </c>
+      <c r="V120">
+        <v>3</v>
+      </c>
+      <c r="W120">
+        <v>1.34</v>
+      </c>
+      <c r="X120">
+        <v>7.5</v>
+      </c>
+      <c r="Y120">
+        <v>1.06</v>
+      </c>
+      <c r="Z120">
+        <v>2</v>
+      </c>
+      <c r="AA120">
+        <v>3.25</v>
+      </c>
+      <c r="AB120">
+        <v>3.3</v>
+      </c>
+      <c r="AC120">
+        <v>1.05</v>
+      </c>
+      <c r="AD120">
+        <v>8</v>
+      </c>
+      <c r="AE120">
+        <v>1.36</v>
+      </c>
+      <c r="AF120">
+        <v>3</v>
+      </c>
+      <c r="AG120">
+        <v>2.05</v>
+      </c>
+      <c r="AH120">
+        <v>1.66</v>
+      </c>
+      <c r="AI120">
+        <v>1.85</v>
+      </c>
+      <c r="AJ120">
+        <v>1.9</v>
+      </c>
+      <c r="AK120">
+        <v>1.28</v>
+      </c>
+      <c r="AL120">
+        <v>1.25</v>
+      </c>
+      <c r="AM120">
+        <v>1.72</v>
+      </c>
+      <c r="AN120">
+        <v>1.33</v>
+      </c>
+      <c r="AO120">
+        <v>1.17</v>
+      </c>
+      <c r="AP120">
+        <v>1.14</v>
+      </c>
+      <c r="AQ120">
+        <v>1.43</v>
+      </c>
+      <c r="AR120">
+        <v>1.47</v>
+      </c>
+      <c r="AS120">
+        <v>1.25</v>
+      </c>
+      <c r="AT120">
+        <v>2.72</v>
+      </c>
+      <c r="AU120">
+        <v>5</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>4</v>
+      </c>
+      <c r="AX120">
+        <v>3</v>
+      </c>
+      <c r="AY120">
+        <v>9</v>
+      </c>
+      <c r="AZ120">
+        <v>7</v>
+      </c>
+      <c r="BA120">
+        <v>11</v>
+      </c>
+      <c r="BB120">
+        <v>1</v>
+      </c>
+      <c r="BC120">
+        <v>12</v>
+      </c>
+      <c r="BD120">
+        <v>1.83</v>
+      </c>
+      <c r="BE120">
+        <v>8</v>
+      </c>
+      <c r="BF120">
+        <v>2.2</v>
+      </c>
+      <c r="BG120">
+        <v>1.14</v>
+      </c>
+      <c r="BH120">
+        <v>4.4</v>
+      </c>
+      <c r="BI120">
+        <v>1.3</v>
+      </c>
+      <c r="BJ120">
+        <v>2.97</v>
+      </c>
+      <c r="BK120">
+        <v>1.55</v>
+      </c>
+      <c r="BL120">
+        <v>2.23</v>
+      </c>
+      <c r="BM120">
+        <v>1.94</v>
+      </c>
+      <c r="BN120">
+        <v>1.77</v>
+      </c>
+      <c r="BO120">
+        <v>2.48</v>
+      </c>
+      <c r="BP120">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7502727</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45640.40625</v>
+      </c>
+      <c r="F121">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>79</v>
+      </c>
+      <c r="H121" t="s">
+        <v>85</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>164</v>
+      </c>
+      <c r="P121" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q121">
+        <v>3.52</v>
+      </c>
+      <c r="R121">
+        <v>2.02</v>
+      </c>
+      <c r="S121">
+        <v>3.08</v>
+      </c>
+      <c r="T121">
+        <v>1.46</v>
+      </c>
+      <c r="U121">
+        <v>2.6</v>
+      </c>
+      <c r="V121">
+        <v>3.14</v>
+      </c>
+      <c r="W121">
+        <v>1.33</v>
+      </c>
+      <c r="X121">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y121">
+        <v>1.06</v>
+      </c>
+      <c r="Z121">
+        <v>2.7</v>
+      </c>
+      <c r="AA121">
+        <v>3.1</v>
+      </c>
+      <c r="AB121">
+        <v>2.38</v>
+      </c>
+      <c r="AC121">
+        <v>1.02</v>
+      </c>
+      <c r="AD121">
+        <v>7.3</v>
+      </c>
+      <c r="AE121">
+        <v>1.32</v>
+      </c>
+      <c r="AF121">
+        <v>2.78</v>
+      </c>
+      <c r="AG121">
+        <v>2.15</v>
+      </c>
+      <c r="AH121">
+        <v>1.6</v>
+      </c>
+      <c r="AI121">
+        <v>1.85</v>
+      </c>
+      <c r="AJ121">
+        <v>1.85</v>
+      </c>
+      <c r="AK121">
+        <v>1.52</v>
+      </c>
+      <c r="AL121">
+        <v>1.32</v>
+      </c>
+      <c r="AM121">
+        <v>1.4</v>
+      </c>
+      <c r="AN121">
+        <v>1.5</v>
+      </c>
+      <c r="AO121">
+        <v>1.86</v>
+      </c>
+      <c r="AP121">
+        <v>1.71</v>
+      </c>
+      <c r="AQ121">
+        <v>1.63</v>
+      </c>
+      <c r="AR121">
+        <v>1.6</v>
+      </c>
+      <c r="AS121">
+        <v>1.4</v>
+      </c>
+      <c r="AT121">
+        <v>3</v>
+      </c>
+      <c r="AU121">
+        <v>5</v>
+      </c>
+      <c r="AV121">
+        <v>6</v>
+      </c>
+      <c r="AW121">
+        <v>7</v>
+      </c>
+      <c r="AX121">
+        <v>10</v>
+      </c>
+      <c r="AY121">
+        <v>12</v>
+      </c>
+      <c r="AZ121">
+        <v>16</v>
+      </c>
+      <c r="BA121">
+        <v>2</v>
+      </c>
+      <c r="BB121">
+        <v>7</v>
+      </c>
+      <c r="BC121">
+        <v>9</v>
+      </c>
+      <c r="BD121">
+        <v>2.1</v>
+      </c>
+      <c r="BE121">
+        <v>8</v>
+      </c>
+      <c r="BF121">
+        <v>1.91</v>
+      </c>
+      <c r="BG121">
+        <v>1.15</v>
+      </c>
+      <c r="BH121">
+        <v>4.2</v>
+      </c>
+      <c r="BI121">
+        <v>1.32</v>
+      </c>
+      <c r="BJ121">
+        <v>2.88</v>
+      </c>
+      <c r="BK121">
+        <v>1.6</v>
+      </c>
+      <c r="BL121">
+        <v>2.14</v>
+      </c>
+      <c r="BM121">
+        <v>2.02</v>
+      </c>
+      <c r="BN121">
+        <v>1.71</v>
+      </c>
+      <c r="BO121">
+        <v>2.6</v>
+      </c>
+      <c r="BP121">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7502722</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45640.45833333334</v>
+      </c>
+      <c r="F122">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>74</v>
+      </c>
+      <c r="H122" t="s">
+        <v>72</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122" t="s">
+        <v>165</v>
+      </c>
+      <c r="P122" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q122">
+        <v>3.4</v>
+      </c>
+      <c r="R122">
+        <v>1.95</v>
+      </c>
+      <c r="S122">
+        <v>3.3</v>
+      </c>
+      <c r="T122">
+        <v>1.51</v>
+      </c>
+      <c r="U122">
+        <v>2.4</v>
+      </c>
+      <c r="V122">
+        <v>3.3</v>
+      </c>
+      <c r="W122">
+        <v>1.29</v>
+      </c>
+      <c r="X122">
+        <v>8.5</v>
+      </c>
+      <c r="Y122">
+        <v>1.04</v>
+      </c>
+      <c r="Z122">
+        <v>2.62</v>
+      </c>
+      <c r="AA122">
+        <v>2.9</v>
+      </c>
+      <c r="AB122">
+        <v>2.5</v>
+      </c>
+      <c r="AC122">
+        <v>1.03</v>
+      </c>
+      <c r="AD122">
+        <v>6.6</v>
+      </c>
+      <c r="AE122">
+        <v>1.42</v>
+      </c>
+      <c r="AF122">
+        <v>2.75</v>
+      </c>
+      <c r="AG122">
+        <v>2.2</v>
+      </c>
+      <c r="AH122">
+        <v>1.6</v>
+      </c>
+      <c r="AI122">
+        <v>1.9</v>
+      </c>
+      <c r="AJ122">
+        <v>1.83</v>
+      </c>
+      <c r="AK122">
+        <v>1.45</v>
+      </c>
+      <c r="AL122">
+        <v>1.3</v>
+      </c>
+      <c r="AM122">
+        <v>1.45</v>
+      </c>
+      <c r="AN122">
+        <v>1.71</v>
+      </c>
+      <c r="AO122">
+        <v>0.83</v>
+      </c>
+      <c r="AP122">
+        <v>1.88</v>
+      </c>
+      <c r="AQ122">
+        <v>0.71</v>
+      </c>
+      <c r="AR122">
+        <v>1.24</v>
+      </c>
+      <c r="AS122">
+        <v>1.38</v>
+      </c>
+      <c r="AT122">
+        <v>2.62</v>
+      </c>
+      <c r="AU122">
+        <v>4</v>
+      </c>
+      <c r="AV122">
+        <v>4</v>
+      </c>
+      <c r="AW122">
+        <v>1</v>
+      </c>
+      <c r="AX122">
+        <v>7</v>
+      </c>
+      <c r="AY122">
+        <v>5</v>
+      </c>
+      <c r="AZ122">
+        <v>11</v>
+      </c>
+      <c r="BA122">
+        <v>4</v>
+      </c>
+      <c r="BB122">
+        <v>7</v>
+      </c>
+      <c r="BC122">
+        <v>11</v>
+      </c>
+      <c r="BD122">
+        <v>2.29</v>
+      </c>
+      <c r="BE122">
+        <v>8</v>
+      </c>
+      <c r="BF122">
+        <v>1.82</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
+      <c r="BH122">
+        <v>0</v>
+      </c>
+      <c r="BI122">
+        <v>0</v>
+      </c>
+      <c r="BJ122">
+        <v>0</v>
+      </c>
+      <c r="BK122">
+        <v>0</v>
+      </c>
+      <c r="BL122">
+        <v>0</v>
+      </c>
+      <c r="BM122">
+        <v>1.98</v>
+      </c>
+      <c r="BN122">
+        <v>1.82</v>
+      </c>
+      <c r="BO122">
+        <v>0</v>
+      </c>
+      <c r="BP122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7502724</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45640.52083333334</v>
+      </c>
+      <c r="F123">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>71</v>
+      </c>
+      <c r="H123" t="s">
+        <v>86</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>166</v>
+      </c>
+      <c r="P123" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q123">
+        <v>3.6</v>
+      </c>
+      <c r="R123">
+        <v>2.01</v>
+      </c>
+      <c r="S123">
+        <v>3.04</v>
+      </c>
+      <c r="T123">
+        <v>1.45</v>
+      </c>
+      <c r="U123">
+        <v>2.63</v>
+      </c>
+      <c r="V123">
+        <v>3.15</v>
+      </c>
+      <c r="W123">
+        <v>1.33</v>
+      </c>
+      <c r="X123">
+        <v>8.6</v>
+      </c>
+      <c r="Y123">
+        <v>1.05</v>
+      </c>
+      <c r="Z123">
+        <v>2.88</v>
+      </c>
+      <c r="AA123">
+        <v>3.2</v>
+      </c>
+      <c r="AB123">
+        <v>2.19</v>
+      </c>
+      <c r="AC123">
+        <v>1.01</v>
+      </c>
+      <c r="AD123">
+        <v>7.8</v>
+      </c>
+      <c r="AE123">
+        <v>1.31</v>
+      </c>
+      <c r="AF123">
+        <v>2.82</v>
+      </c>
+      <c r="AG123">
+        <v>2.14</v>
+      </c>
+      <c r="AH123">
+        <v>1.68</v>
+      </c>
+      <c r="AI123">
+        <v>1.85</v>
+      </c>
+      <c r="AJ123">
+        <v>1.85</v>
+      </c>
+      <c r="AK123">
+        <v>1.53</v>
+      </c>
+      <c r="AL123">
+        <v>1.32</v>
+      </c>
+      <c r="AM123">
+        <v>1.39</v>
+      </c>
+      <c r="AN123">
+        <v>0.71</v>
+      </c>
+      <c r="AO123">
+        <v>1.83</v>
+      </c>
+      <c r="AP123">
+        <v>1</v>
+      </c>
+      <c r="AQ123">
+        <v>1.57</v>
+      </c>
+      <c r="AR123">
+        <v>1.21</v>
+      </c>
+      <c r="AS123">
+        <v>1.37</v>
+      </c>
+      <c r="AT123">
+        <v>2.58</v>
+      </c>
+      <c r="AU123">
+        <v>4</v>
+      </c>
+      <c r="AV123">
+        <v>6</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>13</v>
+      </c>
+      <c r="AY123">
+        <v>10</v>
+      </c>
+      <c r="AZ123">
+        <v>19</v>
+      </c>
+      <c r="BA123">
+        <v>7</v>
+      </c>
+      <c r="BB123">
+        <v>5</v>
+      </c>
+      <c r="BC123">
+        <v>12</v>
+      </c>
+      <c r="BD123">
+        <v>2.2</v>
+      </c>
+      <c r="BE123">
+        <v>8</v>
+      </c>
+      <c r="BF123">
+        <v>1.83</v>
+      </c>
+      <c r="BG123">
+        <v>1.21</v>
+      </c>
+      <c r="BH123">
+        <v>3.58</v>
+      </c>
+      <c r="BI123">
+        <v>1.43</v>
+      </c>
+      <c r="BJ123">
+        <v>2.54</v>
+      </c>
+      <c r="BK123">
+        <v>1.78</v>
+      </c>
+      <c r="BL123">
+        <v>1.93</v>
+      </c>
+      <c r="BM123">
+        <v>2.25</v>
+      </c>
+      <c r="BN123">
+        <v>1.54</v>
+      </c>
+      <c r="BO123">
+        <v>2.97</v>
+      </c>
+      <c r="BP123">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,12 @@
     <t>['10', '12']</t>
   </si>
   <si>
+    <t>['68', '89']</t>
+  </si>
+  <si>
+    <t>['22', '32']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -719,6 +725,12 @@
   </si>
   <si>
     <t>['71']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['49', '68', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1351,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1417,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ2">
         <v>1.86</v>
@@ -1545,7 +1557,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1751,7 +1763,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2163,7 +2175,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2369,7 +2381,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2450,7 +2462,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ7">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2653,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ8">
         <v>1.29</v>
@@ -2781,7 +2793,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2862,7 +2874,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ9">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3065,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ10">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3193,7 +3205,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3605,7 +3617,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3811,7 +3823,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4017,7 +4029,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4223,7 +4235,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4716,7 +4728,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ18">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4841,7 +4853,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4919,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ19">
         <v>0.43</v>
@@ -5047,7 +5059,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5331,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ21">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR21">
         <v>1.84</v>
@@ -5665,7 +5677,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6077,7 +6089,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6361,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ26">
         <v>1.63</v>
@@ -6489,7 +6501,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6570,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6776,7 +6788,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ28">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR28">
         <v>1.62</v>
@@ -6901,7 +6913,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7107,7 +7119,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7391,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7519,7 +7531,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7600,7 +7612,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ32">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR32">
         <v>2.27</v>
@@ -7725,7 +7737,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7931,7 +7943,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8137,7 +8149,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8343,7 +8355,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8627,7 +8639,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ37">
         <v>1.43</v>
@@ -8755,7 +8767,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8836,7 +8848,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ38">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR38">
         <v>1.5</v>
@@ -8961,7 +8973,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9039,7 +9051,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ39">
         <v>1.63</v>
@@ -9373,7 +9385,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9451,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ41">
         <v>1.29</v>
@@ -9579,7 +9591,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9991,7 +10003,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10197,7 +10209,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10278,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10609,7 +10621,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10690,7 +10702,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ47">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -10815,7 +10827,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11021,7 +11033,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11227,7 +11239,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11305,7 +11317,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ50">
         <v>1.57</v>
@@ -11433,7 +11445,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11511,7 +11523,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11720,7 +11732,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ52">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -12051,7 +12063,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12463,7 +12475,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12669,7 +12681,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12747,7 +12759,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ57">
         <v>1.57</v>
@@ -12953,7 +12965,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ58">
         <v>0.43</v>
@@ -13081,7 +13093,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13368,7 +13380,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13574,7 +13586,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ61">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR61">
         <v>1.62</v>
@@ -14317,7 +14329,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14601,7 +14613,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ66">
         <v>0.71</v>
@@ -14729,7 +14741,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14935,7 +14947,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15222,7 +15234,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ69">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR69">
         <v>1.69</v>
@@ -15428,7 +15440,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ70">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR70">
         <v>1.47</v>
@@ -15631,7 +15643,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15840,7 +15852,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ72">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.62</v>
@@ -15965,7 +15977,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16171,7 +16183,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16377,7 +16389,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16458,7 +16470,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ75">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR75">
         <v>1.62</v>
@@ -16583,7 +16595,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16995,7 +17007,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17073,7 +17085,7 @@
         <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ78">
         <v>1.63</v>
@@ -17407,7 +17419,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17694,7 +17706,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ81">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -17900,7 +17912,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ82">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR82">
         <v>1.36</v>
@@ -18025,7 +18037,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18103,7 +18115,7 @@
         <v>2.5</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ83">
         <v>2.17</v>
@@ -18437,7 +18449,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q85">
         <v>2.67</v>
@@ -18643,7 +18655,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -18721,7 +18733,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19055,7 +19067,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19133,10 +19145,10 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ88">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR88">
         <v>1.05</v>
@@ -19339,7 +19351,7 @@
         <v>0.33</v>
       </c>
       <c r="AP89">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ89">
         <v>0.33</v>
@@ -19467,7 +19479,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19673,7 +19685,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -19879,7 +19891,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -19960,7 +19972,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ92">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR92">
         <v>1.19</v>
@@ -20085,7 +20097,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20291,7 +20303,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20497,7 +20509,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>2.61</v>
@@ -20909,7 +20921,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21115,7 +21127,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21321,7 +21333,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22145,7 +22157,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22223,10 +22235,10 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ103">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR103">
         <v>1.71</v>
@@ -22432,7 +22444,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ104">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR104">
         <v>1.44</v>
@@ -22557,7 +22569,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -22763,7 +22775,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -22844,7 +22856,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ106">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR106">
         <v>1.65</v>
@@ -22969,7 +22981,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23175,7 +23187,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>2.66</v>
@@ -23253,7 +23265,7 @@
         <v>1.4</v>
       </c>
       <c r="AP108">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ108">
         <v>1.43</v>
@@ -23381,7 +23393,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -23459,7 +23471,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ109">
         <v>0.33</v>
@@ -23587,7 +23599,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q110">
         <v>2.56</v>
@@ -23665,7 +23677,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ110">
         <v>1.57</v>
@@ -24205,7 +24217,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24411,7 +24423,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24698,7 +24710,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ115">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR115">
         <v>1.59</v>
@@ -24823,7 +24835,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25029,7 +25041,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25235,7 +25247,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -26029,7 +26041,7 @@
         <v>45640.45833333334</v>
       </c>
       <c r="F122">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>74</v>
@@ -26059,7 +26071,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26422,6 +26434,830 @@
       </c>
       <c r="BP123">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7502729</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45641.33333333334</v>
+      </c>
+      <c r="F124">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>78</v>
+      </c>
+      <c r="H124" t="s">
+        <v>84</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>167</v>
+      </c>
+      <c r="P124" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q124">
+        <v>2.84</v>
+      </c>
+      <c r="R124">
+        <v>2.08</v>
+      </c>
+      <c r="S124">
+        <v>3.68</v>
+      </c>
+      <c r="T124">
+        <v>1.43</v>
+      </c>
+      <c r="U124">
+        <v>2.7</v>
+      </c>
+      <c r="V124">
+        <v>2.9</v>
+      </c>
+      <c r="W124">
+        <v>1.38</v>
+      </c>
+      <c r="X124">
+        <v>7.1</v>
+      </c>
+      <c r="Y124">
+        <v>1.08</v>
+      </c>
+      <c r="Z124">
+        <v>2.25</v>
+      </c>
+      <c r="AA124">
+        <v>3.25</v>
+      </c>
+      <c r="AB124">
+        <v>3</v>
+      </c>
+      <c r="AC124">
+        <v>1.03</v>
+      </c>
+      <c r="AD124">
+        <v>6.85</v>
+      </c>
+      <c r="AE124">
+        <v>1.3</v>
+      </c>
+      <c r="AF124">
+        <v>2.88</v>
+      </c>
+      <c r="AG124">
+        <v>1.99</v>
+      </c>
+      <c r="AH124">
+        <v>1.73</v>
+      </c>
+      <c r="AI124">
+        <v>1.79</v>
+      </c>
+      <c r="AJ124">
+        <v>1.92</v>
+      </c>
+      <c r="AK124">
+        <v>1.36</v>
+      </c>
+      <c r="AL124">
+        <v>1.31</v>
+      </c>
+      <c r="AM124">
+        <v>1.59</v>
+      </c>
+      <c r="AN124">
+        <v>0.57</v>
+      </c>
+      <c r="AO124">
+        <v>1.29</v>
+      </c>
+      <c r="AP124">
+        <v>0.88</v>
+      </c>
+      <c r="AQ124">
+        <v>1.13</v>
+      </c>
+      <c r="AR124">
+        <v>1.69</v>
+      </c>
+      <c r="AS124">
+        <v>1.35</v>
+      </c>
+      <c r="AT124">
+        <v>3.04</v>
+      </c>
+      <c r="AU124">
+        <v>3</v>
+      </c>
+      <c r="AV124">
+        <v>2</v>
+      </c>
+      <c r="AW124">
+        <v>7</v>
+      </c>
+      <c r="AX124">
+        <v>1</v>
+      </c>
+      <c r="AY124">
+        <v>10</v>
+      </c>
+      <c r="AZ124">
+        <v>3</v>
+      </c>
+      <c r="BA124">
+        <v>5</v>
+      </c>
+      <c r="BB124">
+        <v>4</v>
+      </c>
+      <c r="BC124">
+        <v>9</v>
+      </c>
+      <c r="BD124">
+        <v>1.59</v>
+      </c>
+      <c r="BE124">
+        <v>8.5</v>
+      </c>
+      <c r="BF124">
+        <v>2.78</v>
+      </c>
+      <c r="BG124">
+        <v>1.15</v>
+      </c>
+      <c r="BH124">
+        <v>4.25</v>
+      </c>
+      <c r="BI124">
+        <v>1.32</v>
+      </c>
+      <c r="BJ124">
+        <v>2.88</v>
+      </c>
+      <c r="BK124">
+        <v>1.6</v>
+      </c>
+      <c r="BL124">
+        <v>2.14</v>
+      </c>
+      <c r="BM124">
+        <v>2.02</v>
+      </c>
+      <c r="BN124">
+        <v>1.71</v>
+      </c>
+      <c r="BO124">
+        <v>2.6</v>
+      </c>
+      <c r="BP124">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7502723</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45641.45833333334</v>
+      </c>
+      <c r="F125">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>87</v>
+      </c>
+      <c r="H125" t="s">
+        <v>81</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>168</v>
+      </c>
+      <c r="P125" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q125">
+        <v>2.47</v>
+      </c>
+      <c r="R125">
+        <v>2.09</v>
+      </c>
+      <c r="S125">
+        <v>4.5</v>
+      </c>
+      <c r="T125">
+        <v>1.41</v>
+      </c>
+      <c r="U125">
+        <v>2.78</v>
+      </c>
+      <c r="V125">
+        <v>2.94</v>
+      </c>
+      <c r="W125">
+        <v>1.37</v>
+      </c>
+      <c r="X125">
+        <v>7.8</v>
+      </c>
+      <c r="Y125">
+        <v>1.06</v>
+      </c>
+      <c r="Z125">
+        <v>1.8</v>
+      </c>
+      <c r="AA125">
+        <v>3.35</v>
+      </c>
+      <c r="AB125">
+        <v>3.75</v>
+      </c>
+      <c r="AC125">
+        <v>1</v>
+      </c>
+      <c r="AD125">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE125">
+        <v>1.27</v>
+      </c>
+      <c r="AF125">
+        <v>3.04</v>
+      </c>
+      <c r="AG125">
+        <v>1.95</v>
+      </c>
+      <c r="AH125">
+        <v>1.75</v>
+      </c>
+      <c r="AI125">
+        <v>1.84</v>
+      </c>
+      <c r="AJ125">
+        <v>1.86</v>
+      </c>
+      <c r="AK125">
+        <v>1.23</v>
+      </c>
+      <c r="AL125">
+        <v>1.28</v>
+      </c>
+      <c r="AM125">
+        <v>1.87</v>
+      </c>
+      <c r="AN125">
+        <v>2.33</v>
+      </c>
+      <c r="AO125">
+        <v>1.29</v>
+      </c>
+      <c r="AP125">
+        <v>2.43</v>
+      </c>
+      <c r="AQ125">
+        <v>1.13</v>
+      </c>
+      <c r="AR125">
+        <v>1.63</v>
+      </c>
+      <c r="AS125">
+        <v>1.19</v>
+      </c>
+      <c r="AT125">
+        <v>2.82</v>
+      </c>
+      <c r="AU125">
+        <v>6</v>
+      </c>
+      <c r="AV125">
+        <v>2</v>
+      </c>
+      <c r="AW125">
+        <v>7</v>
+      </c>
+      <c r="AX125">
+        <v>6</v>
+      </c>
+      <c r="AY125">
+        <v>13</v>
+      </c>
+      <c r="AZ125">
+        <v>8</v>
+      </c>
+      <c r="BA125">
+        <v>6</v>
+      </c>
+      <c r="BB125">
+        <v>3</v>
+      </c>
+      <c r="BC125">
+        <v>9</v>
+      </c>
+      <c r="BD125">
+        <v>1.55</v>
+      </c>
+      <c r="BE125">
+        <v>8.5</v>
+      </c>
+      <c r="BF125">
+        <v>2.91</v>
+      </c>
+      <c r="BG125">
+        <v>1.22</v>
+      </c>
+      <c r="BH125">
+        <v>3.98</v>
+      </c>
+      <c r="BI125">
+        <v>1.41</v>
+      </c>
+      <c r="BJ125">
+        <v>2.77</v>
+      </c>
+      <c r="BK125">
+        <v>1.68</v>
+      </c>
+      <c r="BL125">
+        <v>2.11</v>
+      </c>
+      <c r="BM125">
+        <v>2.09</v>
+      </c>
+      <c r="BN125">
+        <v>1.69</v>
+      </c>
+      <c r="BO125">
+        <v>2.68</v>
+      </c>
+      <c r="BP125">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7502726</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45641.52083333334</v>
+      </c>
+      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>70</v>
+      </c>
+      <c r="H126" t="s">
+        <v>75</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>89</v>
+      </c>
+      <c r="P126" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q126">
+        <v>2.41</v>
+      </c>
+      <c r="R126">
+        <v>2.09</v>
+      </c>
+      <c r="S126">
+        <v>4.75</v>
+      </c>
+      <c r="T126">
+        <v>1.44</v>
+      </c>
+      <c r="U126">
+        <v>2.65</v>
+      </c>
+      <c r="V126">
+        <v>2.99</v>
+      </c>
+      <c r="W126">
+        <v>1.36</v>
+      </c>
+      <c r="X126">
+        <v>7.3</v>
+      </c>
+      <c r="Y126">
+        <v>1.07</v>
+      </c>
+      <c r="Z126">
+        <v>1.86</v>
+      </c>
+      <c r="AA126">
+        <v>3</v>
+      </c>
+      <c r="AB126">
+        <v>3.6</v>
+      </c>
+      <c r="AC126">
+        <v>1.03</v>
+      </c>
+      <c r="AD126">
+        <v>6.65</v>
+      </c>
+      <c r="AE126">
+        <v>1.32</v>
+      </c>
+      <c r="AF126">
+        <v>2.78</v>
+      </c>
+      <c r="AG126">
+        <v>2</v>
+      </c>
+      <c r="AH126">
+        <v>1.67</v>
+      </c>
+      <c r="AI126">
+        <v>1.9</v>
+      </c>
+      <c r="AJ126">
+        <v>1.8</v>
+      </c>
+      <c r="AK126">
+        <v>1.21</v>
+      </c>
+      <c r="AL126">
+        <v>1.28</v>
+      </c>
+      <c r="AM126">
+        <v>1.91</v>
+      </c>
+      <c r="AN126">
+        <v>1</v>
+      </c>
+      <c r="AO126">
+        <v>1.17</v>
+      </c>
+      <c r="AP126">
+        <v>0.86</v>
+      </c>
+      <c r="AQ126">
+        <v>1.43</v>
+      </c>
+      <c r="AR126">
+        <v>1.58</v>
+      </c>
+      <c r="AS126">
+        <v>1.4</v>
+      </c>
+      <c r="AT126">
+        <v>2.98</v>
+      </c>
+      <c r="AU126">
+        <v>4</v>
+      </c>
+      <c r="AV126">
+        <v>4</v>
+      </c>
+      <c r="AW126">
+        <v>4</v>
+      </c>
+      <c r="AX126">
+        <v>5</v>
+      </c>
+      <c r="AY126">
+        <v>8</v>
+      </c>
+      <c r="AZ126">
+        <v>9</v>
+      </c>
+      <c r="BA126">
+        <v>2</v>
+      </c>
+      <c r="BB126">
+        <v>2</v>
+      </c>
+      <c r="BC126">
+        <v>4</v>
+      </c>
+      <c r="BD126">
+        <v>1.55</v>
+      </c>
+      <c r="BE126">
+        <v>8.5</v>
+      </c>
+      <c r="BF126">
+        <v>2.91</v>
+      </c>
+      <c r="BG126">
+        <v>1.14</v>
+      </c>
+      <c r="BH126">
+        <v>4.33</v>
+      </c>
+      <c r="BI126">
+        <v>1.31</v>
+      </c>
+      <c r="BJ126">
+        <v>2.92</v>
+      </c>
+      <c r="BK126">
+        <v>1.56</v>
+      </c>
+      <c r="BL126">
+        <v>2.21</v>
+      </c>
+      <c r="BM126">
+        <v>1.95</v>
+      </c>
+      <c r="BN126">
+        <v>1.76</v>
+      </c>
+      <c r="BO126">
+        <v>2.51</v>
+      </c>
+      <c r="BP126">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7502721</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45641.52083333334</v>
+      </c>
+      <c r="F127">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>76</v>
+      </c>
+      <c r="H127" t="s">
+        <v>83</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127" t="s">
+        <v>89</v>
+      </c>
+      <c r="P127" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q127">
+        <v>2.76</v>
+      </c>
+      <c r="R127">
+        <v>2.08</v>
+      </c>
+      <c r="S127">
+        <v>3.82</v>
+      </c>
+      <c r="T127">
+        <v>1.4</v>
+      </c>
+      <c r="U127">
+        <v>2.82</v>
+      </c>
+      <c r="V127">
+        <v>2.94</v>
+      </c>
+      <c r="W127">
+        <v>1.37</v>
+      </c>
+      <c r="X127">
+        <v>8</v>
+      </c>
+      <c r="Y127">
+        <v>1.06</v>
+      </c>
+      <c r="Z127">
+        <v>2.08</v>
+      </c>
+      <c r="AA127">
+        <v>3.2</v>
+      </c>
+      <c r="AB127">
+        <v>3.15</v>
+      </c>
+      <c r="AC127">
+        <v>1.06</v>
+      </c>
+      <c r="AD127">
+        <v>7.2</v>
+      </c>
+      <c r="AE127">
+        <v>1.25</v>
+      </c>
+      <c r="AF127">
+        <v>3.14</v>
+      </c>
+      <c r="AG127">
+        <v>1.99</v>
+      </c>
+      <c r="AH127">
+        <v>1.83</v>
+      </c>
+      <c r="AI127">
+        <v>1.76</v>
+      </c>
+      <c r="AJ127">
+        <v>1.95</v>
+      </c>
+      <c r="AK127">
+        <v>1.32</v>
+      </c>
+      <c r="AL127">
+        <v>1.29</v>
+      </c>
+      <c r="AM127">
+        <v>1.66</v>
+      </c>
+      <c r="AN127">
+        <v>1.5</v>
+      </c>
+      <c r="AO127">
+        <v>0.83</v>
+      </c>
+      <c r="AP127">
+        <v>1.43</v>
+      </c>
+      <c r="AQ127">
+        <v>0.86</v>
+      </c>
+      <c r="AR127">
+        <v>0.99</v>
+      </c>
+      <c r="AS127">
+        <v>1.44</v>
+      </c>
+      <c r="AT127">
+        <v>2.43</v>
+      </c>
+      <c r="AU127">
+        <v>2</v>
+      </c>
+      <c r="AV127">
+        <v>3</v>
+      </c>
+      <c r="AW127">
+        <v>10</v>
+      </c>
+      <c r="AX127">
+        <v>5</v>
+      </c>
+      <c r="AY127">
+        <v>12</v>
+      </c>
+      <c r="AZ127">
+        <v>8</v>
+      </c>
+      <c r="BA127">
+        <v>4</v>
+      </c>
+      <c r="BB127">
+        <v>4</v>
+      </c>
+      <c r="BC127">
+        <v>8</v>
+      </c>
+      <c r="BD127">
+        <v>1.51</v>
+      </c>
+      <c r="BE127">
+        <v>8.5</v>
+      </c>
+      <c r="BF127">
+        <v>3.07</v>
+      </c>
+      <c r="BG127">
+        <v>1.21</v>
+      </c>
+      <c r="BH127">
+        <v>4.1</v>
+      </c>
+      <c r="BI127">
+        <v>1.4</v>
+      </c>
+      <c r="BJ127">
+        <v>2.83</v>
+      </c>
+      <c r="BK127">
+        <v>1.65</v>
+      </c>
+      <c r="BL127">
+        <v>2.15</v>
+      </c>
+      <c r="BM127">
+        <v>2</v>
+      </c>
+      <c r="BN127">
+        <v>1.8</v>
+      </c>
+      <c r="BO127">
+        <v>2.62</v>
+      </c>
+      <c r="BP127">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,10 +517,13 @@
     <t>['10', '12']</t>
   </si>
   <si>
+    <t>['22', '32']</t>
+  </si>
+  <si>
     <t>['68', '89']</t>
   </si>
   <si>
-    <t>['22', '32']</t>
+    <t>['27', '89']</t>
   </si>
   <si>
     <t>['24', '27']</t>
@@ -731,6 +734,9 @@
   </si>
   <si>
     <t>['49', '68', '90+6']</t>
+  </si>
+  <si>
+    <t>['85']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1357,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1557,7 +1563,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1763,7 +1769,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2047,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ5">
         <v>1.63</v>
@@ -2175,7 +2181,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2256,7 +2262,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ6">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2381,7 +2387,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2793,7 +2799,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3205,7 +3211,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3617,7 +3623,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3823,7 +3829,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4029,7 +4035,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4235,7 +4241,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4853,7 +4859,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5059,7 +5065,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5552,7 +5558,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ22">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5677,7 +5683,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5961,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ24">
         <v>0.43</v>
@@ -6089,7 +6095,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6501,7 +6507,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6913,7 +6919,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7119,7 +7125,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7531,7 +7537,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7737,7 +7743,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7943,7 +7949,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8149,7 +8155,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8355,7 +8361,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8767,7 +8773,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8973,7 +8979,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9257,7 +9263,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ40">
         <v>1.43</v>
@@ -9385,7 +9391,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9591,7 +9597,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10003,7 +10009,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10084,7 +10090,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ44">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR44">
         <v>1.61</v>
@@ -10209,7 +10215,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10621,7 +10627,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10827,7 +10833,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11033,7 +11039,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11239,7 +11245,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11445,7 +11451,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12063,7 +12069,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12475,7 +12481,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12681,7 +12687,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13093,7 +13099,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14329,7 +14335,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14741,7 +14747,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14947,7 +14953,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15025,7 +15031,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ68">
         <v>1.63</v>
@@ -15977,7 +15983,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16183,7 +16189,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16389,7 +16395,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16595,7 +16601,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17007,7 +17013,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17419,7 +17425,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -18037,7 +18043,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18449,7 +18455,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q85">
         <v>2.67</v>
@@ -18527,7 +18533,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ85">
         <v>1.57</v>
@@ -18655,7 +18661,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19067,7 +19073,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19354,7 +19360,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ89">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19479,7 +19485,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19685,7 +19691,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -19891,7 +19897,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20097,7 +20103,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20303,7 +20309,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20509,7 +20515,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>2.61</v>
@@ -20921,7 +20927,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21127,7 +21133,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21333,7 +21339,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -21826,7 +21832,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ101">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR101">
         <v>1.6</v>
@@ -22029,7 +22035,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ102">
         <v>0.71</v>
@@ -22157,7 +22163,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22569,7 +22575,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -22775,7 +22781,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -22981,7 +22987,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23187,7 +23193,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>2.66</v>
@@ -23393,7 +23399,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -23474,7 +23480,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ109">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR109">
         <v>1.09</v>
@@ -23599,7 +23605,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q110">
         <v>2.56</v>
@@ -24217,7 +24223,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24423,7 +24429,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24835,7 +24841,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25041,7 +25047,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25247,7 +25253,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -26071,7 +26077,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26441,7 +26447,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7502729</v>
+        <v>7502723</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26450,133 +26456,133 @@
         <v>69</v>
       </c>
       <c r="E124" s="2">
-        <v>45641.33333333334</v>
+        <v>45640.875</v>
       </c>
       <c r="F124">
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H124" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L124">
         <v>2</v>
       </c>
       <c r="M124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O124" t="s">
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>237</v>
+        <v>89</v>
       </c>
       <c r="Q124">
-        <v>2.84</v>
+        <v>2.47</v>
       </c>
       <c r="R124">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="S124">
-        <v>3.68</v>
+        <v>4.5</v>
       </c>
       <c r="T124">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="U124">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="V124">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="W124">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X124">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="Y124">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z124">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AA124">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AB124">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AC124">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AD124">
-        <v>6.85</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE124">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AF124">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="AG124">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="AH124">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AI124">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="AJ124">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AK124">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AL124">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AM124">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="AN124">
-        <v>0.57</v>
+        <v>2.33</v>
       </c>
       <c r="AO124">
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>0.88</v>
+        <v>2.43</v>
       </c>
       <c r="AQ124">
         <v>1.13</v>
       </c>
       <c r="AR124">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="AS124">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AT124">
-        <v>3.04</v>
+        <v>2.82</v>
       </c>
       <c r="AU124">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV124">
         <v>2</v>
@@ -26585,61 +26591,61 @@
         <v>7</v>
       </c>
       <c r="AX124">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY124">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ124">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BA124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC124">
         <v>9</v>
       </c>
       <c r="BD124">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="BE124">
         <v>8.5</v>
       </c>
       <c r="BF124">
-        <v>2.78</v>
+        <v>2.91</v>
       </c>
       <c r="BG124">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="BH124">
-        <v>4.25</v>
+        <v>3.98</v>
       </c>
       <c r="BI124">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="BJ124">
-        <v>2.88</v>
+        <v>2.77</v>
       </c>
       <c r="BK124">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="BL124">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
       <c r="BM124">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="BN124">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="BO124">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="BP124">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -26647,7 +26653,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7502723</v>
+        <v>7502729</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26656,133 +26662,133 @@
         <v>69</v>
       </c>
       <c r="E125" s="2">
-        <v>45641.45833333334</v>
+        <v>45641.33333333334</v>
       </c>
       <c r="F125">
         <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H125" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L125">
         <v>2</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O125" t="s">
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="Q125">
-        <v>2.47</v>
+        <v>2.84</v>
       </c>
       <c r="R125">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="S125">
-        <v>4.5</v>
+        <v>3.68</v>
       </c>
       <c r="T125">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="U125">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="V125">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="W125">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X125">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="Y125">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z125">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AA125">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AB125">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AC125">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="AD125">
-        <v>8.300000000000001</v>
+        <v>6.85</v>
       </c>
       <c r="AE125">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AF125">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="AG125">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="AH125">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AI125">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="AJ125">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="AK125">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AL125">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AM125">
-        <v>1.87</v>
+        <v>1.59</v>
       </c>
       <c r="AN125">
-        <v>2.33</v>
+        <v>0.57</v>
       </c>
       <c r="AO125">
         <v>1.29</v>
       </c>
       <c r="AP125">
-        <v>2.43</v>
+        <v>0.88</v>
       </c>
       <c r="AQ125">
         <v>1.13</v>
       </c>
       <c r="AR125">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="AS125">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AT125">
-        <v>2.82</v>
+        <v>3.04</v>
       </c>
       <c r="AU125">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV125">
         <v>2</v>
@@ -26791,61 +26797,61 @@
         <v>7</v>
       </c>
       <c r="AX125">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY125">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ125">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BA125">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC125">
         <v>9</v>
       </c>
       <c r="BD125">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="BE125">
         <v>8.5</v>
       </c>
       <c r="BF125">
-        <v>2.91</v>
+        <v>2.78</v>
       </c>
       <c r="BG125">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="BH125">
-        <v>3.98</v>
+        <v>4.25</v>
       </c>
       <c r="BI125">
+        <v>1.32</v>
+      </c>
+      <c r="BJ125">
+        <v>2.88</v>
+      </c>
+      <c r="BK125">
+        <v>1.6</v>
+      </c>
+      <c r="BL125">
+        <v>2.14</v>
+      </c>
+      <c r="BM125">
+        <v>2.02</v>
+      </c>
+      <c r="BN125">
+        <v>1.71</v>
+      </c>
+      <c r="BO125">
+        <v>2.6</v>
+      </c>
+      <c r="BP125">
         <v>1.41</v>
-      </c>
-      <c r="BJ125">
-        <v>2.77</v>
-      </c>
-      <c r="BK125">
-        <v>1.68</v>
-      </c>
-      <c r="BL125">
-        <v>2.11</v>
-      </c>
-      <c r="BM125">
-        <v>2.09</v>
-      </c>
-      <c r="BN125">
-        <v>1.69</v>
-      </c>
-      <c r="BO125">
-        <v>2.68</v>
-      </c>
-      <c r="BP125">
-        <v>1.44</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -26895,7 +26901,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27258,6 +27264,212 @@
       </c>
       <c r="BP127">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7502728</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45642.625</v>
+      </c>
+      <c r="F128">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>73</v>
+      </c>
+      <c r="H128" t="s">
+        <v>80</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>169</v>
+      </c>
+      <c r="P128" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q128">
+        <v>2.1</v>
+      </c>
+      <c r="R128">
+        <v>2.25</v>
+      </c>
+      <c r="S128">
+        <v>6</v>
+      </c>
+      <c r="T128">
+        <v>1.4</v>
+      </c>
+      <c r="U128">
+        <v>2.75</v>
+      </c>
+      <c r="V128">
+        <v>2.75</v>
+      </c>
+      <c r="W128">
+        <v>1.4</v>
+      </c>
+      <c r="X128">
+        <v>8</v>
+      </c>
+      <c r="Y128">
+        <v>1.08</v>
+      </c>
+      <c r="Z128">
+        <v>1.4</v>
+      </c>
+      <c r="AA128">
+        <v>4.8</v>
+      </c>
+      <c r="AB128">
+        <v>5.39</v>
+      </c>
+      <c r="AC128">
+        <v>1.01</v>
+      </c>
+      <c r="AD128">
+        <v>8.6</v>
+      </c>
+      <c r="AE128">
+        <v>1.28</v>
+      </c>
+      <c r="AF128">
+        <v>3.4</v>
+      </c>
+      <c r="AG128">
+        <v>1.98</v>
+      </c>
+      <c r="AH128">
+        <v>1.79</v>
+      </c>
+      <c r="AI128">
+        <v>2</v>
+      </c>
+      <c r="AJ128">
+        <v>1.73</v>
+      </c>
+      <c r="AK128">
+        <v>1.09</v>
+      </c>
+      <c r="AL128">
+        <v>1.18</v>
+      </c>
+      <c r="AM128">
+        <v>2.4</v>
+      </c>
+      <c r="AN128">
+        <v>1.67</v>
+      </c>
+      <c r="AO128">
+        <v>0.33</v>
+      </c>
+      <c r="AP128">
+        <v>1.86</v>
+      </c>
+      <c r="AQ128">
+        <v>0.29</v>
+      </c>
+      <c r="AR128">
+        <v>1.46</v>
+      </c>
+      <c r="AS128">
+        <v>1.03</v>
+      </c>
+      <c r="AT128">
+        <v>2.49</v>
+      </c>
+      <c r="AU128">
+        <v>9</v>
+      </c>
+      <c r="AV128">
+        <v>10</v>
+      </c>
+      <c r="AW128">
+        <v>5</v>
+      </c>
+      <c r="AX128">
+        <v>5</v>
+      </c>
+      <c r="AY128">
+        <v>14</v>
+      </c>
+      <c r="AZ128">
+        <v>15</v>
+      </c>
+      <c r="BA128">
+        <v>5</v>
+      </c>
+      <c r="BB128">
+        <v>3</v>
+      </c>
+      <c r="BC128">
+        <v>8</v>
+      </c>
+      <c r="BD128">
+        <v>1.43</v>
+      </c>
+      <c r="BE128">
+        <v>9.5</v>
+      </c>
+      <c r="BF128">
+        <v>3.44</v>
+      </c>
+      <c r="BG128">
+        <v>1.13</v>
+      </c>
+      <c r="BH128">
+        <v>4.5</v>
+      </c>
+      <c r="BI128">
+        <v>1.28</v>
+      </c>
+      <c r="BJ128">
+        <v>3.05</v>
+      </c>
+      <c r="BK128">
+        <v>1.53</v>
+      </c>
+      <c r="BL128">
+        <v>2.28</v>
+      </c>
+      <c r="BM128">
+        <v>1.9</v>
+      </c>
+      <c r="BN128">
+        <v>1.8</v>
+      </c>
+      <c r="BO128">
+        <v>2.42</v>
+      </c>
+      <c r="BP128">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -517,10 +517,10 @@
     <t>['10', '12']</t>
   </si>
   <si>
-    <t>['22', '32']</t>
+    <t>['68', '89']</t>
   </si>
   <si>
-    <t>['68', '89']</t>
+    <t>['22', '32']</t>
   </si>
   <si>
     <t>['27', '89']</t>
@@ -26447,7 +26447,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7502723</v>
+        <v>7502729</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26456,133 +26456,133 @@
         <v>69</v>
       </c>
       <c r="E124" s="2">
-        <v>45640.875</v>
+        <v>45641.33333333334</v>
       </c>
       <c r="F124">
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H124" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L124">
         <v>2</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O124" t="s">
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="Q124">
-        <v>2.47</v>
+        <v>2.84</v>
       </c>
       <c r="R124">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="S124">
-        <v>4.5</v>
+        <v>3.68</v>
       </c>
       <c r="T124">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="U124">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="V124">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="W124">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X124">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="Y124">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z124">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AA124">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AB124">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AC124">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="AD124">
-        <v>8.300000000000001</v>
+        <v>6.85</v>
       </c>
       <c r="AE124">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AF124">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="AG124">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="AH124">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AI124">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="AJ124">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="AK124">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AL124">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AM124">
-        <v>1.87</v>
+        <v>1.59</v>
       </c>
       <c r="AN124">
-        <v>2.33</v>
+        <v>0.57</v>
       </c>
       <c r="AO124">
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>2.43</v>
+        <v>0.88</v>
       </c>
       <c r="AQ124">
         <v>1.13</v>
       </c>
       <c r="AR124">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="AS124">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AT124">
-        <v>2.82</v>
+        <v>3.04</v>
       </c>
       <c r="AU124">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV124">
         <v>2</v>
@@ -26591,61 +26591,61 @@
         <v>7</v>
       </c>
       <c r="AX124">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY124">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ124">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BA124">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC124">
         <v>9</v>
       </c>
       <c r="BD124">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="BE124">
         <v>8.5</v>
       </c>
       <c r="BF124">
-        <v>2.91</v>
+        <v>2.78</v>
       </c>
       <c r="BG124">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="BH124">
-        <v>3.98</v>
+        <v>4.25</v>
       </c>
       <c r="BI124">
+        <v>1.32</v>
+      </c>
+      <c r="BJ124">
+        <v>2.88</v>
+      </c>
+      <c r="BK124">
+        <v>1.6</v>
+      </c>
+      <c r="BL124">
+        <v>2.14</v>
+      </c>
+      <c r="BM124">
+        <v>2.02</v>
+      </c>
+      <c r="BN124">
+        <v>1.71</v>
+      </c>
+      <c r="BO124">
+        <v>2.6</v>
+      </c>
+      <c r="BP124">
         <v>1.41</v>
-      </c>
-      <c r="BJ124">
-        <v>2.77</v>
-      </c>
-      <c r="BK124">
-        <v>1.68</v>
-      </c>
-      <c r="BL124">
-        <v>2.11</v>
-      </c>
-      <c r="BM124">
-        <v>2.09</v>
-      </c>
-      <c r="BN124">
-        <v>1.69</v>
-      </c>
-      <c r="BO124">
-        <v>2.68</v>
-      </c>
-      <c r="BP124">
-        <v>1.44</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -26653,7 +26653,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7502729</v>
+        <v>7502723</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26662,133 +26662,133 @@
         <v>69</v>
       </c>
       <c r="E125" s="2">
-        <v>45641.33333333334</v>
+        <v>45641.45833333334</v>
       </c>
       <c r="F125">
         <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H125" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L125">
         <v>2</v>
       </c>
       <c r="M125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O125" t="s">
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="Q125">
-        <v>2.84</v>
+        <v>2.47</v>
       </c>
       <c r="R125">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="S125">
-        <v>3.68</v>
+        <v>4.5</v>
       </c>
       <c r="T125">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="U125">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="V125">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="W125">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X125">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="Y125">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z125">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AA125">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AB125">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AC125">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AD125">
-        <v>6.85</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE125">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AF125">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="AG125">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="AH125">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AI125">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="AJ125">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AK125">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AL125">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AM125">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="AN125">
-        <v>0.57</v>
+        <v>2.33</v>
       </c>
       <c r="AO125">
         <v>1.29</v>
       </c>
       <c r="AP125">
-        <v>0.88</v>
+        <v>2.43</v>
       </c>
       <c r="AQ125">
         <v>1.13</v>
       </c>
       <c r="AR125">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="AS125">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AT125">
-        <v>3.04</v>
+        <v>2.82</v>
       </c>
       <c r="AU125">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV125">
         <v>2</v>
@@ -26797,61 +26797,61 @@
         <v>7</v>
       </c>
       <c r="AX125">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY125">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ125">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BA125">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC125">
         <v>9</v>
       </c>
       <c r="BD125">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="BE125">
         <v>8.5</v>
       </c>
       <c r="BF125">
-        <v>2.78</v>
+        <v>2.91</v>
       </c>
       <c r="BG125">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="BH125">
-        <v>4.25</v>
+        <v>3.98</v>
       </c>
       <c r="BI125">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="BJ125">
-        <v>2.88</v>
+        <v>2.77</v>
       </c>
       <c r="BK125">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="BL125">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
       <c r="BM125">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="BN125">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="BO125">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="BP125">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="126" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -27000,16 +27000,16 @@
         <v>4</v>
       </c>
       <c r="AW126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX126">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY126">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ126">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA126">
         <v>2</v>
@@ -27212,10 +27212,10 @@
         <v>5</v>
       </c>
       <c r="AY127">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ127">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA127">
         <v>4</v>
@@ -27412,16 +27412,16 @@
         <v>10</v>
       </c>
       <c r="AW128">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX128">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY128">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ128">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA128">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>['27', '89']</t>
+  </si>
+  <si>
+    <t>['65', '90+5']</t>
   </si>
   <si>
     <t>['24', '27']</t>
@@ -1098,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,7 +1360,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1563,7 +1566,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1769,7 +1772,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1847,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ4">
         <v>1.57</v>
@@ -2181,7 +2184,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2387,7 +2390,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2799,7 +2802,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3211,7 +3214,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3498,7 +3501,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3623,7 +3626,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3829,7 +3832,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4035,7 +4038,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4241,7 +4244,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4859,7 +4862,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5065,7 +5068,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5683,7 +5686,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5761,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ23">
         <v>1.43</v>
@@ -6095,7 +6098,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6507,7 +6510,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6919,7 +6922,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7125,7 +7128,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7537,7 +7540,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7743,7 +7746,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7949,7 +7952,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8155,7 +8158,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8361,7 +8364,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8442,7 +8445,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR36">
         <v>0.91</v>
@@ -8773,7 +8776,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8979,7 +8982,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9391,7 +9394,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9597,7 +9600,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10009,7 +10012,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10215,7 +10218,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10293,7 +10296,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ45">
         <v>1.13</v>
@@ -10627,7 +10630,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10833,7 +10836,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11039,7 +11042,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11245,7 +11248,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11451,7 +11454,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12069,7 +12072,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12356,7 +12359,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -12481,7 +12484,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12687,7 +12690,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13099,7 +13102,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13383,7 +13386,7 @@
         <v>0.67</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ60">
         <v>1.13</v>
@@ -14335,7 +14338,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14747,7 +14750,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14953,7 +14956,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15652,7 +15655,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR71">
         <v>0.8</v>
@@ -15983,7 +15986,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16189,7 +16192,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16395,7 +16398,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16601,7 +16604,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17013,7 +17016,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17297,7 +17300,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ79">
         <v>0.43</v>
@@ -17425,7 +17428,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -18043,7 +18046,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18455,7 +18458,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q85">
         <v>2.67</v>
@@ -18661,7 +18664,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -18742,7 +18745,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -19073,7 +19076,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19485,7 +19488,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19691,7 +19694,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -19897,7 +19900,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20103,7 +20106,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20309,7 +20312,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20515,76 +20518,76 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q95">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="S95">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="T95">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U95">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="V95">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="W95">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="X95">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="Y95">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="Z95">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AA95">
         <v>0</v>
       </c>
       <c r="AB95">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AC95">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AD95">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AE95">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF95">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AG95">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AH95">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AI95">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AJ95">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="AK95">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AL95">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AM95">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AN95">
         <v>0.8</v>
@@ -20635,43 +20638,43 @@
         <v>9</v>
       </c>
       <c r="BD95">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BE95">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="BF95">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="BG95">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="BH95">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="BI95">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="BJ95">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="BK95">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="BL95">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="BM95">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BN95">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="BO95">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="BP95">
-        <v>1.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -20724,73 +20727,73 @@
         <v>116</v>
       </c>
       <c r="Q96">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="S96">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T96">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="U96">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="V96">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="W96">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X96">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="Y96">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="Z96">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AA96">
         <v>0</v>
       </c>
       <c r="AB96">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AC96">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD96">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="AE96">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AF96">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="AG96">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AH96">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AI96">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AJ96">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AK96">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AL96">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AM96">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AN96">
         <v>2</v>
@@ -20799,7 +20802,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ96">
         <v>1.63</v>
@@ -20841,43 +20844,43 @@
         <v>13</v>
       </c>
       <c r="BD96">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="BE96">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BF96">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="BG96">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="BH96">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="BI96">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="BJ96">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="BK96">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="BL96">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="BM96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BN96">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BO96">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BP96">
-        <v>1.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -20927,7 +20930,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21133,7 +21136,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21339,7 +21342,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22163,7 +22166,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22575,7 +22578,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -22781,7 +22784,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -22987,7 +22990,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23068,7 +23071,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR107">
         <v>1.21</v>
@@ -23193,7 +23196,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>2.66</v>
@@ -23399,7 +23402,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -23605,7 +23608,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>2.56</v>
@@ -24223,7 +24226,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24429,7 +24432,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24507,7 +24510,7 @@
         <v>1.6</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ114">
         <v>1.5</v>
@@ -24841,7 +24844,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25047,7 +25050,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25253,7 +25256,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -26077,7 +26080,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26489,7 +26492,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -26901,7 +26904,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27313,7 +27316,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -27470,6 +27473,212 @@
       </c>
       <c r="BP128">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7502738</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45646.625</v>
+      </c>
+      <c r="F129">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>72</v>
+      </c>
+      <c r="H129" t="s">
+        <v>71</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>170</v>
+      </c>
+      <c r="P129" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q129">
+        <v>2.47</v>
+      </c>
+      <c r="R129">
+        <v>1.97</v>
+      </c>
+      <c r="S129">
+        <v>5.2</v>
+      </c>
+      <c r="T129">
+        <v>1.52</v>
+      </c>
+      <c r="U129">
+        <v>2.43</v>
+      </c>
+      <c r="V129">
+        <v>3.48</v>
+      </c>
+      <c r="W129">
+        <v>1.28</v>
+      </c>
+      <c r="X129">
+        <v>9.4</v>
+      </c>
+      <c r="Y129">
+        <v>1.04</v>
+      </c>
+      <c r="Z129">
+        <v>1.8</v>
+      </c>
+      <c r="AA129">
+        <v>3.1</v>
+      </c>
+      <c r="AB129">
+        <v>4.2</v>
+      </c>
+      <c r="AC129">
+        <v>1.05</v>
+      </c>
+      <c r="AD129">
+        <v>6.65</v>
+      </c>
+      <c r="AE129">
+        <v>1.42</v>
+      </c>
+      <c r="AF129">
+        <v>2.5</v>
+      </c>
+      <c r="AG129">
+        <v>2.3</v>
+      </c>
+      <c r="AH129">
+        <v>1.5</v>
+      </c>
+      <c r="AI129">
+        <v>2.14</v>
+      </c>
+      <c r="AJ129">
+        <v>1.63</v>
+      </c>
+      <c r="AK129">
+        <v>1.18</v>
+      </c>
+      <c r="AL129">
+        <v>1.3</v>
+      </c>
+      <c r="AM129">
+        <v>1.92</v>
+      </c>
+      <c r="AN129">
+        <v>2</v>
+      </c>
+      <c r="AO129">
+        <v>1</v>
+      </c>
+      <c r="AP129">
+        <v>2.13</v>
+      </c>
+      <c r="AQ129">
+        <v>0.86</v>
+      </c>
+      <c r="AR129">
+        <v>1.3</v>
+      </c>
+      <c r="AS129">
+        <v>1.08</v>
+      </c>
+      <c r="AT129">
+        <v>2.38</v>
+      </c>
+      <c r="AU129">
+        <v>3</v>
+      </c>
+      <c r="AV129">
+        <v>4</v>
+      </c>
+      <c r="AW129">
+        <v>9</v>
+      </c>
+      <c r="AX129">
+        <v>11</v>
+      </c>
+      <c r="AY129">
+        <v>12</v>
+      </c>
+      <c r="AZ129">
+        <v>15</v>
+      </c>
+      <c r="BA129">
+        <v>8</v>
+      </c>
+      <c r="BB129">
+        <v>3</v>
+      </c>
+      <c r="BC129">
+        <v>11</v>
+      </c>
+      <c r="BD129">
+        <v>1.49</v>
+      </c>
+      <c r="BE129">
+        <v>6.3</v>
+      </c>
+      <c r="BF129">
+        <v>3.35</v>
+      </c>
+      <c r="BG129">
+        <v>1.26</v>
+      </c>
+      <c r="BH129">
+        <v>3.4</v>
+      </c>
+      <c r="BI129">
+        <v>1.52</v>
+      </c>
+      <c r="BJ129">
+        <v>2.32</v>
+      </c>
+      <c r="BK129">
+        <v>1.92</v>
+      </c>
+      <c r="BL129">
+        <v>1.75</v>
+      </c>
+      <c r="BM129">
+        <v>2.6</v>
+      </c>
+      <c r="BN129">
+        <v>1.43</v>
+      </c>
+      <c r="BO129">
+        <v>3.55</v>
+      </c>
+      <c r="BP129">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,15 @@
     <t>['65', '90+5']</t>
   </si>
   <si>
+    <t>['4', '86']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['43', '47']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -740,6 +749,12 @@
   </si>
   <si>
     <t>['85']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['34', '65']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1360,7 +1375,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1441,7 +1456,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ2">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1566,7 +1581,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1772,7 +1787,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2184,7 +2199,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2390,7 +2405,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2802,7 +2817,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3214,7 +3229,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3626,7 +3641,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3704,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ13">
         <v>1.43</v>
@@ -3832,7 +3847,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4038,7 +4053,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4119,7 +4134,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ15">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4244,7 +4259,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4322,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ16">
         <v>2.17</v>
@@ -4528,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ17">
         <v>0.71</v>
@@ -4862,7 +4877,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4943,7 +4958,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ19">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5068,7 +5083,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5686,7 +5701,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5973,7 +5988,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ24">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR24">
         <v>1.31</v>
@@ -6098,7 +6113,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6179,7 +6194,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ25">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR25">
         <v>1.23</v>
@@ -6510,7 +6525,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6922,7 +6937,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7003,7 +7018,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ29">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.08</v>
@@ -7128,7 +7143,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7540,7 +7555,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7618,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ32">
         <v>1.43</v>
@@ -7746,7 +7761,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7824,7 +7839,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ33">
         <v>1.63</v>
@@ -7952,7 +7967,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8158,7 +8173,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8364,7 +8379,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8442,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ36">
         <v>0.86</v>
@@ -8776,7 +8791,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8982,7 +8997,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9394,7 +9409,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9600,7 +9615,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9681,7 +9696,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR42">
         <v>1.42</v>
@@ -9887,7 +9902,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ43">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR43">
         <v>1.55</v>
@@ -10012,7 +10027,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10218,7 +10233,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10630,7 +10645,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10708,7 +10723,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ47">
         <v>1.43</v>
@@ -10836,7 +10851,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11042,7 +11057,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11120,7 +11135,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ49">
         <v>2.17</v>
@@ -11248,7 +11263,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11329,7 +11344,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ50">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.2</v>
@@ -11454,7 +11469,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12072,7 +12087,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12356,7 +12371,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ55">
         <v>0.86</v>
@@ -12484,7 +12499,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12565,7 +12580,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ56">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -12690,7 +12705,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12771,7 +12786,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ57">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -12977,7 +12992,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ58">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR58">
         <v>1.6</v>
@@ -13102,7 +13117,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14338,7 +14353,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14750,7 +14765,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14956,7 +14971,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15446,7 +15461,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ70">
         <v>0.86</v>
@@ -15986,7 +16001,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16067,7 +16082,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ73">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>1.18</v>
@@ -16192,7 +16207,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16398,7 +16413,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16604,7 +16619,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16685,7 +16700,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ76">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR76">
         <v>1.55</v>
@@ -17016,7 +17031,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17303,7 +17318,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ79">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR79">
         <v>1.3</v>
@@ -17428,7 +17443,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17918,7 +17933,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ82">
         <v>1.13</v>
@@ -18046,7 +18061,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18330,7 +18345,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ84">
         <v>1.43</v>
@@ -18458,7 +18473,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q85">
         <v>2.67</v>
@@ -18664,7 +18679,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19076,7 +19091,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19488,7 +19503,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19566,7 +19581,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ90">
         <v>1.63</v>
@@ -19694,7 +19709,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -19900,7 +19915,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20106,7 +20121,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20187,7 +20202,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.22</v>
@@ -20312,7 +20327,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20393,7 +20408,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ94">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR94">
         <v>1.74</v>
@@ -20518,7 +20533,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -20599,7 +20614,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ95">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR95">
         <v>1.56</v>
@@ -20930,7 +20945,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21136,7 +21151,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21342,7 +21357,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -21420,7 +21435,7 @@
         <v>1.75</v>
       </c>
       <c r="AP99">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ99">
         <v>1.57</v>
@@ -21832,7 +21847,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ101">
         <v>0.29</v>
@@ -22166,7 +22181,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22578,7 +22593,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -22656,7 +22671,7 @@
         <v>1.67</v>
       </c>
       <c r="AP105">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ105">
         <v>1.63</v>
@@ -22784,7 +22799,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -22990,7 +23005,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23196,7 +23211,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>2.66</v>
@@ -23402,7 +23417,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -23608,7 +23623,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>2.56</v>
@@ -24101,7 +24116,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ112">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR112">
         <v>1.41</v>
@@ -24226,7 +24241,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24432,7 +24447,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24844,7 +24859,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25050,7 +25065,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25256,7 +25271,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25334,10 +25349,10 @@
         <v>0.5</v>
       </c>
       <c r="AP118">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ118">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -25540,10 +25555,10 @@
         <v>2</v>
       </c>
       <c r="AP119">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ119">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR119">
         <v>1.64</v>
@@ -26080,7 +26095,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26492,7 +26507,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -26904,7 +26919,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27316,7 +27331,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -27489,7 +27504,7 @@
         <v>69</v>
       </c>
       <c r="E129" s="2">
-        <v>45646.625</v>
+        <v>45645.875</v>
       </c>
       <c r="F129">
         <v>15</v>
@@ -27679,6 +27694,624 @@
       </c>
       <c r="BP129">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7502732</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45647.33333333334</v>
+      </c>
+      <c r="F130">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>84</v>
+      </c>
+      <c r="H130" t="s">
+        <v>76</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>171</v>
+      </c>
+      <c r="P130" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q130">
+        <v>2.49</v>
+      </c>
+      <c r="R130">
+        <v>2.14</v>
+      </c>
+      <c r="S130">
+        <v>4.25</v>
+      </c>
+      <c r="T130">
+        <v>1.37</v>
+      </c>
+      <c r="U130">
+        <v>2.95</v>
+      </c>
+      <c r="V130">
+        <v>2.82</v>
+      </c>
+      <c r="W130">
+        <v>1.4</v>
+      </c>
+      <c r="X130">
+        <v>7.5</v>
+      </c>
+      <c r="Y130">
+        <v>1.07</v>
+      </c>
+      <c r="Z130">
+        <v>1.9</v>
+      </c>
+      <c r="AA130">
+        <v>3.3</v>
+      </c>
+      <c r="AB130">
+        <v>3.75</v>
+      </c>
+      <c r="AC130">
+        <v>1.01</v>
+      </c>
+      <c r="AD130">
+        <v>8.9</v>
+      </c>
+      <c r="AE130">
+        <v>1.24</v>
+      </c>
+      <c r="AF130">
+        <v>3.36</v>
+      </c>
+      <c r="AG130">
+        <v>1.92</v>
+      </c>
+      <c r="AH130">
+        <v>1.9</v>
+      </c>
+      <c r="AI130">
+        <v>1.74</v>
+      </c>
+      <c r="AJ130">
+        <v>1.98</v>
+      </c>
+      <c r="AK130">
+        <v>1.26</v>
+      </c>
+      <c r="AL130">
+        <v>1.27</v>
+      </c>
+      <c r="AM130">
+        <v>1.82</v>
+      </c>
+      <c r="AN130">
+        <v>0.83</v>
+      </c>
+      <c r="AO130">
+        <v>0.43</v>
+      </c>
+      <c r="AP130">
+        <v>1.14</v>
+      </c>
+      <c r="AQ130">
+        <v>0.38</v>
+      </c>
+      <c r="AR130">
+        <v>1.55</v>
+      </c>
+      <c r="AS130">
+        <v>1.55</v>
+      </c>
+      <c r="AT130">
+        <v>3.1</v>
+      </c>
+      <c r="AU130">
+        <v>8</v>
+      </c>
+      <c r="AV130">
+        <v>4</v>
+      </c>
+      <c r="AW130">
+        <v>8</v>
+      </c>
+      <c r="AX130">
+        <v>4</v>
+      </c>
+      <c r="AY130">
+        <v>16</v>
+      </c>
+      <c r="AZ130">
+        <v>8</v>
+      </c>
+      <c r="BA130">
+        <v>6</v>
+      </c>
+      <c r="BB130">
+        <v>3</v>
+      </c>
+      <c r="BC130">
+        <v>9</v>
+      </c>
+      <c r="BD130">
+        <v>1.52</v>
+      </c>
+      <c r="BE130">
+        <v>6.4</v>
+      </c>
+      <c r="BF130">
+        <v>3.15</v>
+      </c>
+      <c r="BG130">
+        <v>1.16</v>
+      </c>
+      <c r="BH130">
+        <v>4.2</v>
+      </c>
+      <c r="BI130">
+        <v>1.31</v>
+      </c>
+      <c r="BJ130">
+        <v>3.05</v>
+      </c>
+      <c r="BK130">
+        <v>1.6</v>
+      </c>
+      <c r="BL130">
+        <v>2.18</v>
+      </c>
+      <c r="BM130">
+        <v>2</v>
+      </c>
+      <c r="BN130">
+        <v>1.7</v>
+      </c>
+      <c r="BO130">
+        <v>2.68</v>
+      </c>
+      <c r="BP130">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7502734</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45647.45833333334</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>81</v>
+      </c>
+      <c r="H131" t="s">
+        <v>73</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>172</v>
+      </c>
+      <c r="P131" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q131">
+        <v>3.44</v>
+      </c>
+      <c r="R131">
+        <v>2.01</v>
+      </c>
+      <c r="S131">
+        <v>3.15</v>
+      </c>
+      <c r="T131">
+        <v>1.46</v>
+      </c>
+      <c r="U131">
+        <v>2.6</v>
+      </c>
+      <c r="V131">
+        <v>3.15</v>
+      </c>
+      <c r="W131">
+        <v>1.33</v>
+      </c>
+      <c r="X131">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y131">
+        <v>1.05</v>
+      </c>
+      <c r="Z131">
+        <v>2.79</v>
+      </c>
+      <c r="AA131">
+        <v>3.16</v>
+      </c>
+      <c r="AB131">
+        <v>2.57</v>
+      </c>
+      <c r="AC131">
+        <v>1.03</v>
+      </c>
+      <c r="AD131">
+        <v>7.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.34</v>
+      </c>
+      <c r="AF131">
+        <v>2.79</v>
+      </c>
+      <c r="AG131">
+        <v>2.1</v>
+      </c>
+      <c r="AH131">
+        <v>1.6</v>
+      </c>
+      <c r="AI131">
+        <v>1.85</v>
+      </c>
+      <c r="AJ131">
+        <v>1.85</v>
+      </c>
+      <c r="AK131">
+        <v>1.49</v>
+      </c>
+      <c r="AL131">
+        <v>1.32</v>
+      </c>
+      <c r="AM131">
+        <v>1.42</v>
+      </c>
+      <c r="AN131">
+        <v>0.67</v>
+      </c>
+      <c r="AO131">
+        <v>1.57</v>
+      </c>
+      <c r="AP131">
+        <v>0.71</v>
+      </c>
+      <c r="AQ131">
+        <v>1.5</v>
+      </c>
+      <c r="AR131">
+        <v>1.36</v>
+      </c>
+      <c r="AS131">
+        <v>1.21</v>
+      </c>
+      <c r="AT131">
+        <v>2.57</v>
+      </c>
+      <c r="AU131">
+        <v>7</v>
+      </c>
+      <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
+        <v>7</v>
+      </c>
+      <c r="AX131">
+        <v>4</v>
+      </c>
+      <c r="AY131">
+        <v>14</v>
+      </c>
+      <c r="AZ131">
+        <v>9</v>
+      </c>
+      <c r="BA131">
+        <v>7</v>
+      </c>
+      <c r="BB131">
+        <v>5</v>
+      </c>
+      <c r="BC131">
+        <v>12</v>
+      </c>
+      <c r="BD131">
+        <v>2.3</v>
+      </c>
+      <c r="BE131">
+        <v>6</v>
+      </c>
+      <c r="BF131">
+        <v>1.9</v>
+      </c>
+      <c r="BG131">
+        <v>1.14</v>
+      </c>
+      <c r="BH131">
+        <v>4.45</v>
+      </c>
+      <c r="BI131">
+        <v>1.32</v>
+      </c>
+      <c r="BJ131">
+        <v>3</v>
+      </c>
+      <c r="BK131">
+        <v>1.58</v>
+      </c>
+      <c r="BL131">
+        <v>2.2</v>
+      </c>
+      <c r="BM131">
+        <v>2</v>
+      </c>
+      <c r="BN131">
+        <v>1.7</v>
+      </c>
+      <c r="BO131">
+        <v>2.7</v>
+      </c>
+      <c r="BP131">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7502736</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45647.52083333334</v>
+      </c>
+      <c r="F132">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>85</v>
+      </c>
+      <c r="H132" t="s">
+        <v>87</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>4</v>
+      </c>
+      <c r="O132" t="s">
+        <v>173</v>
+      </c>
+      <c r="P132" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q132">
+        <v>2.94</v>
+      </c>
+      <c r="R132">
+        <v>2.01</v>
+      </c>
+      <c r="S132">
+        <v>3.74</v>
+      </c>
+      <c r="T132">
+        <v>1.46</v>
+      </c>
+      <c r="U132">
+        <v>2.6</v>
+      </c>
+      <c r="V132">
+        <v>3.15</v>
+      </c>
+      <c r="W132">
+        <v>1.33</v>
+      </c>
+      <c r="X132">
+        <v>8.4</v>
+      </c>
+      <c r="Y132">
+        <v>1.05</v>
+      </c>
+      <c r="Z132">
+        <v>2.15</v>
+      </c>
+      <c r="AA132">
+        <v>3</v>
+      </c>
+      <c r="AB132">
+        <v>3.1</v>
+      </c>
+      <c r="AC132">
+        <v>1.03</v>
+      </c>
+      <c r="AD132">
+        <v>7.4</v>
+      </c>
+      <c r="AE132">
+        <v>1.34</v>
+      </c>
+      <c r="AF132">
+        <v>2.79</v>
+      </c>
+      <c r="AG132">
+        <v>2.1</v>
+      </c>
+      <c r="AH132">
+        <v>1.65</v>
+      </c>
+      <c r="AI132">
+        <v>1.87</v>
+      </c>
+      <c r="AJ132">
+        <v>1.83</v>
+      </c>
+      <c r="AK132">
+        <v>1.36</v>
+      </c>
+      <c r="AL132">
+        <v>1.32</v>
+      </c>
+      <c r="AM132">
+        <v>1.57</v>
+      </c>
+      <c r="AN132">
+        <v>1.83</v>
+      </c>
+      <c r="AO132">
+        <v>1.86</v>
+      </c>
+      <c r="AP132">
+        <v>1.71</v>
+      </c>
+      <c r="AQ132">
+        <v>1.75</v>
+      </c>
+      <c r="AR132">
+        <v>1.39</v>
+      </c>
+      <c r="AS132">
+        <v>1.34</v>
+      </c>
+      <c r="AT132">
+        <v>2.73</v>
+      </c>
+      <c r="AU132">
+        <v>4</v>
+      </c>
+      <c r="AV132">
+        <v>7</v>
+      </c>
+      <c r="AW132">
+        <v>1</v>
+      </c>
+      <c r="AX132">
+        <v>4</v>
+      </c>
+      <c r="AY132">
+        <v>5</v>
+      </c>
+      <c r="AZ132">
+        <v>11</v>
+      </c>
+      <c r="BA132">
+        <v>5</v>
+      </c>
+      <c r="BB132">
+        <v>5</v>
+      </c>
+      <c r="BC132">
+        <v>10</v>
+      </c>
+      <c r="BD132">
+        <v>1.62</v>
+      </c>
+      <c r="BE132">
+        <v>6.2</v>
+      </c>
+      <c r="BF132">
+        <v>2.82</v>
+      </c>
+      <c r="BG132">
+        <v>1.15</v>
+      </c>
+      <c r="BH132">
+        <v>4.2</v>
+      </c>
+      <c r="BI132">
+        <v>1.32</v>
+      </c>
+      <c r="BJ132">
+        <v>3</v>
+      </c>
+      <c r="BK132">
+        <v>1.58</v>
+      </c>
+      <c r="BL132">
+        <v>2.2</v>
+      </c>
+      <c r="BM132">
+        <v>2</v>
+      </c>
+      <c r="BN132">
+        <v>1.7</v>
+      </c>
+      <c r="BO132">
+        <v>2.7</v>
+      </c>
+      <c r="BP132">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,12 @@
     <t>['43', '47']</t>
   </si>
   <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['2', '90']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -755,6 +761,12 @@
   </si>
   <si>
     <t>['34', '65']</t>
+  </si>
+  <si>
+    <t>['30', '34', '88']</t>
+  </si>
+  <si>
+    <t>['22', '68']</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP132"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1387,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1581,7 +1593,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1787,7 +1799,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2199,7 +2211,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2405,7 +2417,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2483,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ7">
         <v>0.86</v>
@@ -2692,7 +2704,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ8">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2817,7 +2829,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3229,7 +3241,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3310,7 +3322,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3513,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ12">
         <v>0.86</v>
@@ -3641,7 +3653,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3722,7 +3734,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ13">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3847,7 +3859,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3925,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ14">
         <v>1.63</v>
@@ -4053,7 +4065,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4259,7 +4271,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4340,7 +4352,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ16">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4749,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1.43</v>
@@ -4877,7 +4889,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5083,7 +5095,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5164,7 +5176,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ20">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>1.01</v>
@@ -5573,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ22">
         <v>0.29</v>
@@ -5701,7 +5713,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6113,7 +6125,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6525,7 +6537,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6809,7 +6821,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1.13</v>
@@ -6937,7 +6949,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7143,7 +7155,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7221,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ30">
         <v>0.71</v>
@@ -7430,7 +7442,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR31">
         <v>1.31</v>
@@ -7555,7 +7567,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7761,7 +7773,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7967,7 +7979,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8173,7 +8185,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8251,10 +8263,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ35">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR35">
         <v>1.95</v>
@@ -8379,7 +8391,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8666,7 +8678,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ37">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR37">
         <v>0.82</v>
@@ -8791,7 +8803,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8869,7 +8881,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ38">
         <v>1.13</v>
@@ -8997,7 +9009,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9284,7 +9296,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ40">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -9409,7 +9421,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9490,7 +9502,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ41">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9615,7 +9627,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10027,7 +10039,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10105,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>0.29</v>
@@ -10233,7 +10245,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10645,7 +10657,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10851,7 +10863,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10929,7 +10941,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ48">
         <v>1.57</v>
@@ -11057,7 +11069,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11138,7 +11150,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ49">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR49">
         <v>1.23</v>
@@ -11263,7 +11275,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11469,7 +11481,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11550,7 +11562,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR51">
         <v>1.12</v>
@@ -11753,7 +11765,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ52">
         <v>0.86</v>
@@ -12087,7 +12099,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12499,7 +12511,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12577,7 +12589,7 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ56">
         <v>1.75</v>
@@ -12705,7 +12717,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13117,7 +13129,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13195,7 +13207,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ59">
         <v>1.43</v>
@@ -13816,7 +13828,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ62">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR62">
         <v>1.41</v>
@@ -14022,7 +14034,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.24</v>
@@ -14225,7 +14237,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>1.63</v>
@@ -14353,7 +14365,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14434,7 +14446,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR65">
         <v>1.18</v>
@@ -14765,7 +14777,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14846,7 +14858,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ67">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR67">
         <v>1.38</v>
@@ -14971,7 +14983,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15255,7 +15267,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ69">
         <v>1.43</v>
@@ -15873,7 +15885,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -16001,7 +16013,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16207,7 +16219,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16285,7 +16297,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ74">
         <v>1.63</v>
@@ -16413,7 +16425,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16619,7 +16631,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16697,7 +16709,7 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
         <v>1.75</v>
@@ -16903,10 +16915,10 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ77">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.55</v>
@@ -17031,7 +17043,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17443,7 +17455,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17524,7 +17536,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR80">
         <v>1.09</v>
@@ -18061,7 +18073,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18142,7 +18154,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ83">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR83">
         <v>1.45</v>
@@ -18473,7 +18485,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q85">
         <v>2.67</v>
@@ -18679,7 +18691,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19091,7 +19103,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19503,7 +19515,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19709,7 +19721,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -19790,7 +19802,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR91">
         <v>1.19</v>
@@ -19915,7 +19927,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -19993,7 +20005,7 @@
         <v>0.6</v>
       </c>
       <c r="AP92">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ92">
         <v>1.13</v>
@@ -20121,7 +20133,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20327,7 +20339,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20533,7 +20545,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -20611,7 +20623,7 @@
         <v>0.4</v>
       </c>
       <c r="AP95">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ95">
         <v>0.38</v>
@@ -20945,7 +20957,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21023,10 +21035,10 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21151,7 +21163,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21229,10 +21241,10 @@
         <v>1.4</v>
       </c>
       <c r="AP98">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ98">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR98">
         <v>1.44</v>
@@ -21357,7 +21369,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22181,7 +22193,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22593,7 +22605,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -22799,7 +22811,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23005,7 +23017,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23211,7 +23223,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>2.66</v>
@@ -23417,7 +23429,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -23623,7 +23635,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>2.56</v>
@@ -23910,7 +23922,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ111">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR111">
         <v>1.61</v>
@@ -24113,7 +24125,7 @@
         <v>1.83</v>
       </c>
       <c r="AP112">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ112">
         <v>1.5</v>
@@ -24241,7 +24253,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24319,10 +24331,10 @@
         <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ113">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR113">
         <v>1.52</v>
@@ -24447,7 +24459,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24528,7 +24540,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ114">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR114">
         <v>1.37</v>
@@ -24731,7 +24743,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ115">
         <v>1.13</v>
@@ -24859,7 +24871,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -24937,10 +24949,10 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ116">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR116">
         <v>1.1</v>
@@ -25065,7 +25077,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25271,7 +25283,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -26095,7 +26107,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26507,7 +26519,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -26919,7 +26931,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27331,7 +27343,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -27504,7 +27516,7 @@
         <v>69</v>
       </c>
       <c r="E129" s="2">
-        <v>45645.875</v>
+        <v>45646.625</v>
       </c>
       <c r="F129">
         <v>15</v>
@@ -27743,7 +27755,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -27919,7 +27931,7 @@
         <v>45647.45833333334</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G131" t="s">
         <v>81</v>
@@ -28155,7 +28167,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28312,6 +28324,830 @@
       </c>
       <c r="BP132">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7502730</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45648.33333333334</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H133" t="s">
+        <v>79</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>2</v>
+      </c>
+      <c r="K133">
+        <v>3</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>3</v>
+      </c>
+      <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133" t="s">
+        <v>161</v>
+      </c>
+      <c r="P133" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q133">
+        <v>3</v>
+      </c>
+      <c r="R133">
+        <v>2</v>
+      </c>
+      <c r="S133">
+        <v>3.6</v>
+      </c>
+      <c r="T133">
+        <v>1.45</v>
+      </c>
+      <c r="U133">
+        <v>2.55</v>
+      </c>
+      <c r="V133">
+        <v>3.05</v>
+      </c>
+      <c r="W133">
+        <v>1.33</v>
+      </c>
+      <c r="X133">
+        <v>7.9</v>
+      </c>
+      <c r="Y133">
+        <v>1.05</v>
+      </c>
+      <c r="Z133">
+        <v>2.25</v>
+      </c>
+      <c r="AA133">
+        <v>3.1</v>
+      </c>
+      <c r="AB133">
+        <v>2.87</v>
+      </c>
+      <c r="AC133">
+        <v>1.04</v>
+      </c>
+      <c r="AD133">
+        <v>6.8</v>
+      </c>
+      <c r="AE133">
+        <v>1.36</v>
+      </c>
+      <c r="AF133">
+        <v>3</v>
+      </c>
+      <c r="AG133">
+        <v>2.05</v>
+      </c>
+      <c r="AH133">
+        <v>1.65</v>
+      </c>
+      <c r="AI133">
+        <v>1.83</v>
+      </c>
+      <c r="AJ133">
+        <v>1.9</v>
+      </c>
+      <c r="AK133">
+        <v>1.36</v>
+      </c>
+      <c r="AL133">
+        <v>1.28</v>
+      </c>
+      <c r="AM133">
+        <v>1.57</v>
+      </c>
+      <c r="AN133">
+        <v>0.71</v>
+      </c>
+      <c r="AO133">
+        <v>1.29</v>
+      </c>
+      <c r="AP133">
+        <v>0.63</v>
+      </c>
+      <c r="AQ133">
+        <v>1.5</v>
+      </c>
+      <c r="AR133">
+        <v>1.63</v>
+      </c>
+      <c r="AS133">
+        <v>1.19</v>
+      </c>
+      <c r="AT133">
+        <v>2.82</v>
+      </c>
+      <c r="AU133">
+        <v>5</v>
+      </c>
+      <c r="AV133">
+        <v>6</v>
+      </c>
+      <c r="AW133">
+        <v>13</v>
+      </c>
+      <c r="AX133">
+        <v>5</v>
+      </c>
+      <c r="AY133">
+        <v>18</v>
+      </c>
+      <c r="AZ133">
+        <v>11</v>
+      </c>
+      <c r="BA133">
+        <v>6</v>
+      </c>
+      <c r="BB133">
+        <v>5</v>
+      </c>
+      <c r="BC133">
+        <v>11</v>
+      </c>
+      <c r="BD133">
+        <v>1.82</v>
+      </c>
+      <c r="BE133">
+        <v>6</v>
+      </c>
+      <c r="BF133">
+        <v>2.4</v>
+      </c>
+      <c r="BG133">
+        <v>1.14</v>
+      </c>
+      <c r="BH133">
+        <v>4.45</v>
+      </c>
+      <c r="BI133">
+        <v>1.29</v>
+      </c>
+      <c r="BJ133">
+        <v>3.25</v>
+      </c>
+      <c r="BK133">
+        <v>1.55</v>
+      </c>
+      <c r="BL133">
+        <v>2.28</v>
+      </c>
+      <c r="BM133">
+        <v>1.92</v>
+      </c>
+      <c r="BN133">
+        <v>1.75</v>
+      </c>
+      <c r="BO133">
+        <v>2.55</v>
+      </c>
+      <c r="BP133">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7502733</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45648.45833333334</v>
+      </c>
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>80</v>
+      </c>
+      <c r="H134" t="s">
+        <v>77</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>174</v>
+      </c>
+      <c r="P134" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q134">
+        <v>4.33</v>
+      </c>
+      <c r="R134">
+        <v>2.07</v>
+      </c>
+      <c r="S134">
+        <v>2.55</v>
+      </c>
+      <c r="T134">
+        <v>1.42</v>
+      </c>
+      <c r="U134">
+        <v>2.74</v>
+      </c>
+      <c r="V134">
+        <v>2.99</v>
+      </c>
+      <c r="W134">
+        <v>1.36</v>
+      </c>
+      <c r="X134">
+        <v>8.1</v>
+      </c>
+      <c r="Y134">
+        <v>1.06</v>
+      </c>
+      <c r="Z134">
+        <v>3.75</v>
+      </c>
+      <c r="AA134">
+        <v>3.4</v>
+      </c>
+      <c r="AB134">
+        <v>1.95</v>
+      </c>
+      <c r="AC134">
+        <v>1.01</v>
+      </c>
+      <c r="AD134">
+        <v>8.6</v>
+      </c>
+      <c r="AE134">
+        <v>1.29</v>
+      </c>
+      <c r="AF134">
+        <v>3.04</v>
+      </c>
+      <c r="AG134">
+        <v>2</v>
+      </c>
+      <c r="AH134">
+        <v>1.75</v>
+      </c>
+      <c r="AI134">
+        <v>1.84</v>
+      </c>
+      <c r="AJ134">
+        <v>1.86</v>
+      </c>
+      <c r="AK134">
+        <v>1.79</v>
+      </c>
+      <c r="AL134">
+        <v>1.28</v>
+      </c>
+      <c r="AM134">
+        <v>1.25</v>
+      </c>
+      <c r="AN134">
+        <v>0.57</v>
+      </c>
+      <c r="AO134">
+        <v>1.43</v>
+      </c>
+      <c r="AP134">
+        <v>0.5</v>
+      </c>
+      <c r="AQ134">
+        <v>1.63</v>
+      </c>
+      <c r="AR134">
+        <v>1.14</v>
+      </c>
+      <c r="AS134">
+        <v>1.46</v>
+      </c>
+      <c r="AT134">
+        <v>2.6</v>
+      </c>
+      <c r="AU134">
+        <v>4</v>
+      </c>
+      <c r="AV134">
+        <v>4</v>
+      </c>
+      <c r="AW134">
+        <v>5</v>
+      </c>
+      <c r="AX134">
+        <v>6</v>
+      </c>
+      <c r="AY134">
+        <v>9</v>
+      </c>
+      <c r="AZ134">
+        <v>10</v>
+      </c>
+      <c r="BA134">
+        <v>11</v>
+      </c>
+      <c r="BB134">
+        <v>10</v>
+      </c>
+      <c r="BC134">
+        <v>21</v>
+      </c>
+      <c r="BD134">
+        <v>2.72</v>
+      </c>
+      <c r="BE134">
+        <v>6.1</v>
+      </c>
+      <c r="BF134">
+        <v>1.65</v>
+      </c>
+      <c r="BG134">
+        <v>1.17</v>
+      </c>
+      <c r="BH134">
+        <v>4.3</v>
+      </c>
+      <c r="BI134">
+        <v>1.35</v>
+      </c>
+      <c r="BJ134">
+        <v>2.9</v>
+      </c>
+      <c r="BK134">
+        <v>1.62</v>
+      </c>
+      <c r="BL134">
+        <v>2.12</v>
+      </c>
+      <c r="BM134">
+        <v>2.08</v>
+      </c>
+      <c r="BN134">
+        <v>1.65</v>
+      </c>
+      <c r="BO134">
+        <v>2.78</v>
+      </c>
+      <c r="BP134">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7502731</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45648.52083333334</v>
+      </c>
+      <c r="F135">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>75</v>
+      </c>
+      <c r="H135" t="s">
+        <v>74</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>89</v>
+      </c>
+      <c r="P135" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q135">
+        <v>2.9</v>
+      </c>
+      <c r="R135">
+        <v>2.05</v>
+      </c>
+      <c r="S135">
+        <v>3.6</v>
+      </c>
+      <c r="T135">
+        <v>1.41</v>
+      </c>
+      <c r="U135">
+        <v>2.7</v>
+      </c>
+      <c r="V135">
+        <v>2.95</v>
+      </c>
+      <c r="W135">
+        <v>1.35</v>
+      </c>
+      <c r="X135">
+        <v>7.4</v>
+      </c>
+      <c r="Y135">
+        <v>1.06</v>
+      </c>
+      <c r="Z135">
+        <v>2.21</v>
+      </c>
+      <c r="AA135">
+        <v>3.34</v>
+      </c>
+      <c r="AB135">
+        <v>3.19</v>
+      </c>
+      <c r="AC135">
+        <v>1.01</v>
+      </c>
+      <c r="AD135">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE135">
+        <v>1.33</v>
+      </c>
+      <c r="AF135">
+        <v>3.2</v>
+      </c>
+      <c r="AG135">
+        <v>2</v>
+      </c>
+      <c r="AH135">
+        <v>1.75</v>
+      </c>
+      <c r="AI135">
+        <v>1.78</v>
+      </c>
+      <c r="AJ135">
+        <v>1.95</v>
+      </c>
+      <c r="AK135">
+        <v>1.36</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.6</v>
+      </c>
+      <c r="AN135">
+        <v>2.14</v>
+      </c>
+      <c r="AO135">
+        <v>2.17</v>
+      </c>
+      <c r="AP135">
+        <v>1.88</v>
+      </c>
+      <c r="AQ135">
+        <v>2.29</v>
+      </c>
+      <c r="AR135">
+        <v>1.3</v>
+      </c>
+      <c r="AS135">
+        <v>1.37</v>
+      </c>
+      <c r="AT135">
+        <v>2.67</v>
+      </c>
+      <c r="AU135">
+        <v>2</v>
+      </c>
+      <c r="AV135">
+        <v>3</v>
+      </c>
+      <c r="AW135">
+        <v>11</v>
+      </c>
+      <c r="AX135">
+        <v>4</v>
+      </c>
+      <c r="AY135">
+        <v>13</v>
+      </c>
+      <c r="AZ135">
+        <v>7</v>
+      </c>
+      <c r="BA135">
+        <v>10</v>
+      </c>
+      <c r="BB135">
+        <v>4</v>
+      </c>
+      <c r="BC135">
+        <v>14</v>
+      </c>
+      <c r="BD135">
+        <v>1.52</v>
+      </c>
+      <c r="BE135">
+        <v>6.3</v>
+      </c>
+      <c r="BF135">
+        <v>3.1</v>
+      </c>
+      <c r="BG135">
+        <v>1.16</v>
+      </c>
+      <c r="BH135">
+        <v>4.5</v>
+      </c>
+      <c r="BI135">
+        <v>1.32</v>
+      </c>
+      <c r="BJ135">
+        <v>3.05</v>
+      </c>
+      <c r="BK135">
+        <v>1.6</v>
+      </c>
+      <c r="BL135">
+        <v>2.18</v>
+      </c>
+      <c r="BM135">
+        <v>2.02</v>
+      </c>
+      <c r="BN135">
+        <v>1.68</v>
+      </c>
+      <c r="BO135">
+        <v>2.72</v>
+      </c>
+      <c r="BP135">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7502735</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45648.625</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>86</v>
+      </c>
+      <c r="H136" t="s">
+        <v>78</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>175</v>
+      </c>
+      <c r="P136" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q136">
+        <v>3.1</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>3.5</v>
+      </c>
+      <c r="T136">
+        <v>1.44</v>
+      </c>
+      <c r="U136">
+        <v>2.6</v>
+      </c>
+      <c r="V136">
+        <v>2.95</v>
+      </c>
+      <c r="W136">
+        <v>1.35</v>
+      </c>
+      <c r="X136">
+        <v>7.4</v>
+      </c>
+      <c r="Y136">
+        <v>1.06</v>
+      </c>
+      <c r="Z136">
+        <v>2.47</v>
+      </c>
+      <c r="AA136">
+        <v>3.4</v>
+      </c>
+      <c r="AB136">
+        <v>2.7</v>
+      </c>
+      <c r="AC136">
+        <v>1.01</v>
+      </c>
+      <c r="AD136">
+        <v>8.9</v>
+      </c>
+      <c r="AE136">
+        <v>1.33</v>
+      </c>
+      <c r="AF136">
+        <v>3.2</v>
+      </c>
+      <c r="AG136">
+        <v>1.95</v>
+      </c>
+      <c r="AH136">
+        <v>1.75</v>
+      </c>
+      <c r="AI136">
+        <v>1.75</v>
+      </c>
+      <c r="AJ136">
+        <v>2</v>
+      </c>
+      <c r="AK136">
+        <v>1.4</v>
+      </c>
+      <c r="AL136">
+        <v>1.28</v>
+      </c>
+      <c r="AM136">
+        <v>1.53</v>
+      </c>
+      <c r="AN136">
+        <v>1.86</v>
+      </c>
+      <c r="AO136">
+        <v>1.5</v>
+      </c>
+      <c r="AP136">
+        <v>2</v>
+      </c>
+      <c r="AQ136">
+        <v>1.29</v>
+      </c>
+      <c r="AR136">
+        <v>1.47</v>
+      </c>
+      <c r="AS136">
+        <v>1.33</v>
+      </c>
+      <c r="AT136">
+        <v>2.8</v>
+      </c>
+      <c r="AU136">
+        <v>15</v>
+      </c>
+      <c r="AV136">
+        <v>11</v>
+      </c>
+      <c r="AW136">
+        <v>4</v>
+      </c>
+      <c r="AX136">
+        <v>9</v>
+      </c>
+      <c r="AY136">
+        <v>19</v>
+      </c>
+      <c r="AZ136">
+        <v>20</v>
+      </c>
+      <c r="BA136">
+        <v>3</v>
+      </c>
+      <c r="BB136">
+        <v>8</v>
+      </c>
+      <c r="BC136">
+        <v>11</v>
+      </c>
+      <c r="BD136">
+        <v>1.95</v>
+      </c>
+      <c r="BE136">
+        <v>7</v>
+      </c>
+      <c r="BF136">
+        <v>2.1</v>
+      </c>
+      <c r="BG136">
+        <v>1.15</v>
+      </c>
+      <c r="BH136">
+        <v>4.25</v>
+      </c>
+      <c r="BI136">
+        <v>1.31</v>
+      </c>
+      <c r="BJ136">
+        <v>3.05</v>
+      </c>
+      <c r="BK136">
+        <v>1.6</v>
+      </c>
+      <c r="BL136">
+        <v>2.18</v>
+      </c>
+      <c r="BM136">
+        <v>2</v>
+      </c>
+      <c r="BN136">
+        <v>1.7</v>
+      </c>
+      <c r="BO136">
+        <v>2.68</v>
+      </c>
+      <c r="BP136">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -538,10 +538,10 @@
     <t>['43', '47']</t>
   </si>
   <si>
-    <t>['73']</t>
+    <t>['2', '90']</t>
   </si>
   <si>
-    <t>['2', '90']</t>
+    <t>['73']</t>
   </si>
   <si>
     <t>['24', '27']</t>
@@ -763,10 +763,10 @@
     <t>['34', '65']</t>
   </si>
   <si>
-    <t>['30', '34', '88']</t>
+    <t>['22', '68']</t>
   </si>
   <si>
-    <t>['22', '68']</t>
+    <t>['30', '34', '88']</t>
   </si>
 </sst>
 </file>
@@ -27860,10 +27860,10 @@
         <v>4</v>
       </c>
       <c r="AY130">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ130">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA130">
         <v>6</v>
@@ -28054,22 +28054,22 @@
         <v>2.57</v>
       </c>
       <c r="AU131">
+        <v>8</v>
+      </c>
+      <c r="AV131">
         <v>7</v>
       </c>
-      <c r="AV131">
-        <v>5</v>
-      </c>
       <c r="AW131">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AX131">
         <v>4</v>
       </c>
       <c r="AY131">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ131">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA131">
         <v>7</v>
@@ -28260,22 +28260,22 @@
         <v>2.73</v>
       </c>
       <c r="AU132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV132">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX132">
         <v>4</v>
       </c>
       <c r="AY132">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AZ132">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA132">
         <v>5</v>
@@ -28331,7 +28331,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7502730</v>
+        <v>7502735</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28340,196 +28340,196 @@
         <v>69</v>
       </c>
       <c r="E133" s="2">
-        <v>45648.33333333334</v>
+        <v>45647.875</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H133" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O133" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="P133" t="s">
-        <v>249</v>
+        <v>89</v>
       </c>
       <c r="Q133">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R133">
         <v>2</v>
       </c>
       <c r="S133">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T133">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="U133">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="V133">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="W133">
+        <v>1.35</v>
+      </c>
+      <c r="X133">
+        <v>7.4</v>
+      </c>
+      <c r="Y133">
+        <v>1.06</v>
+      </c>
+      <c r="Z133">
+        <v>2.47</v>
+      </c>
+      <c r="AA133">
+        <v>3.4</v>
+      </c>
+      <c r="AB133">
+        <v>2.7</v>
+      </c>
+      <c r="AC133">
+        <v>1.01</v>
+      </c>
+      <c r="AD133">
+        <v>8.9</v>
+      </c>
+      <c r="AE133">
         <v>1.33</v>
       </c>
-      <c r="X133">
-        <v>7.9</v>
-      </c>
-      <c r="Y133">
-        <v>1.05</v>
-      </c>
-      <c r="Z133">
-        <v>2.25</v>
-      </c>
-      <c r="AA133">
-        <v>3.1</v>
-      </c>
-      <c r="AB133">
-        <v>2.87</v>
-      </c>
-      <c r="AC133">
-        <v>1.04</v>
-      </c>
-      <c r="AD133">
-        <v>6.8</v>
-      </c>
-      <c r="AE133">
-        <v>1.36</v>
-      </c>
       <c r="AF133">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AG133">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AH133">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AI133">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AJ133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AK133">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AL133">
         <v>1.28</v>
       </c>
       <c r="AM133">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AN133">
-        <v>0.71</v>
+        <v>1.86</v>
       </c>
       <c r="AO133">
+        <v>1.5</v>
+      </c>
+      <c r="AP133">
+        <v>2</v>
+      </c>
+      <c r="AQ133">
         <v>1.29</v>
       </c>
-      <c r="AP133">
-        <v>0.63</v>
-      </c>
-      <c r="AQ133">
-        <v>1.5</v>
-      </c>
       <c r="AR133">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="AS133">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AT133">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU133">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AV133">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AW133">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AX133">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY133">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ133">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="BA133">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB133">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC133">
         <v>11</v>
       </c>
       <c r="BD133">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BE133">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF133">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="BG133">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="BH133">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="BI133">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="BJ133">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="BK133">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="BL133">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="BM133">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BN133">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="BO133">
-        <v>2.55</v>
+        <v>2.68</v>
       </c>
       <c r="BP133">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28537,7 +28537,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7502733</v>
+        <v>7502731</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28546,88 +28546,88 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45648.45833333334</v>
+        <v>45647.875</v>
       </c>
       <c r="F134">
         <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H134" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="Q134">
-        <v>4.33</v>
+        <v>2.9</v>
       </c>
       <c r="R134">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S134">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="T134">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="U134">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="V134">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="W134">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X134">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="Y134">
         <v>1.06</v>
       </c>
       <c r="Z134">
-        <v>3.75</v>
+        <v>2.21</v>
       </c>
       <c r="AA134">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="AB134">
-        <v>1.95</v>
+        <v>3.19</v>
       </c>
       <c r="AC134">
         <v>1.01</v>
       </c>
       <c r="AD134">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE134">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AF134">
-        <v>3.04</v>
+        <v>3.2</v>
       </c>
       <c r="AG134">
         <v>2</v>
@@ -28636,106 +28636,106 @@
         <v>1.75</v>
       </c>
       <c r="AI134">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AJ134">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="AK134">
-        <v>1.79</v>
+        <v>1.36</v>
       </c>
       <c r="AL134">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM134">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AN134">
-        <v>0.57</v>
+        <v>2.14</v>
       </c>
       <c r="AO134">
-        <v>1.43</v>
+        <v>2.17</v>
       </c>
       <c r="AP134">
-        <v>0.5</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>1.63</v>
+        <v>2.29</v>
       </c>
       <c r="AR134">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AS134">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AT134">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU134">
+        <v>2</v>
+      </c>
+      <c r="AV134">
+        <v>3</v>
+      </c>
+      <c r="AW134">
+        <v>11</v>
+      </c>
+      <c r="AX134">
         <v>4</v>
       </c>
-      <c r="AV134">
+      <c r="AY134">
+        <v>13</v>
+      </c>
+      <c r="AZ134">
+        <v>7</v>
+      </c>
+      <c r="BA134">
+        <v>10</v>
+      </c>
+      <c r="BB134">
         <v>4</v>
       </c>
-      <c r="AW134">
-        <v>5</v>
-      </c>
-      <c r="AX134">
-        <v>6</v>
-      </c>
-      <c r="AY134">
-        <v>9</v>
-      </c>
-      <c r="AZ134">
-        <v>10</v>
-      </c>
-      <c r="BA134">
-        <v>11</v>
-      </c>
-      <c r="BB134">
-        <v>10</v>
-      </c>
       <c r="BC134">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BD134">
+        <v>1.52</v>
+      </c>
+      <c r="BE134">
+        <v>6.3</v>
+      </c>
+      <c r="BF134">
+        <v>3.1</v>
+      </c>
+      <c r="BG134">
+        <v>1.16</v>
+      </c>
+      <c r="BH134">
+        <v>4.5</v>
+      </c>
+      <c r="BI134">
+        <v>1.32</v>
+      </c>
+      <c r="BJ134">
+        <v>3.05</v>
+      </c>
+      <c r="BK134">
+        <v>1.6</v>
+      </c>
+      <c r="BL134">
+        <v>2.18</v>
+      </c>
+      <c r="BM134">
+        <v>2.02</v>
+      </c>
+      <c r="BN134">
+        <v>1.68</v>
+      </c>
+      <c r="BO134">
         <v>2.72</v>
       </c>
-      <c r="BE134">
-        <v>6.1</v>
-      </c>
-      <c r="BF134">
-        <v>1.65</v>
-      </c>
-      <c r="BG134">
-        <v>1.17</v>
-      </c>
-      <c r="BH134">
-        <v>4.3</v>
-      </c>
-      <c r="BI134">
-        <v>1.35</v>
-      </c>
-      <c r="BJ134">
-        <v>2.9</v>
-      </c>
-      <c r="BK134">
-        <v>1.62</v>
-      </c>
-      <c r="BL134">
-        <v>2.12</v>
-      </c>
-      <c r="BM134">
-        <v>2.08</v>
-      </c>
-      <c r="BN134">
-        <v>1.65</v>
-      </c>
-      <c r="BO134">
-        <v>2.78</v>
-      </c>
       <c r="BP134">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -28743,7 +28743,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7502731</v>
+        <v>7502733</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28752,88 +28752,88 @@
         <v>69</v>
       </c>
       <c r="E135" s="2">
-        <v>45648.52083333334</v>
+        <v>45647.875</v>
       </c>
       <c r="F135">
         <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H135" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O135" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="P135" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="Q135">
-        <v>2.9</v>
+        <v>4.33</v>
       </c>
       <c r="R135">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S135">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="T135">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="U135">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="V135">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="W135">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X135">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="Y135">
         <v>1.06</v>
       </c>
       <c r="Z135">
-        <v>2.21</v>
+        <v>3.75</v>
       </c>
       <c r="AA135">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="AB135">
-        <v>3.19</v>
+        <v>1.95</v>
       </c>
       <c r="AC135">
         <v>1.01</v>
       </c>
       <c r="AD135">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AE135">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AF135">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="AG135">
         <v>2</v>
@@ -28842,106 +28842,106 @@
         <v>1.75</v>
       </c>
       <c r="AI135">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AJ135">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="AK135">
-        <v>1.36</v>
+        <v>1.79</v>
       </c>
       <c r="AL135">
+        <v>1.28</v>
+      </c>
+      <c r="AM135">
         <v>1.25</v>
       </c>
-      <c r="AM135">
-        <v>1.6</v>
-      </c>
       <c r="AN135">
-        <v>2.14</v>
+        <v>0.57</v>
       </c>
       <c r="AO135">
-        <v>2.17</v>
+        <v>1.43</v>
       </c>
       <c r="AP135">
-        <v>1.88</v>
+        <v>0.5</v>
       </c>
       <c r="AQ135">
-        <v>2.29</v>
+        <v>1.63</v>
       </c>
       <c r="AR135">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="AS135">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AT135">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AU135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW135">
+        <v>5</v>
+      </c>
+      <c r="AX135">
+        <v>6</v>
+      </c>
+      <c r="AY135">
+        <v>9</v>
+      </c>
+      <c r="AZ135">
+        <v>10</v>
+      </c>
+      <c r="BA135">
         <v>11</v>
       </c>
-      <c r="AX135">
-        <v>4</v>
-      </c>
-      <c r="AY135">
-        <v>13</v>
-      </c>
-      <c r="AZ135">
-        <v>7</v>
-      </c>
-      <c r="BA135">
+      <c r="BB135">
         <v>10</v>
       </c>
-      <c r="BB135">
-        <v>4</v>
-      </c>
       <c r="BC135">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BD135">
-        <v>1.52</v>
+        <v>2.72</v>
       </c>
       <c r="BE135">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="BF135">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="BG135">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="BH135">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="BI135">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="BJ135">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="BK135">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="BL135">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="BM135">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="BN135">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="BO135">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="BP135">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="136" spans="1:68">
@@ -28949,7 +28949,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7502735</v>
+        <v>7502730</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -28958,196 +28958,196 @@
         <v>69</v>
       </c>
       <c r="E136" s="2">
-        <v>45648.625</v>
+        <v>45648.33333333334</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H136" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O136" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="P136" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="Q136">
+        <v>3</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>3.6</v>
+      </c>
+      <c r="T136">
+        <v>1.45</v>
+      </c>
+      <c r="U136">
+        <v>2.55</v>
+      </c>
+      <c r="V136">
+        <v>3.05</v>
+      </c>
+      <c r="W136">
+        <v>1.33</v>
+      </c>
+      <c r="X136">
+        <v>7.9</v>
+      </c>
+      <c r="Y136">
+        <v>1.05</v>
+      </c>
+      <c r="Z136">
+        <v>2.25</v>
+      </c>
+      <c r="AA136">
         <v>3.1</v>
       </c>
-      <c r="R136">
-        <v>2</v>
-      </c>
-      <c r="S136">
-        <v>3.5</v>
-      </c>
-      <c r="T136">
-        <v>1.44</v>
-      </c>
-      <c r="U136">
-        <v>2.6</v>
-      </c>
-      <c r="V136">
-        <v>2.95</v>
-      </c>
-      <c r="W136">
-        <v>1.35</v>
-      </c>
-      <c r="X136">
-        <v>7.4</v>
-      </c>
-      <c r="Y136">
-        <v>1.06</v>
-      </c>
-      <c r="Z136">
-        <v>2.47</v>
-      </c>
-      <c r="AA136">
-        <v>3.4</v>
-      </c>
       <c r="AB136">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="AC136">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD136">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE136">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF136">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AG136">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AH136">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AI136">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AJ136">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AK136">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AL136">
         <v>1.28</v>
       </c>
       <c r="AM136">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AN136">
-        <v>1.86</v>
+        <v>0.71</v>
       </c>
       <c r="AO136">
+        <v>1.29</v>
+      </c>
+      <c r="AP136">
+        <v>0.63</v>
+      </c>
+      <c r="AQ136">
         <v>1.5</v>
       </c>
-      <c r="AP136">
-        <v>2</v>
-      </c>
-      <c r="AQ136">
-        <v>1.29</v>
-      </c>
       <c r="AR136">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AS136">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AT136">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU136">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AV136">
+        <v>6</v>
+      </c>
+      <c r="AW136">
+        <v>13</v>
+      </c>
+      <c r="AX136">
+        <v>5</v>
+      </c>
+      <c r="AY136">
+        <v>18</v>
+      </c>
+      <c r="AZ136">
         <v>11</v>
       </c>
-      <c r="AW136">
-        <v>4</v>
-      </c>
-      <c r="AX136">
-        <v>9</v>
-      </c>
-      <c r="AY136">
-        <v>19</v>
-      </c>
-      <c r="AZ136">
-        <v>20</v>
-      </c>
       <c r="BA136">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB136">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC136">
         <v>11</v>
       </c>
       <c r="BD136">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="BE136">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF136">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BG136">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="BH136">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="BI136">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="BJ136">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="BK136">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="BL136">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="BM136">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BN136">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="BO136">
-        <v>2.68</v>
+        <v>2.55</v>
       </c>
       <c r="BP136">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -538,10 +538,10 @@
     <t>['43', '47']</t>
   </si>
   <si>
-    <t>['2', '90']</t>
+    <t>['73']</t>
   </si>
   <si>
-    <t>['73']</t>
+    <t>['2', '90']</t>
   </si>
   <si>
     <t>['24', '27']</t>
@@ -763,10 +763,10 @@
     <t>['34', '65']</t>
   </si>
   <si>
-    <t>['22', '68']</t>
+    <t>['30', '34', '88']</t>
   </si>
   <si>
-    <t>['30', '34', '88']</t>
+    <t>['22', '68']</t>
   </si>
 </sst>
 </file>
@@ -28331,7 +28331,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7502735</v>
+        <v>7502730</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28340,196 +28340,196 @@
         <v>69</v>
       </c>
       <c r="E133" s="2">
-        <v>45647.875</v>
+        <v>45648.33333333334</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H133" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O133" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="Q133">
+        <v>3</v>
+      </c>
+      <c r="R133">
+        <v>2</v>
+      </c>
+      <c r="S133">
+        <v>3.6</v>
+      </c>
+      <c r="T133">
+        <v>1.45</v>
+      </c>
+      <c r="U133">
+        <v>2.55</v>
+      </c>
+      <c r="V133">
+        <v>3.05</v>
+      </c>
+      <c r="W133">
+        <v>1.33</v>
+      </c>
+      <c r="X133">
+        <v>7.9</v>
+      </c>
+      <c r="Y133">
+        <v>1.05</v>
+      </c>
+      <c r="Z133">
+        <v>2.25</v>
+      </c>
+      <c r="AA133">
         <v>3.1</v>
       </c>
-      <c r="R133">
-        <v>2</v>
-      </c>
-      <c r="S133">
-        <v>3.5</v>
-      </c>
-      <c r="T133">
-        <v>1.44</v>
-      </c>
-      <c r="U133">
-        <v>2.6</v>
-      </c>
-      <c r="V133">
-        <v>2.95</v>
-      </c>
-      <c r="W133">
-        <v>1.35</v>
-      </c>
-      <c r="X133">
-        <v>7.4</v>
-      </c>
-      <c r="Y133">
-        <v>1.06</v>
-      </c>
-      <c r="Z133">
-        <v>2.47</v>
-      </c>
-      <c r="AA133">
-        <v>3.4</v>
-      </c>
       <c r="AB133">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="AC133">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD133">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE133">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF133">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AG133">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AH133">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AI133">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AJ133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AK133">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AL133">
         <v>1.28</v>
       </c>
       <c r="AM133">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AN133">
-        <v>1.86</v>
+        <v>0.71</v>
       </c>
       <c r="AO133">
+        <v>1.29</v>
+      </c>
+      <c r="AP133">
+        <v>0.63</v>
+      </c>
+      <c r="AQ133">
         <v>1.5</v>
       </c>
-      <c r="AP133">
-        <v>2</v>
-      </c>
-      <c r="AQ133">
-        <v>1.29</v>
-      </c>
       <c r="AR133">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AS133">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AT133">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU133">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AV133">
+        <v>6</v>
+      </c>
+      <c r="AW133">
+        <v>13</v>
+      </c>
+      <c r="AX133">
+        <v>5</v>
+      </c>
+      <c r="AY133">
+        <v>18</v>
+      </c>
+      <c r="AZ133">
         <v>11</v>
       </c>
-      <c r="AW133">
-        <v>4</v>
-      </c>
-      <c r="AX133">
-        <v>9</v>
-      </c>
-      <c r="AY133">
-        <v>19</v>
-      </c>
-      <c r="AZ133">
-        <v>20</v>
-      </c>
       <c r="BA133">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB133">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC133">
         <v>11</v>
       </c>
       <c r="BD133">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="BE133">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF133">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BG133">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="BH133">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="BI133">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="BJ133">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="BK133">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="BL133">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="BM133">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BN133">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="BO133">
-        <v>2.68</v>
+        <v>2.55</v>
       </c>
       <c r="BP133">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28537,7 +28537,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7502731</v>
+        <v>7502733</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28546,88 +28546,88 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45647.875</v>
+        <v>45648.45833333334</v>
       </c>
       <c r="F134">
         <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H134" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O134" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="Q134">
-        <v>2.9</v>
+        <v>4.33</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S134">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="T134">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="U134">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="V134">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="W134">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X134">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="Y134">
         <v>1.06</v>
       </c>
       <c r="Z134">
-        <v>2.21</v>
+        <v>3.75</v>
       </c>
       <c r="AA134">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="AB134">
-        <v>3.19</v>
+        <v>1.95</v>
       </c>
       <c r="AC134">
         <v>1.01</v>
       </c>
       <c r="AD134">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AE134">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AF134">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="AG134">
         <v>2</v>
@@ -28636,106 +28636,106 @@
         <v>1.75</v>
       </c>
       <c r="AI134">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AJ134">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="AK134">
-        <v>1.36</v>
+        <v>1.79</v>
       </c>
       <c r="AL134">
+        <v>1.28</v>
+      </c>
+      <c r="AM134">
         <v>1.25</v>
       </c>
-      <c r="AM134">
-        <v>1.6</v>
-      </c>
       <c r="AN134">
-        <v>2.14</v>
+        <v>0.57</v>
       </c>
       <c r="AO134">
-        <v>2.17</v>
+        <v>1.43</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>0.5</v>
       </c>
       <c r="AQ134">
-        <v>2.29</v>
+        <v>1.63</v>
       </c>
       <c r="AR134">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="AS134">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AT134">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AU134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW134">
+        <v>5</v>
+      </c>
+      <c r="AX134">
+        <v>6</v>
+      </c>
+      <c r="AY134">
+        <v>9</v>
+      </c>
+      <c r="AZ134">
+        <v>10</v>
+      </c>
+      <c r="BA134">
         <v>11</v>
       </c>
-      <c r="AX134">
-        <v>4</v>
-      </c>
-      <c r="AY134">
-        <v>13</v>
-      </c>
-      <c r="AZ134">
-        <v>7</v>
-      </c>
-      <c r="BA134">
+      <c r="BB134">
         <v>10</v>
       </c>
-      <c r="BB134">
-        <v>4</v>
-      </c>
       <c r="BC134">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BD134">
-        <v>1.52</v>
+        <v>2.72</v>
       </c>
       <c r="BE134">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="BF134">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="BG134">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="BH134">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="BI134">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="BJ134">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="BK134">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="BL134">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="BM134">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="BN134">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="BO134">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="BP134">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -28743,7 +28743,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7502733</v>
+        <v>7502731</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28752,88 +28752,88 @@
         <v>69</v>
       </c>
       <c r="E135" s="2">
-        <v>45647.875</v>
+        <v>45648.52083333334</v>
       </c>
       <c r="F135">
         <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H135" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O135" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="P135" t="s">
-        <v>249</v>
+        <v>117</v>
       </c>
       <c r="Q135">
-        <v>4.33</v>
+        <v>2.9</v>
       </c>
       <c r="R135">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S135">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="T135">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="U135">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="V135">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="W135">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X135">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="Y135">
         <v>1.06</v>
       </c>
       <c r="Z135">
-        <v>3.75</v>
+        <v>2.21</v>
       </c>
       <c r="AA135">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="AB135">
-        <v>1.95</v>
+        <v>3.19</v>
       </c>
       <c r="AC135">
         <v>1.01</v>
       </c>
       <c r="AD135">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE135">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AF135">
-        <v>3.04</v>
+        <v>3.2</v>
       </c>
       <c r="AG135">
         <v>2</v>
@@ -28842,106 +28842,106 @@
         <v>1.75</v>
       </c>
       <c r="AI135">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AJ135">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="AK135">
-        <v>1.79</v>
+        <v>1.36</v>
       </c>
       <c r="AL135">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM135">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AN135">
-        <v>0.57</v>
+        <v>2.14</v>
       </c>
       <c r="AO135">
-        <v>1.43</v>
+        <v>2.17</v>
       </c>
       <c r="AP135">
-        <v>0.5</v>
+        <v>1.88</v>
       </c>
       <c r="AQ135">
-        <v>1.63</v>
+        <v>2.29</v>
       </c>
       <c r="AR135">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AS135">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AT135">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU135">
+        <v>2</v>
+      </c>
+      <c r="AV135">
+        <v>3</v>
+      </c>
+      <c r="AW135">
+        <v>11</v>
+      </c>
+      <c r="AX135">
         <v>4</v>
       </c>
-      <c r="AV135">
+      <c r="AY135">
+        <v>13</v>
+      </c>
+      <c r="AZ135">
+        <v>7</v>
+      </c>
+      <c r="BA135">
+        <v>10</v>
+      </c>
+      <c r="BB135">
         <v>4</v>
       </c>
-      <c r="AW135">
-        <v>5</v>
-      </c>
-      <c r="AX135">
-        <v>6</v>
-      </c>
-      <c r="AY135">
-        <v>9</v>
-      </c>
-      <c r="AZ135">
-        <v>10</v>
-      </c>
-      <c r="BA135">
-        <v>11</v>
-      </c>
-      <c r="BB135">
-        <v>10</v>
-      </c>
       <c r="BC135">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BD135">
+        <v>1.52</v>
+      </c>
+      <c r="BE135">
+        <v>6.3</v>
+      </c>
+      <c r="BF135">
+        <v>3.1</v>
+      </c>
+      <c r="BG135">
+        <v>1.16</v>
+      </c>
+      <c r="BH135">
+        <v>4.5</v>
+      </c>
+      <c r="BI135">
+        <v>1.32</v>
+      </c>
+      <c r="BJ135">
+        <v>3.05</v>
+      </c>
+      <c r="BK135">
+        <v>1.6</v>
+      </c>
+      <c r="BL135">
+        <v>2.18</v>
+      </c>
+      <c r="BM135">
+        <v>2.02</v>
+      </c>
+      <c r="BN135">
+        <v>1.68</v>
+      </c>
+      <c r="BO135">
         <v>2.72</v>
       </c>
-      <c r="BE135">
-        <v>6.1</v>
-      </c>
-      <c r="BF135">
-        <v>1.65</v>
-      </c>
-      <c r="BG135">
-        <v>1.17</v>
-      </c>
-      <c r="BH135">
-        <v>4.3</v>
-      </c>
-      <c r="BI135">
-        <v>1.35</v>
-      </c>
-      <c r="BJ135">
-        <v>2.9</v>
-      </c>
-      <c r="BK135">
-        <v>1.62</v>
-      </c>
-      <c r="BL135">
-        <v>2.12</v>
-      </c>
-      <c r="BM135">
-        <v>2.08</v>
-      </c>
-      <c r="BN135">
-        <v>1.65</v>
-      </c>
-      <c r="BO135">
-        <v>2.78</v>
-      </c>
       <c r="BP135">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="136" spans="1:68">
@@ -28949,7 +28949,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7502730</v>
+        <v>7502735</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -28958,196 +28958,196 @@
         <v>69</v>
       </c>
       <c r="E136" s="2">
-        <v>45648.33333333334</v>
+        <v>45648.625</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G136" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H136" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O136" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="P136" t="s">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="Q136">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R136">
         <v>2</v>
       </c>
       <c r="S136">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T136">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="U136">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="V136">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="W136">
+        <v>1.35</v>
+      </c>
+      <c r="X136">
+        <v>7.4</v>
+      </c>
+      <c r="Y136">
+        <v>1.06</v>
+      </c>
+      <c r="Z136">
+        <v>2.47</v>
+      </c>
+      <c r="AA136">
+        <v>3.4</v>
+      </c>
+      <c r="AB136">
+        <v>2.7</v>
+      </c>
+      <c r="AC136">
+        <v>1.01</v>
+      </c>
+      <c r="AD136">
+        <v>8.9</v>
+      </c>
+      <c r="AE136">
         <v>1.33</v>
       </c>
-      <c r="X136">
-        <v>7.9</v>
-      </c>
-      <c r="Y136">
-        <v>1.05</v>
-      </c>
-      <c r="Z136">
-        <v>2.25</v>
-      </c>
-      <c r="AA136">
-        <v>3.1</v>
-      </c>
-      <c r="AB136">
-        <v>2.87</v>
-      </c>
-      <c r="AC136">
-        <v>1.04</v>
-      </c>
-      <c r="AD136">
-        <v>6.8</v>
-      </c>
-      <c r="AE136">
-        <v>1.36</v>
-      </c>
       <c r="AF136">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AG136">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AH136">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AI136">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AJ136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AK136">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AL136">
         <v>1.28</v>
       </c>
       <c r="AM136">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AN136">
-        <v>0.71</v>
+        <v>1.86</v>
       </c>
       <c r="AO136">
+        <v>1.5</v>
+      </c>
+      <c r="AP136">
+        <v>2</v>
+      </c>
+      <c r="AQ136">
         <v>1.29</v>
       </c>
-      <c r="AP136">
-        <v>0.63</v>
-      </c>
-      <c r="AQ136">
-        <v>1.5</v>
-      </c>
       <c r="AR136">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="AS136">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AT136">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU136">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AV136">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AW136">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AX136">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY136">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ136">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="BA136">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB136">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC136">
         <v>11</v>
       </c>
       <c r="BD136">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BE136">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF136">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="BG136">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="BH136">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="BI136">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="BJ136">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="BK136">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="BL136">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="BM136">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BN136">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="BO136">
-        <v>2.55</v>
+        <v>2.68</v>
       </c>
       <c r="BP136">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,12 @@
     <t>['2', '90']</t>
   </si>
   <si>
+    <t>['45+11']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -767,6 +773,12 @@
   </si>
   <si>
     <t>['22', '68']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['28', '57']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1399,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1465,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ2">
         <v>1.75</v>
@@ -1593,7 +1605,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1799,7 +1811,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -1880,7 +1892,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ4">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2211,7 +2223,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2289,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ6">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2417,7 +2429,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2498,7 +2510,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ7">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2829,7 +2841,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3241,7 +3253,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3653,7 +3665,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3859,7 +3871,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4065,7 +4077,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4271,7 +4283,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4889,7 +4901,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5095,7 +5107,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5382,7 +5394,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ21">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR21">
         <v>1.84</v>
@@ -5588,7 +5600,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ22">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5713,7 +5725,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6125,7 +6137,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6203,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ25">
         <v>1.75</v>
@@ -6409,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ26">
         <v>1.63</v>
@@ -6537,7 +6549,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6949,7 +6961,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7155,7 +7167,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7567,7 +7579,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7773,7 +7785,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7979,7 +7991,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8060,7 +8072,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ34">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
         <v>1.57</v>
@@ -8185,7 +8197,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8391,7 +8403,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8803,7 +8815,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9009,7 +9021,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9421,7 +9433,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9499,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41">
         <v>1.5</v>
@@ -9627,7 +9639,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9911,7 +9923,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ43">
         <v>0.38</v>
@@ -10039,7 +10051,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10120,7 +10132,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR44">
         <v>1.61</v>
@@ -10245,7 +10257,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10657,7 +10669,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10863,7 +10875,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10944,7 +10956,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ48">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -11069,7 +11081,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11275,7 +11287,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11481,7 +11493,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11768,7 +11780,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ52">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -12099,7 +12111,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12511,7 +12523,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12717,7 +12729,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13001,7 +13013,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ58">
         <v>0.38</v>
@@ -13129,7 +13141,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13825,7 +13837,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ62">
         <v>1.63</v>
@@ -14365,7 +14377,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14777,7 +14789,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14983,7 +14995,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15476,7 +15488,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ70">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR70">
         <v>1.47</v>
@@ -16013,7 +16025,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16091,7 +16103,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ73">
         <v>1.5</v>
@@ -16219,7 +16231,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16425,7 +16437,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16631,7 +16643,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17043,7 +17055,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17455,7 +17467,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17742,7 +17754,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ81">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -18073,7 +18085,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18151,7 +18163,7 @@
         <v>2.5</v>
       </c>
       <c r="AP83">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ83">
         <v>2.29</v>
@@ -18485,7 +18497,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q85">
         <v>2.67</v>
@@ -18566,7 +18578,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ85">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -18691,7 +18703,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19103,7 +19115,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19390,7 +19402,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ89">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19515,7 +19527,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19721,7 +19733,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -19799,7 +19811,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ91">
         <v>1.29</v>
@@ -19927,7 +19939,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20133,7 +20145,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20339,7 +20351,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20545,7 +20557,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -20957,7 +20969,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21163,7 +21175,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21369,7 +21381,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -21450,7 +21462,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ99">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
         <v>1.34</v>
@@ -21862,7 +21874,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ101">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR101">
         <v>1.6</v>
@@ -22193,7 +22205,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22480,7 +22492,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ104">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR104">
         <v>1.44</v>
@@ -22605,7 +22617,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -22811,7 +22823,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23017,7 +23029,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23095,7 +23107,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ107">
         <v>0.86</v>
@@ -23223,7 +23235,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>2.66</v>
@@ -23429,7 +23441,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -23510,7 +23522,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ109">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR109">
         <v>1.09</v>
@@ -23635,7 +23647,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>2.56</v>
@@ -23713,10 +23725,10 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ110">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR110">
         <v>1.51</v>
@@ -24253,7 +24265,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24459,7 +24471,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24871,7 +24883,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25077,7 +25089,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25283,7 +25295,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -26107,7 +26119,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26185,7 +26197,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ122">
         <v>0.71</v>
@@ -26394,7 +26406,7 @@
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR123">
         <v>1.21</v>
@@ -26519,7 +26531,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -26931,7 +26943,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27009,7 +27021,7 @@
         <v>1.17</v>
       </c>
       <c r="AP126">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ126">
         <v>1.43</v>
@@ -27218,7 +27230,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ127">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR127">
         <v>0.99</v>
@@ -27343,7 +27355,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -27424,7 +27436,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ128">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR128">
         <v>1.46</v>
@@ -27755,7 +27767,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28167,7 +28179,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28373,7 +28385,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28579,7 +28591,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -29148,6 +29160,624 @@
       </c>
       <c r="BP136">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7502742</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45655.33333333334</v>
+      </c>
+      <c r="F137">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>74</v>
+      </c>
+      <c r="H137" t="s">
+        <v>86</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>176</v>
+      </c>
+      <c r="P137" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q137">
+        <v>3.12</v>
+      </c>
+      <c r="R137">
+        <v>2.07</v>
+      </c>
+      <c r="S137">
+        <v>3.3</v>
+      </c>
+      <c r="T137">
+        <v>1.42</v>
+      </c>
+      <c r="U137">
+        <v>2.74</v>
+      </c>
+      <c r="V137">
+        <v>2.82</v>
+      </c>
+      <c r="W137">
+        <v>1.4</v>
+      </c>
+      <c r="X137">
+        <v>6.8</v>
+      </c>
+      <c r="Y137">
+        <v>1.08</v>
+      </c>
+      <c r="Z137">
+        <v>2.7</v>
+      </c>
+      <c r="AA137">
+        <v>3.24</v>
+      </c>
+      <c r="AB137">
+        <v>2.45</v>
+      </c>
+      <c r="AC137">
+        <v>1.03</v>
+      </c>
+      <c r="AD137">
+        <v>7.3</v>
+      </c>
+      <c r="AE137">
+        <v>1.28</v>
+      </c>
+      <c r="AF137">
+        <v>3.08</v>
+      </c>
+      <c r="AG137">
+        <v>1.96</v>
+      </c>
+      <c r="AH137">
+        <v>1.76</v>
+      </c>
+      <c r="AI137">
+        <v>1.74</v>
+      </c>
+      <c r="AJ137">
+        <v>1.98</v>
+      </c>
+      <c r="AK137">
+        <v>1.45</v>
+      </c>
+      <c r="AL137">
+        <v>1.32</v>
+      </c>
+      <c r="AM137">
+        <v>1.47</v>
+      </c>
+      <c r="AN137">
+        <v>1.88</v>
+      </c>
+      <c r="AO137">
+        <v>1.57</v>
+      </c>
+      <c r="AP137">
+        <v>1.78</v>
+      </c>
+      <c r="AQ137">
+        <v>1.5</v>
+      </c>
+      <c r="AR137">
+        <v>1.18</v>
+      </c>
+      <c r="AS137">
+        <v>1.48</v>
+      </c>
+      <c r="AT137">
+        <v>2.66</v>
+      </c>
+      <c r="AU137">
+        <v>6</v>
+      </c>
+      <c r="AV137">
+        <v>7</v>
+      </c>
+      <c r="AW137">
+        <v>3</v>
+      </c>
+      <c r="AX137">
+        <v>6</v>
+      </c>
+      <c r="AY137">
+        <v>9</v>
+      </c>
+      <c r="AZ137">
+        <v>13</v>
+      </c>
+      <c r="BA137">
+        <v>6</v>
+      </c>
+      <c r="BB137">
+        <v>2</v>
+      </c>
+      <c r="BC137">
+        <v>8</v>
+      </c>
+      <c r="BD137">
+        <v>2.41</v>
+      </c>
+      <c r="BE137">
+        <v>8.5</v>
+      </c>
+      <c r="BF137">
+        <v>1.75</v>
+      </c>
+      <c r="BG137">
+        <v>1.13</v>
+      </c>
+      <c r="BH137">
+        <v>4.5</v>
+      </c>
+      <c r="BI137">
+        <v>1.28</v>
+      </c>
+      <c r="BJ137">
+        <v>3.05</v>
+      </c>
+      <c r="BK137">
+        <v>1.53</v>
+      </c>
+      <c r="BL137">
+        <v>2.27</v>
+      </c>
+      <c r="BM137">
+        <v>1.92</v>
+      </c>
+      <c r="BN137">
+        <v>1.88</v>
+      </c>
+      <c r="BO137">
+        <v>2.45</v>
+      </c>
+      <c r="BP137">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7502740</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45655.45833333334</v>
+      </c>
+      <c r="F138">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>71</v>
+      </c>
+      <c r="H138" t="s">
+        <v>83</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138" t="s">
+        <v>89</v>
+      </c>
+      <c r="P138" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q138">
+        <v>3.18</v>
+      </c>
+      <c r="R138">
+        <v>1.88</v>
+      </c>
+      <c r="S138">
+        <v>3.88</v>
+      </c>
+      <c r="T138">
+        <v>1.53</v>
+      </c>
+      <c r="U138">
+        <v>2.4</v>
+      </c>
+      <c r="V138">
+        <v>3.34</v>
+      </c>
+      <c r="W138">
+        <v>1.3</v>
+      </c>
+      <c r="X138">
+        <v>9.5</v>
+      </c>
+      <c r="Y138">
+        <v>1.04</v>
+      </c>
+      <c r="Z138">
+        <v>2.3</v>
+      </c>
+      <c r="AA138">
+        <v>2.89</v>
+      </c>
+      <c r="AB138">
+        <v>3.1</v>
+      </c>
+      <c r="AC138">
+        <v>1.05</v>
+      </c>
+      <c r="AD138">
+        <v>6.7</v>
+      </c>
+      <c r="AE138">
+        <v>1.38</v>
+      </c>
+      <c r="AF138">
+        <v>2.63</v>
+      </c>
+      <c r="AG138">
+        <v>2.3</v>
+      </c>
+      <c r="AH138">
+        <v>1.57</v>
+      </c>
+      <c r="AI138">
+        <v>1.93</v>
+      </c>
+      <c r="AJ138">
+        <v>1.78</v>
+      </c>
+      <c r="AK138">
+        <v>1.35</v>
+      </c>
+      <c r="AL138">
+        <v>1.36</v>
+      </c>
+      <c r="AM138">
+        <v>1.51</v>
+      </c>
+      <c r="AN138">
+        <v>1</v>
+      </c>
+      <c r="AO138">
+        <v>0.86</v>
+      </c>
+      <c r="AP138">
+        <v>1</v>
+      </c>
+      <c r="AQ138">
+        <v>0.88</v>
+      </c>
+      <c r="AR138">
+        <v>1.22</v>
+      </c>
+      <c r="AS138">
+        <v>1.36</v>
+      </c>
+      <c r="AT138">
+        <v>2.58</v>
+      </c>
+      <c r="AU138">
+        <v>3</v>
+      </c>
+      <c r="AV138">
+        <v>3</v>
+      </c>
+      <c r="AW138">
+        <v>8</v>
+      </c>
+      <c r="AX138">
+        <v>7</v>
+      </c>
+      <c r="AY138">
+        <v>11</v>
+      </c>
+      <c r="AZ138">
+        <v>10</v>
+      </c>
+      <c r="BA138">
+        <v>2</v>
+      </c>
+      <c r="BB138">
+        <v>2</v>
+      </c>
+      <c r="BC138">
+        <v>4</v>
+      </c>
+      <c r="BD138">
+        <v>1.82</v>
+      </c>
+      <c r="BE138">
+        <v>8</v>
+      </c>
+      <c r="BF138">
+        <v>2.39</v>
+      </c>
+      <c r="BG138">
+        <v>1.24</v>
+      </c>
+      <c r="BH138">
+        <v>3.34</v>
+      </c>
+      <c r="BI138">
+        <v>1.47</v>
+      </c>
+      <c r="BJ138">
+        <v>2.42</v>
+      </c>
+      <c r="BK138">
+        <v>2</v>
+      </c>
+      <c r="BL138">
+        <v>1.8</v>
+      </c>
+      <c r="BM138">
+        <v>2.34</v>
+      </c>
+      <c r="BN138">
+        <v>1.5</v>
+      </c>
+      <c r="BO138">
+        <v>3.08</v>
+      </c>
+      <c r="BP138">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7502739</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45655.52083333334</v>
+      </c>
+      <c r="F139">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>70</v>
+      </c>
+      <c r="H139" t="s">
+        <v>80</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>177</v>
+      </c>
+      <c r="P139" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q139">
+        <v>1.99</v>
+      </c>
+      <c r="R139">
+        <v>2.31</v>
+      </c>
+      <c r="S139">
+        <v>5.9</v>
+      </c>
+      <c r="T139">
+        <v>1.36</v>
+      </c>
+      <c r="U139">
+        <v>2.99</v>
+      </c>
+      <c r="V139">
+        <v>2.6</v>
+      </c>
+      <c r="W139">
+        <v>1.46</v>
+      </c>
+      <c r="X139">
+        <v>6.1</v>
+      </c>
+      <c r="Y139">
+        <v>1.1</v>
+      </c>
+      <c r="Z139">
+        <v>1.48</v>
+      </c>
+      <c r="AA139">
+        <v>4.1</v>
+      </c>
+      <c r="AB139">
+        <v>5.55</v>
+      </c>
+      <c r="AC139">
+        <v>1.02</v>
+      </c>
+      <c r="AD139">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE139">
+        <v>1.24</v>
+      </c>
+      <c r="AF139">
+        <v>3.36</v>
+      </c>
+      <c r="AG139">
+        <v>1.73</v>
+      </c>
+      <c r="AH139">
+        <v>1.92</v>
+      </c>
+      <c r="AI139">
+        <v>1.92</v>
+      </c>
+      <c r="AJ139">
+        <v>1.79</v>
+      </c>
+      <c r="AK139">
+        <v>1.1</v>
+      </c>
+      <c r="AL139">
+        <v>1.2</v>
+      </c>
+      <c r="AM139">
+        <v>2.55</v>
+      </c>
+      <c r="AN139">
+        <v>0.86</v>
+      </c>
+      <c r="AO139">
+        <v>0.29</v>
+      </c>
+      <c r="AP139">
+        <v>0.75</v>
+      </c>
+      <c r="AQ139">
+        <v>0.63</v>
+      </c>
+      <c r="AR139">
+        <v>1.54</v>
+      </c>
+      <c r="AS139">
+        <v>1.19</v>
+      </c>
+      <c r="AT139">
+        <v>2.73</v>
+      </c>
+      <c r="AU139">
+        <v>11</v>
+      </c>
+      <c r="AV139">
+        <v>4</v>
+      </c>
+      <c r="AW139">
+        <v>12</v>
+      </c>
+      <c r="AX139">
+        <v>3</v>
+      </c>
+      <c r="AY139">
+        <v>23</v>
+      </c>
+      <c r="AZ139">
+        <v>7</v>
+      </c>
+      <c r="BA139">
+        <v>10</v>
+      </c>
+      <c r="BB139">
+        <v>4</v>
+      </c>
+      <c r="BC139">
+        <v>14</v>
+      </c>
+      <c r="BD139">
+        <v>1.37</v>
+      </c>
+      <c r="BE139">
+        <v>9.5</v>
+      </c>
+      <c r="BF139">
+        <v>3.6</v>
+      </c>
+      <c r="BG139">
+        <v>1.13</v>
+      </c>
+      <c r="BH139">
+        <v>4.55</v>
+      </c>
+      <c r="BI139">
+        <v>1.28</v>
+      </c>
+      <c r="BJ139">
+        <v>3.08</v>
+      </c>
+      <c r="BK139">
+        <v>1.52</v>
+      </c>
+      <c r="BL139">
+        <v>2.3</v>
+      </c>
+      <c r="BM139">
+        <v>1.82</v>
+      </c>
+      <c r="BN139">
+        <v>1.98</v>
+      </c>
+      <c r="BO139">
+        <v>2.4</v>
+      </c>
+      <c r="BP139">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,12 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -605,9 +611,6 @@
   </si>
   <si>
     <t>['45+4', '90+4']</t>
-  </si>
-  <si>
-    <t>['46']</t>
   </si>
   <si>
     <t>['8', '45', '90+3']</t>
@@ -779,6 +782,12 @@
   </si>
   <si>
     <t>['28', '57']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['19', '31', '62', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1408,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1605,7 +1614,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1811,7 +1820,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2223,7 +2232,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2429,7 +2438,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2716,7 +2725,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2841,7 +2850,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3253,7 +3262,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3665,7 +3674,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3743,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3871,7 +3880,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4077,7 +4086,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4155,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -4283,7 +4292,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4364,7 +4373,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ16">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4567,10 +4576,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4901,7 +4910,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -4979,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ19">
         <v>0.38</v>
@@ -5107,7 +5116,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5188,7 +5197,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1.01</v>
@@ -5725,7 +5734,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6137,7 +6146,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6549,7 +6558,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6961,7 +6970,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7167,7 +7176,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7248,7 +7257,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ30">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR30">
         <v>1.33</v>
@@ -7451,7 +7460,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ31">
         <v>1.29</v>
@@ -7579,7 +7588,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7785,7 +7794,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7863,7 +7872,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>1.63</v>
@@ -7991,7 +8000,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8069,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -8197,7 +8206,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8278,7 +8287,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ35">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR35">
         <v>1.95</v>
@@ -8403,7 +8412,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8481,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>0.86</v>
@@ -8690,7 +8699,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ37">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR37">
         <v>0.82</v>
@@ -8815,7 +8824,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9021,7 +9030,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9308,7 +9317,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ40">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -9433,7 +9442,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9514,7 +9523,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9639,7 +9648,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10051,7 +10060,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10257,7 +10266,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10541,7 +10550,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ46">
         <v>1.43</v>
@@ -10669,7 +10678,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10747,7 +10756,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>1.43</v>
@@ -10875,7 +10884,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11081,7 +11090,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11159,10 +11168,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR49">
         <v>1.23</v>
@@ -11287,7 +11296,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11365,7 +11374,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ50">
         <v>1.5</v>
@@ -11493,7 +11502,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11986,7 +11995,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ53">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR53">
         <v>1.6</v>
@@ -12111,7 +12120,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12523,7 +12532,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12729,7 +12738,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13141,7 +13150,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13631,7 +13640,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ61">
         <v>1.13</v>
@@ -13840,7 +13849,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ62">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR62">
         <v>1.41</v>
@@ -14046,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.24</v>
@@ -14377,7 +14386,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14661,10 +14670,10 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ66">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR66">
         <v>1.24</v>
@@ -14789,7 +14798,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -14870,7 +14879,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ67">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR67">
         <v>1.38</v>
@@ -14995,7 +15004,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15485,7 +15494,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
         <v>0.88</v>
@@ -16025,7 +16034,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16231,7 +16240,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16437,7 +16446,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16515,7 +16524,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ75">
         <v>1.13</v>
@@ -16643,7 +16652,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16930,7 +16939,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.55</v>
@@ -17055,7 +17064,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17467,7 +17476,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17548,7 +17557,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR80">
         <v>1.09</v>
@@ -17957,7 +17966,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
         <v>1.13</v>
@@ -18085,7 +18094,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18166,7 +18175,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ83">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR83">
         <v>1.45</v>
@@ -18369,7 +18378,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
         <v>1.43</v>
@@ -18497,7 +18506,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="Q85">
         <v>2.67</v>
@@ -18703,7 +18712,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -18990,7 +18999,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ87">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR87">
         <v>1.38</v>
@@ -19115,7 +19124,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19399,7 +19408,7 @@
         <v>0.33</v>
       </c>
       <c r="AP89">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ89">
         <v>0.63</v>
@@ -19527,7 +19536,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19733,7 +19742,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -19939,7 +19948,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20145,7 +20154,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20351,7 +20360,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20429,7 +20438,7 @@
         <v>2.2</v>
       </c>
       <c r="AP94">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ94">
         <v>1.75</v>
@@ -20557,7 +20566,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -20969,7 +20978,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21050,7 +21059,7 @@
         <v>2</v>
       </c>
       <c r="AQ97">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21175,7 +21184,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21256,7 +21265,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ98">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR98">
         <v>1.44</v>
@@ -21381,7 +21390,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -21459,7 +21468,7 @@
         <v>1.75</v>
       </c>
       <c r="AP99">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
         <v>1.5</v>
@@ -21665,7 +21674,7 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ100">
         <v>1.63</v>
@@ -22080,7 +22089,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ102">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR102">
         <v>1.5</v>
@@ -22205,7 +22214,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22617,7 +22626,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -22695,7 +22704,7 @@
         <v>1.67</v>
       </c>
       <c r="AP105">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
         <v>1.63</v>
@@ -22823,7 +22832,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23029,7 +23038,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23235,7 +23244,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>2.66</v>
@@ -23313,7 +23322,7 @@
         <v>1.4</v>
       </c>
       <c r="AP108">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ108">
         <v>1.43</v>
@@ -23441,7 +23450,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -23647,7 +23656,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>2.56</v>
@@ -23931,10 +23940,10 @@
         <v>2.6</v>
       </c>
       <c r="AP111">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ111">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR111">
         <v>1.61</v>
@@ -24265,7 +24274,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24346,7 +24355,7 @@
         <v>2</v>
       </c>
       <c r="AQ113">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR113">
         <v>1.52</v>
@@ -24471,7 +24480,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24883,7 +24892,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -24964,7 +24973,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ116">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR116">
         <v>1.1</v>
@@ -25089,7 +25098,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25295,7 +25304,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25373,7 +25382,7 @@
         <v>0.5</v>
       </c>
       <c r="AP118">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118">
         <v>0.38</v>
@@ -26119,7 +26128,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26200,7 +26209,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ122">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR122">
         <v>1.24</v>
@@ -26531,7 +26540,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -26815,7 +26824,7 @@
         <v>1.29</v>
       </c>
       <c r="AP125">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ125">
         <v>1.13</v>
@@ -26943,7 +26952,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27355,7 +27364,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -27767,7 +27776,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28051,7 +28060,7 @@
         <v>1.57</v>
       </c>
       <c r="AP131">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ131">
         <v>1.5</v>
@@ -28179,7 +28188,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28257,7 +28266,7 @@
         <v>1.86</v>
       </c>
       <c r="AP132">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
         <v>1.75</v>
@@ -28385,7 +28394,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28466,7 +28475,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ133">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR133">
         <v>1.63</v>
@@ -28591,7 +28600,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28672,7 +28681,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ134">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR134">
         <v>1.14</v>
@@ -28878,7 +28887,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ135">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29209,7 +29218,7 @@
         <v>176</v>
       </c>
       <c r="P137" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q137">
         <v>3.12</v>
@@ -29621,7 +29630,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -29778,6 +29787,830 @@
       </c>
       <c r="BP139">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7502751</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45661.33333333334</v>
+      </c>
+      <c r="F140">
+        <v>17</v>
+      </c>
+      <c r="G140" t="s">
+        <v>81</v>
+      </c>
+      <c r="H140" t="s">
+        <v>79</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>178</v>
+      </c>
+      <c r="P140" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q140">
+        <v>3.3</v>
+      </c>
+      <c r="R140">
+        <v>2.05</v>
+      </c>
+      <c r="S140">
+        <v>3.1</v>
+      </c>
+      <c r="T140">
+        <v>1.42</v>
+      </c>
+      <c r="U140">
+        <v>2.65</v>
+      </c>
+      <c r="V140">
+        <v>2.95</v>
+      </c>
+      <c r="W140">
+        <v>1.35</v>
+      </c>
+      <c r="X140">
+        <v>7.4</v>
+      </c>
+      <c r="Y140">
+        <v>1.06</v>
+      </c>
+      <c r="Z140">
+        <v>2.7</v>
+      </c>
+      <c r="AA140">
+        <v>3.1</v>
+      </c>
+      <c r="AB140">
+        <v>2.5</v>
+      </c>
+      <c r="AC140">
+        <v>1.06</v>
+      </c>
+      <c r="AD140">
+        <v>8</v>
+      </c>
+      <c r="AE140">
+        <v>1.33</v>
+      </c>
+      <c r="AF140">
+        <v>3.1</v>
+      </c>
+      <c r="AG140">
+        <v>2</v>
+      </c>
+      <c r="AH140">
+        <v>1.7</v>
+      </c>
+      <c r="AI140">
+        <v>1.8</v>
+      </c>
+      <c r="AJ140">
+        <v>1.95</v>
+      </c>
+      <c r="AK140">
+        <v>1.53</v>
+      </c>
+      <c r="AL140">
+        <v>1.25</v>
+      </c>
+      <c r="AM140">
+        <v>1.45</v>
+      </c>
+      <c r="AN140">
+        <v>0.71</v>
+      </c>
+      <c r="AO140">
+        <v>1.5</v>
+      </c>
+      <c r="AP140">
+        <v>1</v>
+      </c>
+      <c r="AQ140">
+        <v>1.33</v>
+      </c>
+      <c r="AR140">
+        <v>1.48</v>
+      </c>
+      <c r="AS140">
+        <v>1.25</v>
+      </c>
+      <c r="AT140">
+        <v>2.73</v>
+      </c>
+      <c r="AU140">
+        <v>3</v>
+      </c>
+      <c r="AV140">
+        <v>0</v>
+      </c>
+      <c r="AW140">
+        <v>1</v>
+      </c>
+      <c r="AX140">
+        <v>9</v>
+      </c>
+      <c r="AY140">
+        <v>4</v>
+      </c>
+      <c r="AZ140">
+        <v>9</v>
+      </c>
+      <c r="BA140">
+        <v>1</v>
+      </c>
+      <c r="BB140">
+        <v>19</v>
+      </c>
+      <c r="BC140">
+        <v>20</v>
+      </c>
+      <c r="BD140">
+        <v>2.2</v>
+      </c>
+      <c r="BE140">
+        <v>8</v>
+      </c>
+      <c r="BF140">
+        <v>1.83</v>
+      </c>
+      <c r="BG140">
+        <v>1.25</v>
+      </c>
+      <c r="BH140">
+        <v>3.75</v>
+      </c>
+      <c r="BI140">
+        <v>1.45</v>
+      </c>
+      <c r="BJ140">
+        <v>2.63</v>
+      </c>
+      <c r="BK140">
+        <v>1.74</v>
+      </c>
+      <c r="BL140">
+        <v>2.02</v>
+      </c>
+      <c r="BM140">
+        <v>2.19</v>
+      </c>
+      <c r="BN140">
+        <v>1.63</v>
+      </c>
+      <c r="BO140">
+        <v>2.82</v>
+      </c>
+      <c r="BP140">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7502754</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45661.45833333334</v>
+      </c>
+      <c r="F141">
+        <v>17</v>
+      </c>
+      <c r="G141" t="s">
+        <v>85</v>
+      </c>
+      <c r="H141" t="s">
+        <v>74</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>89</v>
+      </c>
+      <c r="P141" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q141">
+        <v>2.6</v>
+      </c>
+      <c r="R141">
+        <v>2.05</v>
+      </c>
+      <c r="S141">
+        <v>4.2</v>
+      </c>
+      <c r="T141">
+        <v>1.44</v>
+      </c>
+      <c r="U141">
+        <v>2.6</v>
+      </c>
+      <c r="V141">
+        <v>3.05</v>
+      </c>
+      <c r="W141">
+        <v>1.33</v>
+      </c>
+      <c r="X141">
+        <v>7.9</v>
+      </c>
+      <c r="Y141">
+        <v>1.05</v>
+      </c>
+      <c r="Z141">
+        <v>1.95</v>
+      </c>
+      <c r="AA141">
+        <v>3.3</v>
+      </c>
+      <c r="AB141">
+        <v>3.7</v>
+      </c>
+      <c r="AC141">
+        <v>1.06</v>
+      </c>
+      <c r="AD141">
+        <v>8</v>
+      </c>
+      <c r="AE141">
+        <v>1.36</v>
+      </c>
+      <c r="AF141">
+        <v>3</v>
+      </c>
+      <c r="AG141">
+        <v>2.13</v>
+      </c>
+      <c r="AH141">
+        <v>1.67</v>
+      </c>
+      <c r="AI141">
+        <v>1.9</v>
+      </c>
+      <c r="AJ141">
+        <v>1.85</v>
+      </c>
+      <c r="AK141">
+        <v>1.25</v>
+      </c>
+      <c r="AL141">
+        <v>1.25</v>
+      </c>
+      <c r="AM141">
+        <v>1.83</v>
+      </c>
+      <c r="AN141">
+        <v>1.71</v>
+      </c>
+      <c r="AO141">
+        <v>2.29</v>
+      </c>
+      <c r="AP141">
+        <v>1.5</v>
+      </c>
+      <c r="AQ141">
+        <v>2.38</v>
+      </c>
+      <c r="AR141">
+        <v>1.36</v>
+      </c>
+      <c r="AS141">
+        <v>1.29</v>
+      </c>
+      <c r="AT141">
+        <v>2.65</v>
+      </c>
+      <c r="AU141">
+        <v>9</v>
+      </c>
+      <c r="AV141">
+        <v>6</v>
+      </c>
+      <c r="AW141">
+        <v>7</v>
+      </c>
+      <c r="AX141">
+        <v>4</v>
+      </c>
+      <c r="AY141">
+        <v>16</v>
+      </c>
+      <c r="AZ141">
+        <v>10</v>
+      </c>
+      <c r="BA141">
+        <v>10</v>
+      </c>
+      <c r="BB141">
+        <v>4</v>
+      </c>
+      <c r="BC141">
+        <v>14</v>
+      </c>
+      <c r="BD141">
+        <v>1.41</v>
+      </c>
+      <c r="BE141">
+        <v>9.5</v>
+      </c>
+      <c r="BF141">
+        <v>3.56</v>
+      </c>
+      <c r="BG141">
+        <v>1.17</v>
+      </c>
+      <c r="BH141">
+        <v>4.7</v>
+      </c>
+      <c r="BI141">
+        <v>1.31</v>
+      </c>
+      <c r="BJ141">
+        <v>3.25</v>
+      </c>
+      <c r="BK141">
+        <v>1.54</v>
+      </c>
+      <c r="BL141">
+        <v>2.38</v>
+      </c>
+      <c r="BM141">
+        <v>1.88</v>
+      </c>
+      <c r="BN141">
+        <v>1.92</v>
+      </c>
+      <c r="BO141">
+        <v>2.35</v>
+      </c>
+      <c r="BP141">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7502755</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45661.52083333334</v>
+      </c>
+      <c r="F142">
+        <v>17</v>
+      </c>
+      <c r="G142" t="s">
+        <v>83</v>
+      </c>
+      <c r="H142" t="s">
+        <v>72</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142" t="s">
+        <v>179</v>
+      </c>
+      <c r="P142" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q142">
+        <v>3.25</v>
+      </c>
+      <c r="R142">
+        <v>1.9</v>
+      </c>
+      <c r="S142">
+        <v>3.55</v>
+      </c>
+      <c r="T142">
+        <v>1.53</v>
+      </c>
+      <c r="U142">
+        <v>2.35</v>
+      </c>
+      <c r="V142">
+        <v>3.4</v>
+      </c>
+      <c r="W142">
+        <v>1.28</v>
+      </c>
+      <c r="X142">
+        <v>10.5</v>
+      </c>
+      <c r="Y142">
+        <v>1.03</v>
+      </c>
+      <c r="Z142">
+        <v>2.6</v>
+      </c>
+      <c r="AA142">
+        <v>2.8</v>
+      </c>
+      <c r="AB142">
+        <v>2.8</v>
+      </c>
+      <c r="AC142">
+        <v>1.09</v>
+      </c>
+      <c r="AD142">
+        <v>6.5</v>
+      </c>
+      <c r="AE142">
+        <v>1.45</v>
+      </c>
+      <c r="AF142">
+        <v>2.6</v>
+      </c>
+      <c r="AG142">
+        <v>2.3</v>
+      </c>
+      <c r="AH142">
+        <v>1.55</v>
+      </c>
+      <c r="AI142">
+        <v>1.93</v>
+      </c>
+      <c r="AJ142">
+        <v>1.73</v>
+      </c>
+      <c r="AK142">
+        <v>1.4</v>
+      </c>
+      <c r="AL142">
+        <v>1.33</v>
+      </c>
+      <c r="AM142">
+        <v>1.48</v>
+      </c>
+      <c r="AN142">
+        <v>1.63</v>
+      </c>
+      <c r="AO142">
+        <v>0.71</v>
+      </c>
+      <c r="AP142">
+        <v>1.78</v>
+      </c>
+      <c r="AQ142">
+        <v>0.63</v>
+      </c>
+      <c r="AR142">
+        <v>1.66</v>
+      </c>
+      <c r="AS142">
+        <v>1.38</v>
+      </c>
+      <c r="AT142">
+        <v>3.04</v>
+      </c>
+      <c r="AU142">
+        <v>8</v>
+      </c>
+      <c r="AV142">
+        <v>0</v>
+      </c>
+      <c r="AW142">
+        <v>12</v>
+      </c>
+      <c r="AX142">
+        <v>8</v>
+      </c>
+      <c r="AY142">
+        <v>20</v>
+      </c>
+      <c r="AZ142">
+        <v>8</v>
+      </c>
+      <c r="BA142">
+        <v>4</v>
+      </c>
+      <c r="BB142">
+        <v>5</v>
+      </c>
+      <c r="BC142">
+        <v>9</v>
+      </c>
+      <c r="BD142">
+        <v>2.05</v>
+      </c>
+      <c r="BE142">
+        <v>8</v>
+      </c>
+      <c r="BF142">
+        <v>2</v>
+      </c>
+      <c r="BG142">
+        <v>1.2</v>
+      </c>
+      <c r="BH142">
+        <v>3.72</v>
+      </c>
+      <c r="BI142">
+        <v>1.41</v>
+      </c>
+      <c r="BJ142">
+        <v>2.6</v>
+      </c>
+      <c r="BK142">
+        <v>1.73</v>
+      </c>
+      <c r="BL142">
+        <v>1.99</v>
+      </c>
+      <c r="BM142">
+        <v>2.17</v>
+      </c>
+      <c r="BN142">
+        <v>1.58</v>
+      </c>
+      <c r="BO142">
+        <v>2.88</v>
+      </c>
+      <c r="BP142">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7502752</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45661.625</v>
+      </c>
+      <c r="F143">
+        <v>17</v>
+      </c>
+      <c r="G143" t="s">
+        <v>87</v>
+      </c>
+      <c r="H143" t="s">
+        <v>77</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>2</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>4</v>
+      </c>
+      <c r="N143">
+        <v>5</v>
+      </c>
+      <c r="O143" t="s">
+        <v>128</v>
+      </c>
+      <c r="P143" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q143">
+        <v>2.65</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>4.2</v>
+      </c>
+      <c r="T143">
+        <v>1.45</v>
+      </c>
+      <c r="U143">
+        <v>2.55</v>
+      </c>
+      <c r="V143">
+        <v>3.05</v>
+      </c>
+      <c r="W143">
+        <v>1.33</v>
+      </c>
+      <c r="X143">
+        <v>7.9</v>
+      </c>
+      <c r="Y143">
+        <v>1.05</v>
+      </c>
+      <c r="Z143">
+        <v>2.05</v>
+      </c>
+      <c r="AA143">
+        <v>3.1</v>
+      </c>
+      <c r="AB143">
+        <v>3.4</v>
+      </c>
+      <c r="AC143">
+        <v>1.01</v>
+      </c>
+      <c r="AD143">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE143">
+        <v>1.36</v>
+      </c>
+      <c r="AF143">
+        <v>2.95</v>
+      </c>
+      <c r="AG143">
+        <v>2.1</v>
+      </c>
+      <c r="AH143">
+        <v>1.65</v>
+      </c>
+      <c r="AI143">
+        <v>1.9</v>
+      </c>
+      <c r="AJ143">
+        <v>1.83</v>
+      </c>
+      <c r="AK143">
+        <v>1.25</v>
+      </c>
+      <c r="AL143">
+        <v>1.25</v>
+      </c>
+      <c r="AM143">
+        <v>1.78</v>
+      </c>
+      <c r="AN143">
+        <v>2.43</v>
+      </c>
+      <c r="AO143">
+        <v>1.63</v>
+      </c>
+      <c r="AP143">
+        <v>2.13</v>
+      </c>
+      <c r="AQ143">
+        <v>1.78</v>
+      </c>
+      <c r="AR143">
+        <v>1.64</v>
+      </c>
+      <c r="AS143">
+        <v>1.46</v>
+      </c>
+      <c r="AT143">
+        <v>3.1</v>
+      </c>
+      <c r="AU143">
+        <v>8</v>
+      </c>
+      <c r="AV143">
+        <v>7</v>
+      </c>
+      <c r="AW143">
+        <v>6</v>
+      </c>
+      <c r="AX143">
+        <v>4</v>
+      </c>
+      <c r="AY143">
+        <v>14</v>
+      </c>
+      <c r="AZ143">
+        <v>11</v>
+      </c>
+      <c r="BA143">
+        <v>6</v>
+      </c>
+      <c r="BB143">
+        <v>3</v>
+      </c>
+      <c r="BC143">
+        <v>9</v>
+      </c>
+      <c r="BD143">
+        <v>1.75</v>
+      </c>
+      <c r="BE143">
+        <v>8</v>
+      </c>
+      <c r="BF143">
+        <v>2.42</v>
+      </c>
+      <c r="BG143">
+        <v>1.15</v>
+      </c>
+      <c r="BH143">
+        <v>4.25</v>
+      </c>
+      <c r="BI143">
+        <v>1.31</v>
+      </c>
+      <c r="BJ143">
+        <v>2.92</v>
+      </c>
+      <c r="BK143">
+        <v>1.58</v>
+      </c>
+      <c r="BL143">
+        <v>2.17</v>
+      </c>
+      <c r="BM143">
+        <v>1.99</v>
+      </c>
+      <c r="BN143">
+        <v>1.73</v>
+      </c>
+      <c r="BO143">
+        <v>2.57</v>
+      </c>
+      <c r="BP143">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,15 @@
     <t>['47']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['44', '55', '72']</t>
+  </si>
+  <si>
+    <t>['29', '40', '77', '90+1']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -788,6 +797,15 @@
   </si>
   <si>
     <t>['19', '31', '62', '90+5']</t>
+  </si>
+  <si>
+    <t>['1', '24', '74']</t>
+  </si>
+  <si>
+    <t>['4', '40']</t>
+  </si>
+  <si>
+    <t>['20', '31', '55']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1426,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1614,7 +1632,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1820,7 +1838,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2232,7 +2250,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2438,7 +2456,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2516,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>0.88</v>
@@ -2850,7 +2868,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3262,7 +3280,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3343,7 +3361,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ11">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3546,10 +3564,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ12">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3674,7 +3692,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3880,7 +3898,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -3958,10 +3976,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ14">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4086,7 +4104,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4167,7 +4185,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4292,7 +4310,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4370,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ16">
         <v>2.38</v>
@@ -4910,7 +4928,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5116,7 +5134,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5606,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>0.63</v>
@@ -5734,7 +5752,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6146,7 +6164,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6558,7 +6576,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6970,7 +6988,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7051,7 +7069,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>1.08</v>
@@ -7176,7 +7194,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7254,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ30">
         <v>0.63</v>
@@ -7463,7 +7481,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ31">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>1.31</v>
@@ -7588,7 +7606,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7666,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
         <v>1.43</v>
@@ -7875,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR33">
         <v>1.04</v>
@@ -8000,7 +8018,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8206,7 +8224,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8284,7 +8302,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ35">
         <v>2.38</v>
@@ -8412,7 +8430,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8493,7 +8511,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR36">
         <v>0.91</v>
@@ -8824,7 +8842,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8902,7 +8920,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>1.13</v>
@@ -9030,7 +9048,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9442,7 +9460,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9648,7 +9666,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10060,7 +10078,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10266,7 +10284,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10678,7 +10696,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10884,7 +10902,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10962,7 +10980,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ48">
         <v>1.5</v>
@@ -11090,7 +11108,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11296,7 +11314,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11377,7 +11395,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
         <v>1.2</v>
@@ -11502,7 +11520,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11583,7 +11601,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ51">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>1.12</v>
@@ -11786,7 +11804,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ52">
         <v>0.88</v>
@@ -12120,7 +12138,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12201,7 +12219,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ54">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR54">
         <v>1.11</v>
@@ -12404,10 +12422,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ55">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -12532,7 +12550,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12610,7 +12628,7 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.75</v>
@@ -12738,7 +12756,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12819,7 +12837,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -13150,7 +13168,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13228,7 +13246,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ59">
         <v>1.43</v>
@@ -14386,7 +14404,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14467,7 +14485,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ65">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.18</v>
@@ -14798,7 +14816,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15004,7 +15022,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15085,7 +15103,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ68">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15288,7 +15306,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ69">
         <v>1.43</v>
@@ -15703,7 +15721,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ71">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR71">
         <v>0.8</v>
@@ -15906,7 +15924,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -16034,7 +16052,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16115,7 +16133,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>1.18</v>
@@ -16240,7 +16258,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16318,7 +16336,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ74">
         <v>1.63</v>
@@ -16446,7 +16464,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16652,7 +16670,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16936,7 +16954,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -17064,7 +17082,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17145,7 +17163,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ78">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR78">
         <v>1.7</v>
@@ -17476,7 +17494,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -18094,7 +18112,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18712,7 +18730,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -18793,7 +18811,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ86">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -19124,7 +19142,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19536,7 +19554,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19614,7 +19632,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90">
         <v>1.63</v>
@@ -19742,7 +19760,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -19823,7 +19841,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ91">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.19</v>
@@ -19948,7 +19966,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20026,7 +20044,7 @@
         <v>0.6</v>
       </c>
       <c r="AP92">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ92">
         <v>1.13</v>
@@ -20154,7 +20172,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20235,7 +20253,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR93">
         <v>1.22</v>
@@ -20360,7 +20378,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20566,7 +20584,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -20644,7 +20662,7 @@
         <v>0.4</v>
       </c>
       <c r="AP95">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ95">
         <v>0.38</v>
@@ -20853,7 +20871,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ96">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR96">
         <v>1.37</v>
@@ -20978,7 +20996,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21184,7 +21202,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21262,7 +21280,7 @@
         <v>1.4</v>
       </c>
       <c r="AP98">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
         <v>1.78</v>
@@ -21390,7 +21408,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -21677,7 +21695,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ100">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR100">
         <v>1.7</v>
@@ -21880,7 +21898,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101">
         <v>0.63</v>
@@ -22214,7 +22232,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22626,7 +22644,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -22832,7 +22850,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23038,7 +23056,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23119,7 +23137,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ107">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR107">
         <v>1.21</v>
@@ -23244,7 +23262,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q108">
         <v>2.66</v>
@@ -23450,7 +23468,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -23656,7 +23674,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q110">
         <v>2.56</v>
@@ -24146,10 +24164,10 @@
         <v>1.83</v>
       </c>
       <c r="AP112">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR112">
         <v>1.41</v>
@@ -24274,7 +24292,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24480,7 +24498,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24561,7 +24579,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ114">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR114">
         <v>1.37</v>
@@ -24764,7 +24782,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ115">
         <v>1.13</v>
@@ -24892,7 +24910,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -24970,7 +24988,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ116">
         <v>1.33</v>
@@ -25098,7 +25116,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25179,7 +25197,7 @@
         <v>1</v>
       </c>
       <c r="AQ117">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR117">
         <v>1.26</v>
@@ -25304,7 +25322,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25588,7 +25606,7 @@
         <v>2</v>
       </c>
       <c r="AP119">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ119">
         <v>1.75</v>
@@ -26128,7 +26146,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26540,7 +26558,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -26952,7 +26970,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27364,7 +27382,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -27651,7 +27669,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ129">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -27776,7 +27794,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -27854,7 +27872,7 @@
         <v>0.43</v>
       </c>
       <c r="AP130">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ130">
         <v>0.38</v>
@@ -28063,7 +28081,7 @@
         <v>1</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR131">
         <v>1.36</v>
@@ -28188,7 +28206,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28394,7 +28412,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28472,7 +28490,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ133">
         <v>1.33</v>
@@ -28600,7 +28618,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28678,7 +28696,7 @@
         <v>1.43</v>
       </c>
       <c r="AP134">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ134">
         <v>1.78</v>
@@ -28884,7 +28902,7 @@
         <v>2.17</v>
       </c>
       <c r="AP135">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ135">
         <v>2.38</v>
@@ -29093,7 +29111,7 @@
         <v>2</v>
       </c>
       <c r="AQ136">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR136">
         <v>1.47</v>
@@ -29218,7 +29236,7 @@
         <v>176</v>
       </c>
       <c r="P137" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q137">
         <v>3.12</v>
@@ -29630,7 +29648,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -30042,7 +30060,7 @@
         <v>89</v>
       </c>
       <c r="P141" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30454,7 +30472,7 @@
         <v>128</v>
       </c>
       <c r="P143" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q143">
         <v>2.65</v>
@@ -30610,6 +30628,830 @@
         <v>2.57</v>
       </c>
       <c r="BP143">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7502749</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45662.33333333334</v>
+      </c>
+      <c r="F144">
+        <v>17</v>
+      </c>
+      <c r="G144" t="s">
+        <v>80</v>
+      </c>
+      <c r="H144" t="s">
+        <v>78</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>2</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>3</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>89</v>
+      </c>
+      <c r="P144" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q144">
+        <v>4.33</v>
+      </c>
+      <c r="R144">
+        <v>2.1</v>
+      </c>
+      <c r="S144">
+        <v>2.4</v>
+      </c>
+      <c r="T144">
+        <v>1.4</v>
+      </c>
+      <c r="U144">
+        <v>2.75</v>
+      </c>
+      <c r="V144">
+        <v>2.8</v>
+      </c>
+      <c r="W144">
+        <v>1.38</v>
+      </c>
+      <c r="X144">
+        <v>7.5</v>
+      </c>
+      <c r="Y144">
+        <v>1.07</v>
+      </c>
+      <c r="Z144">
+        <v>3.7</v>
+      </c>
+      <c r="AA144">
+        <v>3.3</v>
+      </c>
+      <c r="AB144">
+        <v>1.95</v>
+      </c>
+      <c r="AC144">
+        <v>1.05</v>
+      </c>
+      <c r="AD144">
+        <v>8.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.3</v>
+      </c>
+      <c r="AF144">
+        <v>3.35</v>
+      </c>
+      <c r="AG144">
+        <v>1.87</v>
+      </c>
+      <c r="AH144">
+        <v>1.82</v>
+      </c>
+      <c r="AI144">
+        <v>1.77</v>
+      </c>
+      <c r="AJ144">
+        <v>1.85</v>
+      </c>
+      <c r="AK144">
+        <v>1.93</v>
+      </c>
+      <c r="AL144">
+        <v>1.22</v>
+      </c>
+      <c r="AM144">
+        <v>1.18</v>
+      </c>
+      <c r="AN144">
+        <v>0.5</v>
+      </c>
+      <c r="AO144">
+        <v>1.29</v>
+      </c>
+      <c r="AP144">
+        <v>0.44</v>
+      </c>
+      <c r="AQ144">
+        <v>1.5</v>
+      </c>
+      <c r="AR144">
+        <v>1.17</v>
+      </c>
+      <c r="AS144">
+        <v>1.49</v>
+      </c>
+      <c r="AT144">
+        <v>2.66</v>
+      </c>
+      <c r="AU144">
+        <v>4</v>
+      </c>
+      <c r="AV144">
+        <v>5</v>
+      </c>
+      <c r="AW144">
+        <v>3</v>
+      </c>
+      <c r="AX144">
+        <v>2</v>
+      </c>
+      <c r="AY144">
+        <v>7</v>
+      </c>
+      <c r="AZ144">
+        <v>7</v>
+      </c>
+      <c r="BA144">
+        <v>7</v>
+      </c>
+      <c r="BB144">
+        <v>10</v>
+      </c>
+      <c r="BC144">
+        <v>17</v>
+      </c>
+      <c r="BD144">
+        <v>3.06</v>
+      </c>
+      <c r="BE144">
+        <v>9</v>
+      </c>
+      <c r="BF144">
+        <v>1.51</v>
+      </c>
+      <c r="BG144">
+        <v>1.1</v>
+      </c>
+      <c r="BH144">
+        <v>5.05</v>
+      </c>
+      <c r="BI144">
+        <v>1.24</v>
+      </c>
+      <c r="BJ144">
+        <v>3.34</v>
+      </c>
+      <c r="BK144">
+        <v>1.45</v>
+      </c>
+      <c r="BL144">
+        <v>2.48</v>
+      </c>
+      <c r="BM144">
+        <v>1.82</v>
+      </c>
+      <c r="BN144">
+        <v>1.98</v>
+      </c>
+      <c r="BO144">
+        <v>2.23</v>
+      </c>
+      <c r="BP144">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7502748</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45662.45833333334</v>
+      </c>
+      <c r="F145">
+        <v>17</v>
+      </c>
+      <c r="G145" t="s">
+        <v>75</v>
+      </c>
+      <c r="H145" t="s">
+        <v>71</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>180</v>
+      </c>
+      <c r="P145" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q145">
+        <v>2.8</v>
+      </c>
+      <c r="R145">
+        <v>1.95</v>
+      </c>
+      <c r="S145">
+        <v>4</v>
+      </c>
+      <c r="T145">
+        <v>1.48</v>
+      </c>
+      <c r="U145">
+        <v>2.45</v>
+      </c>
+      <c r="V145">
+        <v>3.2</v>
+      </c>
+      <c r="W145">
+        <v>1.3</v>
+      </c>
+      <c r="X145">
+        <v>9.4</v>
+      </c>
+      <c r="Y145">
+        <v>1.04</v>
+      </c>
+      <c r="Z145">
+        <v>2.15</v>
+      </c>
+      <c r="AA145">
+        <v>3.05</v>
+      </c>
+      <c r="AB145">
+        <v>3.35</v>
+      </c>
+      <c r="AC145">
+        <v>1.07</v>
+      </c>
+      <c r="AD145">
+        <v>7.5</v>
+      </c>
+      <c r="AE145">
+        <v>1.38</v>
+      </c>
+      <c r="AF145">
+        <v>2.88</v>
+      </c>
+      <c r="AG145">
+        <v>2.15</v>
+      </c>
+      <c r="AH145">
+        <v>1.62</v>
+      </c>
+      <c r="AI145">
+        <v>1.85</v>
+      </c>
+      <c r="AJ145">
+        <v>1.8</v>
+      </c>
+      <c r="AK145">
+        <v>1.28</v>
+      </c>
+      <c r="AL145">
+        <v>1.28</v>
+      </c>
+      <c r="AM145">
+        <v>1.7</v>
+      </c>
+      <c r="AN145">
+        <v>1.88</v>
+      </c>
+      <c r="AO145">
+        <v>0.86</v>
+      </c>
+      <c r="AP145">
+        <v>2</v>
+      </c>
+      <c r="AQ145">
+        <v>0.75</v>
+      </c>
+      <c r="AR145">
+        <v>1.33</v>
+      </c>
+      <c r="AS145">
+        <v>1.18</v>
+      </c>
+      <c r="AT145">
+        <v>2.51</v>
+      </c>
+      <c r="AU145">
+        <v>3</v>
+      </c>
+      <c r="AV145">
+        <v>4</v>
+      </c>
+      <c r="AW145">
+        <v>7</v>
+      </c>
+      <c r="AX145">
+        <v>4</v>
+      </c>
+      <c r="AY145">
+        <v>10</v>
+      </c>
+      <c r="AZ145">
+        <v>8</v>
+      </c>
+      <c r="BA145">
+        <v>8</v>
+      </c>
+      <c r="BB145">
+        <v>10</v>
+      </c>
+      <c r="BC145">
+        <v>18</v>
+      </c>
+      <c r="BD145">
+        <v>1.64</v>
+      </c>
+      <c r="BE145">
+        <v>8</v>
+      </c>
+      <c r="BF145">
+        <v>2.77</v>
+      </c>
+      <c r="BG145">
+        <v>1.23</v>
+      </c>
+      <c r="BH145">
+        <v>3.42</v>
+      </c>
+      <c r="BI145">
+        <v>1.45</v>
+      </c>
+      <c r="BJ145">
+        <v>2.48</v>
+      </c>
+      <c r="BK145">
+        <v>1.85</v>
+      </c>
+      <c r="BL145">
+        <v>1.95</v>
+      </c>
+      <c r="BM145">
+        <v>2.3</v>
+      </c>
+      <c r="BN145">
+        <v>1.52</v>
+      </c>
+      <c r="BO145">
+        <v>3.05</v>
+      </c>
+      <c r="BP145">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7502750</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45662.52083333334</v>
+      </c>
+      <c r="F146">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>84</v>
+      </c>
+      <c r="H146" t="s">
+        <v>70</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>2</v>
+      </c>
+      <c r="K146">
+        <v>3</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <v>5</v>
+      </c>
+      <c r="O146" t="s">
+        <v>181</v>
+      </c>
+      <c r="P146" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q146">
+        <v>2.88</v>
+      </c>
+      <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
+        <v>3.8</v>
+      </c>
+      <c r="T146">
+        <v>1.45</v>
+      </c>
+      <c r="U146">
+        <v>2.55</v>
+      </c>
+      <c r="V146">
+        <v>3.1</v>
+      </c>
+      <c r="W146">
+        <v>1.33</v>
+      </c>
+      <c r="X146">
+        <v>8.5</v>
+      </c>
+      <c r="Y146">
+        <v>1.05</v>
+      </c>
+      <c r="Z146">
+        <v>2.2</v>
+      </c>
+      <c r="AA146">
+        <v>3.25</v>
+      </c>
+      <c r="AB146">
+        <v>3.1</v>
+      </c>
+      <c r="AC146">
+        <v>1.06</v>
+      </c>
+      <c r="AD146">
+        <v>8</v>
+      </c>
+      <c r="AE146">
+        <v>1.36</v>
+      </c>
+      <c r="AF146">
+        <v>2.95</v>
+      </c>
+      <c r="AG146">
+        <v>2.11</v>
+      </c>
+      <c r="AH146">
+        <v>1.65</v>
+      </c>
+      <c r="AI146">
+        <v>1.8</v>
+      </c>
+      <c r="AJ146">
+        <v>1.83</v>
+      </c>
+      <c r="AK146">
+        <v>1.33</v>
+      </c>
+      <c r="AL146">
+        <v>1.28</v>
+      </c>
+      <c r="AM146">
+        <v>1.65</v>
+      </c>
+      <c r="AN146">
+        <v>1.14</v>
+      </c>
+      <c r="AO146">
+        <v>1.63</v>
+      </c>
+      <c r="AP146">
+        <v>1.38</v>
+      </c>
+      <c r="AQ146">
+        <v>1.44</v>
+      </c>
+      <c r="AR146">
+        <v>1.64</v>
+      </c>
+      <c r="AS146">
+        <v>1.48</v>
+      </c>
+      <c r="AT146">
+        <v>3.12</v>
+      </c>
+      <c r="AU146">
+        <v>10</v>
+      </c>
+      <c r="AV146">
+        <v>4</v>
+      </c>
+      <c r="AW146">
+        <v>5</v>
+      </c>
+      <c r="AX146">
+        <v>3</v>
+      </c>
+      <c r="AY146">
+        <v>15</v>
+      </c>
+      <c r="AZ146">
+        <v>7</v>
+      </c>
+      <c r="BA146">
+        <v>4</v>
+      </c>
+      <c r="BB146">
+        <v>4</v>
+      </c>
+      <c r="BC146">
+        <v>8</v>
+      </c>
+      <c r="BD146">
+        <v>1.84</v>
+      </c>
+      <c r="BE146">
+        <v>6.55</v>
+      </c>
+      <c r="BF146">
+        <v>2.5</v>
+      </c>
+      <c r="BG146">
+        <v>1.2</v>
+      </c>
+      <c r="BH146">
+        <v>3.72</v>
+      </c>
+      <c r="BI146">
+        <v>1.41</v>
+      </c>
+      <c r="BJ146">
+        <v>2.6</v>
+      </c>
+      <c r="BK146">
+        <v>1.73</v>
+      </c>
+      <c r="BL146">
+        <v>1.99</v>
+      </c>
+      <c r="BM146">
+        <v>2.17</v>
+      </c>
+      <c r="BN146">
+        <v>1.58</v>
+      </c>
+      <c r="BO146">
+        <v>2.88</v>
+      </c>
+      <c r="BP146">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7502753</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45662.625</v>
+      </c>
+      <c r="F147">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>82</v>
+      </c>
+      <c r="H147" t="s">
+        <v>73</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>2</v>
+      </c>
+      <c r="K147">
+        <v>4</v>
+      </c>
+      <c r="L147">
+        <v>4</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>7</v>
+      </c>
+      <c r="O147" t="s">
+        <v>182</v>
+      </c>
+      <c r="P147" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q147">
+        <v>3.25</v>
+      </c>
+      <c r="R147">
+        <v>2.05</v>
+      </c>
+      <c r="S147">
+        <v>3.5</v>
+      </c>
+      <c r="T147">
+        <v>1.5</v>
+      </c>
+      <c r="U147">
+        <v>2.5</v>
+      </c>
+      <c r="V147">
+        <v>3.4</v>
+      </c>
+      <c r="W147">
+        <v>1.3</v>
+      </c>
+      <c r="X147">
+        <v>10</v>
+      </c>
+      <c r="Y147">
+        <v>1.06</v>
+      </c>
+      <c r="Z147">
+        <v>2.45</v>
+      </c>
+      <c r="AA147">
+        <v>3.1</v>
+      </c>
+      <c r="AB147">
+        <v>2.82</v>
+      </c>
+      <c r="AC147">
+        <v>1.02</v>
+      </c>
+      <c r="AD147">
+        <v>7.9</v>
+      </c>
+      <c r="AE147">
+        <v>1.38</v>
+      </c>
+      <c r="AF147">
+        <v>2.9</v>
+      </c>
+      <c r="AG147">
+        <v>2.14</v>
+      </c>
+      <c r="AH147">
+        <v>1.63</v>
+      </c>
+      <c r="AI147">
+        <v>1.83</v>
+      </c>
+      <c r="AJ147">
+        <v>1.83</v>
+      </c>
+      <c r="AK147">
+        <v>1.4</v>
+      </c>
+      <c r="AL147">
+        <v>1.28</v>
+      </c>
+      <c r="AM147">
+        <v>1.52</v>
+      </c>
+      <c r="AN147">
+        <v>0.63</v>
+      </c>
+      <c r="AO147">
+        <v>1.5</v>
+      </c>
+      <c r="AP147">
+        <v>0.89</v>
+      </c>
+      <c r="AQ147">
+        <v>1.33</v>
+      </c>
+      <c r="AR147">
+        <v>1.68</v>
+      </c>
+      <c r="AS147">
+        <v>1.24</v>
+      </c>
+      <c r="AT147">
+        <v>2.92</v>
+      </c>
+      <c r="AU147">
+        <v>8</v>
+      </c>
+      <c r="AV147">
+        <v>8</v>
+      </c>
+      <c r="AW147">
+        <v>9</v>
+      </c>
+      <c r="AX147">
+        <v>8</v>
+      </c>
+      <c r="AY147">
+        <v>17</v>
+      </c>
+      <c r="AZ147">
+        <v>16</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
+        <v>11</v>
+      </c>
+      <c r="BC147">
+        <v>16</v>
+      </c>
+      <c r="BD147">
+        <v>1.8</v>
+      </c>
+      <c r="BE147">
+        <v>6.6</v>
+      </c>
+      <c r="BF147">
+        <v>2.58</v>
+      </c>
+      <c r="BG147">
+        <v>1.15</v>
+      </c>
+      <c r="BH147">
+        <v>4.25</v>
+      </c>
+      <c r="BI147">
+        <v>1.32</v>
+      </c>
+      <c r="BJ147">
+        <v>2.88</v>
+      </c>
+      <c r="BK147">
+        <v>1.58</v>
+      </c>
+      <c r="BL147">
+        <v>2.17</v>
+      </c>
+      <c r="BM147">
+        <v>1.99</v>
+      </c>
+      <c r="BN147">
+        <v>1.73</v>
+      </c>
+      <c r="BO147">
+        <v>2.57</v>
+      </c>
+      <c r="BP147">
         <v>1.42</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,9 @@
     <t>['29', '40', '77', '90+1']</t>
   </si>
   <si>
+    <t>['19', '29']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -806,6 +809,9 @@
   </si>
   <si>
     <t>['20', '31', '55']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP147"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,7 +1432,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1632,7 +1638,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -1838,7 +1844,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2250,7 +2256,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2456,7 +2462,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2868,7 +2874,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3280,7 +3286,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3692,7 +3698,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -3898,7 +3904,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4104,7 +4110,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4310,7 +4316,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4800,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ18">
         <v>1.43</v>
@@ -4928,7 +4934,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5009,7 +5015,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ19">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5134,7 +5140,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5752,7 +5758,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6039,7 +6045,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ24">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR24">
         <v>1.31</v>
@@ -6164,7 +6170,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6576,7 +6582,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6860,7 +6866,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ28">
         <v>1.13</v>
@@ -6988,7 +6994,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7194,7 +7200,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7606,7 +7612,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8018,7 +8024,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8224,7 +8230,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8430,7 +8436,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8842,7 +8848,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9048,7 +9054,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9460,7 +9466,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9666,7 +9672,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9953,7 +9959,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ43">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR43">
         <v>1.55</v>
@@ -10078,7 +10084,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10156,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ44">
         <v>0.63</v>
@@ -10284,7 +10290,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10696,7 +10702,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -10902,7 +10908,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11108,7 +11114,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11314,7 +11320,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11520,7 +11526,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12138,7 +12144,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12550,7 +12556,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12756,7 +12762,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13043,7 +13049,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ58">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR58">
         <v>1.6</v>
@@ -13168,7 +13174,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14276,7 +14282,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ64">
         <v>1.63</v>
@@ -14404,7 +14410,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14816,7 +14822,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15022,7 +15028,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -16052,7 +16058,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16258,7 +16264,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16464,7 +16470,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16670,7 +16676,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -16748,7 +16754,7 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ76">
         <v>1.75</v>
@@ -17082,7 +17088,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17369,7 +17375,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ79">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR79">
         <v>1.3</v>
@@ -17494,7 +17500,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -18112,7 +18118,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18730,7 +18736,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19142,7 +19148,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19554,7 +19560,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19760,7 +19766,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -19966,7 +19972,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20172,7 +20178,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20378,7 +20384,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20584,7 +20590,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -20665,7 +20671,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ95">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR95">
         <v>1.56</v>
@@ -20996,7 +21002,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21074,7 +21080,7 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ97">
         <v>1.33</v>
@@ -21202,7 +21208,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21408,7 +21414,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22232,7 +22238,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22644,7 +22650,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -22850,7 +22856,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23056,7 +23062,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23262,7 +23268,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q108">
         <v>2.66</v>
@@ -23468,7 +23474,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -23674,7 +23680,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>2.56</v>
@@ -24292,7 +24298,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24370,7 +24376,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ113">
         <v>1.78</v>
@@ -24498,7 +24504,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24910,7 +24916,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25116,7 +25122,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25322,7 +25328,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25403,7 +25409,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ118">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -26146,7 +26152,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26558,7 +26564,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -26970,7 +26976,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27382,7 +27388,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -27794,7 +27800,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -27875,7 +27881,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ130">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR130">
         <v>1.55</v>
@@ -28206,7 +28212,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28412,7 +28418,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28618,7 +28624,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -29108,7 +29114,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ136">
         <v>1.5</v>
@@ -29236,7 +29242,7 @@
         <v>176</v>
       </c>
       <c r="P137" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q137">
         <v>3.12</v>
@@ -29648,7 +29654,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -30060,7 +30066,7 @@
         <v>89</v>
       </c>
       <c r="P141" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30472,7 +30478,7 @@
         <v>128</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q143">
         <v>2.65</v>
@@ -30678,7 +30684,7 @@
         <v>89</v>
       </c>
       <c r="P144" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q144">
         <v>4.33</v>
@@ -30771,22 +30777,22 @@
         <v>2.66</v>
       </c>
       <c r="AU144">
+        <v>0</v>
+      </c>
+      <c r="AV144">
         <v>4</v>
       </c>
-      <c r="AV144">
-        <v>5</v>
-      </c>
       <c r="AW144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX144">
         <v>2</v>
       </c>
       <c r="AY144">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA144">
         <v>7</v>
@@ -30977,22 +30983,22 @@
         <v>2.51</v>
       </c>
       <c r="AU145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW145">
         <v>7</v>
       </c>
       <c r="AX145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY145">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ145">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA145">
         <v>8</v>
@@ -31090,7 +31096,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31183,10 +31189,10 @@
         <v>3.12</v>
       </c>
       <c r="AU146">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW146">
         <v>5</v>
@@ -31195,10 +31201,10 @@
         <v>3</v>
       </c>
       <c r="AY146">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AZ146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA146">
         <v>4</v>
@@ -31296,7 +31302,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31389,10 +31395,10 @@
         <v>2.92</v>
       </c>
       <c r="AU147">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV147">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW147">
         <v>9</v>
@@ -31401,10 +31407,10 @@
         <v>8</v>
       </c>
       <c r="AY147">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ147">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA147">
         <v>5</v>
@@ -31453,6 +31459,212 @@
       </c>
       <c r="BP147">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7502756</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45663.625</v>
+      </c>
+      <c r="F148">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>86</v>
+      </c>
+      <c r="H148" t="s">
+        <v>76</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>183</v>
+      </c>
+      <c r="P148" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q148">
+        <v>2.36</v>
+      </c>
+      <c r="R148">
+        <v>2.2</v>
+      </c>
+      <c r="S148">
+        <v>4.4</v>
+      </c>
+      <c r="T148">
+        <v>1.34</v>
+      </c>
+      <c r="U148">
+        <v>3.1</v>
+      </c>
+      <c r="V148">
+        <v>2.67</v>
+      </c>
+      <c r="W148">
+        <v>1.44</v>
+      </c>
+      <c r="X148">
+        <v>6.9</v>
+      </c>
+      <c r="Y148">
+        <v>1.08</v>
+      </c>
+      <c r="Z148">
+        <v>1.85</v>
+      </c>
+      <c r="AA148">
+        <v>3.55</v>
+      </c>
+      <c r="AB148">
+        <v>3.73</v>
+      </c>
+      <c r="AC148">
+        <v>1.02</v>
+      </c>
+      <c r="AD148">
+        <v>10</v>
+      </c>
+      <c r="AE148">
+        <v>1.2</v>
+      </c>
+      <c r="AF148">
+        <v>3.7</v>
+      </c>
+      <c r="AG148">
+        <v>1.78</v>
+      </c>
+      <c r="AH148">
+        <v>1.94</v>
+      </c>
+      <c r="AI148">
+        <v>1.7</v>
+      </c>
+      <c r="AJ148">
+        <v>2.03</v>
+      </c>
+      <c r="AK148">
+        <v>1.23</v>
+      </c>
+      <c r="AL148">
+        <v>1.25</v>
+      </c>
+      <c r="AM148">
+        <v>1.93</v>
+      </c>
+      <c r="AN148">
+        <v>2</v>
+      </c>
+      <c r="AO148">
+        <v>0.38</v>
+      </c>
+      <c r="AP148">
+        <v>2.11</v>
+      </c>
+      <c r="AQ148">
+        <v>0.33</v>
+      </c>
+      <c r="AR148">
+        <v>1.62</v>
+      </c>
+      <c r="AS148">
+        <v>1.52</v>
+      </c>
+      <c r="AT148">
+        <v>3.14</v>
+      </c>
+      <c r="AU148">
+        <v>3</v>
+      </c>
+      <c r="AV148">
+        <v>2</v>
+      </c>
+      <c r="AW148">
+        <v>6</v>
+      </c>
+      <c r="AX148">
+        <v>10</v>
+      </c>
+      <c r="AY148">
+        <v>9</v>
+      </c>
+      <c r="AZ148">
+        <v>12</v>
+      </c>
+      <c r="BA148">
+        <v>2</v>
+      </c>
+      <c r="BB148">
+        <v>3</v>
+      </c>
+      <c r="BC148">
+        <v>5</v>
+      </c>
+      <c r="BD148">
+        <v>1.69</v>
+      </c>
+      <c r="BE148">
+        <v>6.75</v>
+      </c>
+      <c r="BF148">
+        <v>2.82</v>
+      </c>
+      <c r="BG148">
+        <v>1.16</v>
+      </c>
+      <c r="BH148">
+        <v>4.05</v>
+      </c>
+      <c r="BI148">
+        <v>1.35</v>
+      </c>
+      <c r="BJ148">
+        <v>2.84</v>
+      </c>
+      <c r="BK148">
+        <v>1.64</v>
+      </c>
+      <c r="BL148">
+        <v>2.12</v>
+      </c>
+      <c r="BM148">
+        <v>2.04</v>
+      </c>
+      <c r="BN148">
+        <v>1.66</v>
+      </c>
+      <c r="BO148">
+        <v>2.62</v>
+      </c>
+      <c r="BP148">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal LigaPro_20242025.xlsx
@@ -31189,10 +31189,10 @@
         <v>3.12</v>
       </c>
       <c r="AU146">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV146">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW146">
         <v>5</v>
@@ -31201,10 +31201,10 @@
         <v>3</v>
       </c>
       <c r="AY146">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ146">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA146">
         <v>4</v>
@@ -31395,22 +31395,22 @@
         <v>2.92</v>
       </c>
       <c r="AU147">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV147">
+        <v>8</v>
+      </c>
+      <c r="AW147">
+        <v>7</v>
+      </c>
+      <c r="AX147">
         <v>4</v>
       </c>
-      <c r="AW147">
-        <v>9</v>
-      </c>
-      <c r="AX147">
-        <v>8</v>
-      </c>
       <c r="AY147">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ147">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA147">
         <v>5</v>
